--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5767,6 +5767,96 @@
         <v>346.6466666666667</v>
       </c>
       <c r="D298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>354.57</v>
+      </c>
+      <c r="C299" t="n">
+        <v>354.63</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>366.91</v>
+      </c>
+      <c r="C300" t="n">
+        <v>352.6833333333333</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>362.425</v>
+      </c>
+      <c r="C301" t="n">
+        <v>369.38</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>366.16</v>
+      </c>
+      <c r="C302" t="n">
+        <v>352.1366666666667</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>360.58</v>
+      </c>
+      <c r="C303" t="n">
+        <v>352.1233333333333</v>
+      </c>
+      <c r="D303" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5783,7 +5873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B346"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9251,6 +9341,56 @@
       </c>
       <c r="B346" t="n">
         <v>1.06</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -9419,28 +9559,28 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2754730356392281</v>
+        <v>0.2902507795679675</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04045540960671323</v>
+        <v>0.04606390966173468</v>
       </c>
       <c r="M2" t="n">
-        <v>7.649718274693334</v>
+        <v>7.610841344604187</v>
       </c>
       <c r="N2" t="n">
-        <v>86.70797865141769</v>
+        <v>85.83730813881863</v>
       </c>
       <c r="O2" t="n">
-        <v>9.311711907668627</v>
+        <v>9.264842585754959</v>
       </c>
       <c r="P2" t="n">
-        <v>351.0447808875596</v>
+        <v>350.8936581621319</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -9496,28 +9636,28 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2727114894659594</v>
+        <v>0.2812218395856951</v>
       </c>
       <c r="J3" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04422750832455835</v>
+        <v>0.04808335445906142</v>
       </c>
       <c r="M3" t="n">
-        <v>6.959284011032387</v>
+        <v>6.915206008623713</v>
       </c>
       <c r="N3" t="n">
-        <v>77.21124133662954</v>
+        <v>76.74984549978493</v>
       </c>
       <c r="O3" t="n">
-        <v>8.786992735665004</v>
+        <v>8.760698916170155</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8649100828807</v>
+        <v>346.7775456426038</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -9554,7 +9694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16054,6 +16194,116 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.51147967520942,174.47753045989495</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.51161621392633,174.4784129660076</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.51137021414134,174.4775547019011</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.51163348170357,174.47840914188143</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.511409998006634,174.47754589109795</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.51148537502771,174.47844194157219</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.511376866961676,174.47755322852322</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.51163833087387,174.4784080679827</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.51142636394433,174.4775422665846</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.51163844914631,174.47840804179006</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -9404,7 +9404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9495,35 +9495,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -9582,27 +9587,28 @@
       <c r="P2" t="n">
         <v>350.8936581621319</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.47683387903544 -35.51462486025414, 174.4786499997947 -35.50642427306745)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4768338790354</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.51462486025414</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4786499997947</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.50642427306745</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4777419394151</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.51052456666079</v>
       </c>
     </row>
@@ -9659,27 +9665,28 @@
       <c r="P3" t="n">
         <v>346.7775456426038</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.47771628877476 -35.51476193362676, 174.4795323525364 -35.506561344464025)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4777162887748</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.51476193362676</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4795323525364</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.50656134446402</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4786243206556</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.5106616390454</v>
       </c>
     </row>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5857,6 +5857,24 @@
         <v>352.1233333333333</v>
       </c>
       <c r="D303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>363.505</v>
+      </c>
+      <c r="C304" t="n">
+        <v>347.1566666666667</v>
+      </c>
+      <c r="D304" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5873,7 +5891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9391,6 +9409,26 @@
       </c>
       <c r="B351" t="n">
         <v>-0.28</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -9564,28 +9602,28 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2902507795679675</v>
+        <v>0.2940108011301423</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04606390966173468</v>
+        <v>0.04750383378773693</v>
       </c>
       <c r="M2" t="n">
-        <v>7.610841344604187</v>
+        <v>7.602021620525579</v>
       </c>
       <c r="N2" t="n">
-        <v>85.83730813881863</v>
+        <v>85.63670958092057</v>
       </c>
       <c r="O2" t="n">
-        <v>9.264842585754959</v>
+        <v>9.254010459304688</v>
       </c>
       <c r="P2" t="n">
-        <v>350.8936581621319</v>
+        <v>350.8549295241399</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9642,28 +9680,28 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2812218395856951</v>
+        <v>0.2763925147880981</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04808335445906142</v>
+        <v>0.04676275105515182</v>
       </c>
       <c r="M3" t="n">
-        <v>6.915206008623713</v>
+        <v>6.912779566197805</v>
       </c>
       <c r="N3" t="n">
-        <v>76.74984549978493</v>
+        <v>76.64466555725984</v>
       </c>
       <c r="O3" t="n">
-        <v>8.760698916170155</v>
+        <v>8.754693915680882</v>
       </c>
       <c r="P3" t="n">
-        <v>346.7775456426038</v>
+        <v>346.8276911290754</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9701,7 +9739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16311,6 +16349,28 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.5114004179455,174.47754801276366</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.51168250563211,174.47839828502183</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5875,6 +5875,60 @@
         <v>347.1566666666667</v>
       </c>
       <c r="D304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>346.735</v>
+      </c>
+      <c r="C305" t="n">
+        <v>346.5566666666667</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>362.945</v>
+      </c>
+      <c r="C306" t="n">
+        <v>352.3466666666667</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>349.755</v>
+      </c>
+      <c r="C307" t="n">
+        <v>342.6566666666667</v>
+      </c>
+      <c r="D307" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5891,7 +5945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9429,6 +9483,36 @@
       </c>
       <c r="B353" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -9602,28 +9686,28 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2940108011301423</v>
+        <v>0.2828794600781143</v>
       </c>
       <c r="J2" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04750383378773693</v>
+        <v>0.04471601224429911</v>
       </c>
       <c r="M2" t="n">
-        <v>7.602021620525579</v>
+        <v>7.610219928071787</v>
       </c>
       <c r="N2" t="n">
-        <v>85.63670958092057</v>
+        <v>85.540941394911</v>
       </c>
       <c r="O2" t="n">
-        <v>9.254010459304688</v>
+        <v>9.248834596580858</v>
       </c>
       <c r="P2" t="n">
-        <v>350.8549295241399</v>
+        <v>350.9702387467403</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9680,28 +9764,28 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2763925147880981</v>
+        <v>0.2622942177610996</v>
       </c>
       <c r="J3" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04676275105515182</v>
+        <v>0.0428976498246012</v>
       </c>
       <c r="M3" t="n">
-        <v>6.912779566197805</v>
+        <v>6.903529558789205</v>
       </c>
       <c r="N3" t="n">
-        <v>76.64466555725984</v>
+        <v>76.47450722796891</v>
       </c>
       <c r="O3" t="n">
-        <v>8.754693915680882</v>
+        <v>8.744970396060179</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8276911290754</v>
+        <v>346.9750353150634</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9739,7 +9823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16371,6 +16455,72 @@
         </is>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.511549175001555,174.47751506795763</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.511687827892096,174.47839710635117</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.51140538538461,174.47754691264075</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.51163646808285,174.47840848051698</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>-35.51152238631357,174.47752100078128</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>-35.511722422581606,174.47838944498844</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5931,6 +5931,24 @@
       <c r="D307" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>336.015</v>
+      </c>
+      <c r="C308" t="n">
+        <v>342.4966666666667</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5945,7 +5963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9513,6 +9531,16 @@
       </c>
       <c r="B356" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.71</v>
       </c>
     </row>
   </sheetData>
@@ -9686,28 +9714,28 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2828794600781143</v>
+        <v>0.2672434475514031</v>
       </c>
       <c r="J2" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04471601224429911</v>
+        <v>0.03965860630329976</v>
       </c>
       <c r="M2" t="n">
-        <v>7.610219928071787</v>
+        <v>7.660765141162329</v>
       </c>
       <c r="N2" t="n">
-        <v>85.540941394911</v>
+        <v>86.8932965933847</v>
       </c>
       <c r="O2" t="n">
-        <v>9.248834596580858</v>
+        <v>9.321657395194521</v>
       </c>
       <c r="P2" t="n">
-        <v>350.9702387467403</v>
+        <v>351.132663911528</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9764,28 +9792,28 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2622942177610996</v>
+        <v>0.2545064541429252</v>
       </c>
       <c r="J3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0428976498246012</v>
+        <v>0.04056180351205885</v>
       </c>
       <c r="M3" t="n">
-        <v>6.903529558789205</v>
+        <v>6.913451362376024</v>
       </c>
       <c r="N3" t="n">
-        <v>76.47450722796891</v>
+        <v>76.63458136688017</v>
       </c>
       <c r="O3" t="n">
-        <v>8.744970396060179</v>
+        <v>8.754117966241955</v>
       </c>
       <c r="P3" t="n">
-        <v>346.9750353150634</v>
+        <v>347.056596375949</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9823,7 +9851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16521,6 +16549,28 @@
         </is>
       </c>
     </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>-35.511644265970936,174.47749400836878</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>-35.51172384185091,174.478389130676</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5949,6 +5949,60 @@
       <c r="D308" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>362.73</v>
+      </c>
+      <c r="C309" t="n">
+        <v>344.17</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>354.475</v>
+      </c>
+      <c r="C310" t="n">
+        <v>361.9533333333333</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>353.215</v>
+      </c>
+      <c r="C311" t="n">
+        <v>344.57</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5963,7 +6017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9541,6 +9595,36 @@
       </c>
       <c r="B357" t="n">
         <v>-0.71</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -9714,28 +9798,28 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2672434475514031</v>
+        <v>0.2647309828117241</v>
       </c>
       <c r="J2" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03965860630329976</v>
+        <v>0.03969491582060936</v>
       </c>
       <c r="M2" t="n">
-        <v>7.660765141162329</v>
+        <v>7.628102444265298</v>
       </c>
       <c r="N2" t="n">
-        <v>86.8932965933847</v>
+        <v>86.21940685801007</v>
       </c>
       <c r="O2" t="n">
-        <v>9.321657395194521</v>
+        <v>9.285440585023959</v>
       </c>
       <c r="P2" t="n">
-        <v>351.132663911528</v>
+        <v>351.1589365917141</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9792,28 +9876,28 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2545064541429252</v>
+        <v>0.2476237508855746</v>
       </c>
       <c r="J3" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04056180351205885</v>
+        <v>0.03889697618125465</v>
       </c>
       <c r="M3" t="n">
-        <v>6.913451362376024</v>
+        <v>6.929321357377345</v>
       </c>
       <c r="N3" t="n">
-        <v>76.63458136688017</v>
+        <v>76.66631561355904</v>
       </c>
       <c r="O3" t="n">
-        <v>8.754117966241955</v>
+        <v>8.755930311141075</v>
       </c>
       <c r="P3" t="n">
-        <v>347.056596375949</v>
+        <v>347.1289455264407</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9851,7 +9935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16571,6 +16655,72 @@
         </is>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>-35.511407292526414,174.4775464902721</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>-35.5117089986594,174.47839241785982</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-35.511480517899955,174.47753027326664</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-35.51155125278369,174.4784273523044</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>-35.51149169463756,174.4775277979854</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>-35.51170545048613,174.47839320364065</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6003,6 +6003,42 @@
       <c r="D311" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>344.265</v>
+      </c>
+      <c r="C312" t="n">
+        <v>352.1633333333333</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>349.235</v>
+      </c>
+      <c r="C313" t="n">
+        <v>355.3933333333333</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9625,6 +9661,26 @@
       </c>
       <c r="B360" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -9798,28 +9854,28 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2647309828117241</v>
+        <v>0.249482734364148</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03969491582060936</v>
+        <v>0.03556440384323367</v>
       </c>
       <c r="M2" t="n">
-        <v>7.628102444265298</v>
+        <v>7.652026775557916</v>
       </c>
       <c r="N2" t="n">
-        <v>86.21940685801007</v>
+        <v>86.50950637334215</v>
       </c>
       <c r="O2" t="n">
-        <v>9.285440585023959</v>
+        <v>9.301048670625381</v>
       </c>
       <c r="P2" t="n">
-        <v>351.1589365917141</v>
+        <v>351.3184532801962</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9876,28 +9932,28 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2476237508855746</v>
+        <v>0.2479563878409553</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K3" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03889697618125465</v>
+        <v>0.03952169488004098</v>
       </c>
       <c r="M3" t="n">
-        <v>6.929321357377345</v>
+        <v>6.894657229456651</v>
       </c>
       <c r="N3" t="n">
-        <v>76.66631561355904</v>
+        <v>76.18102243273151</v>
       </c>
       <c r="O3" t="n">
-        <v>8.755930311141075</v>
+        <v>8.728174060634418</v>
       </c>
       <c r="P3" t="n">
-        <v>347.1289455264407</v>
+        <v>347.1254254765288</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9935,7 +9991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16721,6 +16777,50 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-35.51157108495473,174.4775102156124</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-35.51163809432897,174.47840812036802</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-35.51152699893537,174.47751997923575</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-35.5116094428287,174.47841446553613</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6037,6 +6037,24 @@
         <v>355.3933333333333</v>
       </c>
       <c r="D313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>336.17</v>
+      </c>
+      <c r="C314" t="n">
+        <v>338.6866666666667</v>
+      </c>
+      <c r="D314" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -6053,7 +6071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9681,6 +9699,26 @@
       </c>
       <c r="B362" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -9854,28 +9892,28 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.249482734364148</v>
+        <v>0.2349142848455016</v>
       </c>
       <c r="J2" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03556440384323367</v>
+        <v>0.03134477037246819</v>
       </c>
       <c r="M2" t="n">
-        <v>7.652026775557916</v>
+        <v>7.697197084521069</v>
       </c>
       <c r="N2" t="n">
-        <v>86.50950637334215</v>
+        <v>87.74551810502948</v>
       </c>
       <c r="O2" t="n">
-        <v>9.301048670625381</v>
+        <v>9.367257768687134</v>
       </c>
       <c r="P2" t="n">
-        <v>351.3184532801962</v>
+        <v>351.4712419644173</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9932,28 +9970,28 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2479563878409553</v>
+        <v>0.2380565589913597</v>
       </c>
       <c r="J3" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03952169488004098</v>
+        <v>0.0364583986994933</v>
       </c>
       <c r="M3" t="n">
-        <v>6.894657229456651</v>
+        <v>6.914216200721962</v>
       </c>
       <c r="N3" t="n">
-        <v>76.18102243273151</v>
+        <v>76.64666856954997</v>
       </c>
       <c r="O3" t="n">
-        <v>8.728174060634418</v>
+        <v>8.754808311410935</v>
       </c>
       <c r="P3" t="n">
-        <v>347.1254254765288</v>
+        <v>347.2301107136661</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9991,7 +10029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16821,6 +16859,28 @@
         </is>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-35.51164289105489,174.47749431286874</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-35.51175763820092,174.47838164610786</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -468,7 +468,7 @@
         <v>359.95</v>
       </c>
       <c r="C2" t="n">
-        <v>360.9666666666667</v>
+        <v>360.97</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.135</v>
+        <v>350.13</v>
       </c>
       <c r="C3" t="n">
         <v>359.51</v>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.235</v>
+        <v>338.24</v>
       </c>
       <c r="C4" t="n">
-        <v>343.5533333333333</v>
+        <v>343.55</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         <v>353.76</v>
       </c>
       <c r="C6" t="n">
-        <v>351.5633333333333</v>
+        <v>351.56</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.305</v>
+        <v>347.31</v>
       </c>
       <c r="C7" t="n">
-        <v>343.0466666666667</v>
+        <v>343.05</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         <v>350.29</v>
       </c>
       <c r="C8" t="n">
-        <v>342.1066666666667</v>
+        <v>342.11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>361.595</v>
+        <v>361.6</v>
       </c>
       <c r="C9" t="n">
-        <v>351.1033333333333</v>
+        <v>351.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.005</v>
+        <v>350</v>
       </c>
       <c r="C10" t="n">
         <v>346.74</v>
@@ -630,7 +630,7 @@
         <v>356.85</v>
       </c>
       <c r="C11" t="n">
-        <v>342.4333333333333</v>
+        <v>342.43</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         <v>343.65</v>
       </c>
       <c r="C12" t="n">
-        <v>343.1833333333333</v>
+        <v>343.18</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.635</v>
+        <v>332.63</v>
       </c>
       <c r="C14" t="n">
-        <v>341.8333333333333</v>
+        <v>341.83</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350.895</v>
+        <v>350.89</v>
       </c>
       <c r="C15" t="n">
-        <v>358.0166666666667</v>
+        <v>358.02</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>348.08</v>
       </c>
       <c r="C16" t="n">
-        <v>349.4266666666667</v>
+        <v>349.43</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         <v>357.27</v>
       </c>
       <c r="C17" t="n">
-        <v>352.3466666666667</v>
+        <v>352.35</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>345.965</v>
+        <v>345.96</v>
       </c>
       <c r="C18" t="n">
-        <v>340.5266666666667</v>
+        <v>340.53</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>345.725</v>
+        <v>345.73</v>
       </c>
       <c r="C19" t="n">
-        <v>342.9733333333333</v>
+        <v>342.97</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>350.825</v>
+        <v>350.82</v>
       </c>
       <c r="C21" t="n">
         <v>348.81</v>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.805</v>
+        <v>359.81</v>
       </c>
       <c r="C22" t="n">
         <v>350.62</v>
@@ -846,7 +846,7 @@
         <v>366.59</v>
       </c>
       <c r="C23" t="n">
-        <v>351.3266666666667</v>
+        <v>351.33</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>353.77</v>
       </c>
       <c r="C24" t="n">
-        <v>343.6433333333333</v>
+        <v>343.64</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>364.625</v>
+        <v>364.62</v>
       </c>
       <c r="C25" t="n">
-        <v>351.0866666666667</v>
+        <v>351.09</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>361.08</v>
       </c>
       <c r="C26" t="n">
-        <v>348.7566666666667</v>
+        <v>348.76</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>341.51</v>
       </c>
       <c r="C27" t="n">
-        <v>340.8933333333333</v>
+        <v>340.89</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>368.43</v>
       </c>
       <c r="C28" t="n">
-        <v>354.9433333333333</v>
+        <v>354.94</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>333.24</v>
       </c>
       <c r="C29" t="n">
-        <v>321.2433333333333</v>
+        <v>321.24</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>355.725</v>
+        <v>355.73</v>
       </c>
       <c r="C30" t="n">
-        <v>347.8866666666667</v>
+        <v>347.89</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>351.4</v>
       </c>
       <c r="C31" t="n">
-        <v>349.9666666666667</v>
+        <v>349.97</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>331.845</v>
+        <v>331.85</v>
       </c>
       <c r="C32" t="n">
         <v>333.81</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>352.325</v>
+        <v>352.32</v>
       </c>
       <c r="C34" t="n">
         <v>353.73</v>
@@ -1062,7 +1062,7 @@
         <v>353.86</v>
       </c>
       <c r="C35" t="n">
-        <v>346.1333333333333</v>
+        <v>346.13</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>341.985</v>
+        <v>341.99</v>
       </c>
       <c r="C36" t="n">
-        <v>343.5566666666667</v>
+        <v>343.56</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>360.78</v>
       </c>
       <c r="C37" t="n">
-        <v>352.5933333333333</v>
+        <v>352.59</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>360.16</v>
       </c>
       <c r="C38" t="n">
-        <v>354.8033333333333</v>
+        <v>354.8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>350.63</v>
       </c>
       <c r="C39" t="n">
-        <v>356.6033333333333</v>
+        <v>356.6</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>357.625</v>
+        <v>357.62</v>
       </c>
       <c r="C40" t="n">
-        <v>351.4733333333333</v>
+        <v>351.47</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>361.035</v>
+        <v>361.04</v>
       </c>
       <c r="C42" t="n">
         <v>359.37</v>
@@ -1224,7 +1224,7 @@
         <v>349.77</v>
       </c>
       <c r="C44" t="n">
-        <v>361.5466666666667</v>
+        <v>361.55</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>368.0833333333333</v>
+        <v>368.08</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>344.475</v>
+        <v>344.48</v>
       </c>
       <c r="C48" t="n">
-        <v>333.8933333333333</v>
+        <v>333.89</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>348.035</v>
+        <v>348.04</v>
       </c>
       <c r="C49" t="n">
-        <v>340.8466666666667</v>
+        <v>340.85</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>355.28</v>
       </c>
       <c r="C50" t="n">
-        <v>347.9033333333333</v>
+        <v>347.9</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>342.615</v>
+        <v>342.62</v>
       </c>
       <c r="C52" t="n">
         <v>346.56</v>
@@ -1400,7 +1400,7 @@
         <v>361.49</v>
       </c>
       <c r="C54" t="n">
-        <v>362.6866666666667</v>
+        <v>362.69</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>361.84</v>
       </c>
       <c r="C55" t="n">
-        <v>363.7566666666667</v>
+        <v>363.76</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>364.52</v>
       </c>
       <c r="C56" t="n">
-        <v>354.8733333333333</v>
+        <v>354.87</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>354.605</v>
+        <v>354.61</v>
       </c>
       <c r="C57" t="n">
-        <v>333.8766666666667</v>
+        <v>333.88</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>350.575</v>
+        <v>350.57</v>
       </c>
       <c r="C60" t="n">
         <v>349.23</v>
@@ -1524,7 +1524,7 @@
         <v>362.45</v>
       </c>
       <c r="C61" t="n">
-        <v>350.3433333333333</v>
+        <v>350.34</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>355.395</v>
+        <v>355.39</v>
       </c>
       <c r="C63" t="n">
         <v>347.23</v>
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>352.885</v>
+        <v>352.88</v>
       </c>
       <c r="C64" t="n">
-        <v>343.2566666666667</v>
+        <v>343.26</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>367.34</v>
       </c>
       <c r="C65" t="n">
-        <v>353.9633333333333</v>
+        <v>353.96</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>337.565</v>
+        <v>337.56</v>
       </c>
       <c r="C66" t="n">
-        <v>330.6433333333333</v>
+        <v>330.64</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>322.98</v>
       </c>
       <c r="C68" t="n">
-        <v>325.2433333333333</v>
+        <v>325.24</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>357.215</v>
+        <v>357.21</v>
       </c>
       <c r="C69" t="n">
         <v>353.2</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>354.125</v>
+        <v>354.12</v>
       </c>
       <c r="C70" t="n">
-        <v>351.7733333333333</v>
+        <v>351.77</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>353.015</v>
+        <v>353.01</v>
       </c>
       <c r="C71" t="n">
-        <v>357.2266666666667</v>
+        <v>357.23</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>353.865</v>
+        <v>353.87</v>
       </c>
       <c r="C73" t="n">
         <v>349.99</v>
@@ -1758,7 +1758,7 @@
         <v>343.8</v>
       </c>
       <c r="C74" t="n">
-        <v>347.2833333333333</v>
+        <v>347.28</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>369.165</v>
+        <v>369.17</v>
       </c>
       <c r="C76" t="n">
-        <v>346.4133333333333</v>
+        <v>346.41</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>344.165</v>
+        <v>344.17</v>
       </c>
       <c r="C79" t="n">
-        <v>344.9566666666667</v>
+        <v>344.96</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>358.115</v>
+        <v>358.12</v>
       </c>
       <c r="C80" t="n">
-        <v>349.9566666666667</v>
+        <v>349.96</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>350.63</v>
       </c>
       <c r="C81" t="n">
-        <v>345.9166666666667</v>
+        <v>345.92</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>352.765</v>
+        <v>352.76</v>
       </c>
       <c r="C82" t="n">
         <v>351.21</v>
@@ -1918,7 +1918,7 @@
         <v>338.4</v>
       </c>
       <c r="C83" t="n">
-        <v>336.9766666666667</v>
+        <v>336.98</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>363.475</v>
+        <v>363.48</v>
       </c>
       <c r="C84" t="n">
-        <v>356.1533333333333</v>
+        <v>356.15</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>354.405</v>
+        <v>354.4</v>
       </c>
       <c r="C85" t="n">
         <v>343.87</v>
@@ -1972,7 +1972,7 @@
         <v>347.43</v>
       </c>
       <c r="C86" t="n">
-        <v>345.5033333333333</v>
+        <v>345.5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>362.745</v>
+        <v>362.75</v>
       </c>
       <c r="C87" t="n">
         <v>359.95</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>348.035</v>
+        <v>348.04</v>
       </c>
       <c r="C88" t="n">
-        <v>349.0866666666667</v>
+        <v>349.09</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>359.835</v>
+        <v>359.83</v>
       </c>
       <c r="C89" t="n">
-        <v>360.0966666666667</v>
+        <v>360.1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>352.685</v>
+        <v>352.69</v>
       </c>
       <c r="C90" t="n">
-        <v>344.9033333333333</v>
+        <v>344.9</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>364.29</v>
       </c>
       <c r="C92" t="n">
-        <v>357.3166666666667</v>
+        <v>357.32</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>370.84</v>
       </c>
       <c r="C93" t="n">
-        <v>364.7033333333333</v>
+        <v>364.7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>334.225</v>
+        <v>334.23</v>
       </c>
       <c r="C95" t="n">
         <v>332.57</v>
@@ -2149,10 +2149,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>355.345</v>
+        <v>355.35</v>
       </c>
       <c r="C96" t="n">
-        <v>352.9366666666667</v>
+        <v>352.94</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>341.275</v>
+        <v>341.27</v>
       </c>
       <c r="C98" t="n">
         <v>339.2</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>354.775</v>
+        <v>354.77</v>
       </c>
       <c r="C99" t="n">
-        <v>356.3466666666667</v>
+        <v>356.35</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2221,10 +2221,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>351.995</v>
+        <v>352</v>
       </c>
       <c r="C100" t="n">
-        <v>353.7533333333333</v>
+        <v>353.75</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>357.4</v>
       </c>
       <c r="C101" t="n">
-        <v>350.6866666666667</v>
+        <v>350.69</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>348.43</v>
       </c>
       <c r="C102" t="n">
-        <v>345.9366666666667</v>
+        <v>345.94</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>359.07</v>
       </c>
       <c r="C104" t="n">
-        <v>346.8166666666667</v>
+        <v>346.82</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>353.87</v>
       </c>
       <c r="C106" t="n">
-        <v>362.5566666666667</v>
+        <v>362.56</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>362.18</v>
       </c>
       <c r="C107" t="n">
-        <v>348.2533333333333</v>
+        <v>348.25</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>350.6</v>
       </c>
       <c r="C109" t="n">
-        <v>344.5766666666667</v>
+        <v>344.58</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>359.795</v>
+        <v>359.8</v>
       </c>
       <c r="C110" t="n">
-        <v>345.0166666666667</v>
+        <v>345.02</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>370.635</v>
+        <v>370.63</v>
       </c>
       <c r="C112" t="n">
-        <v>359.7766666666667</v>
+        <v>359.78</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2455,10 +2455,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>342.095</v>
+        <v>342.1</v>
       </c>
       <c r="C113" t="n">
-        <v>340.6666666666667</v>
+        <v>340.67</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>336.27</v>
       </c>
       <c r="C114" t="n">
-        <v>327.8766666666667</v>
+        <v>327.88</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>356.75</v>
       </c>
       <c r="C115" t="n">
-        <v>345.1066666666667</v>
+        <v>345.11</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>358.895</v>
+        <v>358.89</v>
       </c>
       <c r="C116" t="n">
-        <v>346.2533333333333</v>
+        <v>346.25</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>343.705</v>
+        <v>343.7</v>
       </c>
       <c r="C117" t="n">
-        <v>342.3533333333333</v>
+        <v>342.35</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2545,10 +2545,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>364.385</v>
+        <v>364.38</v>
       </c>
       <c r="C118" t="n">
-        <v>359.6933333333333</v>
+        <v>359.69</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>341.825</v>
+        <v>341.82</v>
       </c>
       <c r="C119" t="n">
-        <v>343.4466666666667</v>
+        <v>343.45</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>336.8</v>
       </c>
       <c r="C121" t="n">
-        <v>353.7533333333333</v>
+        <v>353.75</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>353.345</v>
+        <v>353.35</v>
       </c>
       <c r="C122" t="n">
         <v>352.23</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>359.005</v>
+        <v>359</v>
       </c>
       <c r="C123" t="n">
-        <v>346.2433333333333</v>
+        <v>346.24</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>352.985</v>
+        <v>352.99</v>
       </c>
       <c r="C125" t="n">
-        <v>358.8433333333333</v>
+        <v>358.84</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>371.125</v>
+        <v>371.12</v>
       </c>
       <c r="C126" t="n">
-        <v>361.5166666666667</v>
+        <v>361.52</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>355.425</v>
+        <v>355.43</v>
       </c>
       <c r="C128" t="n">
         <v>354.82</v>
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>353.115</v>
+        <v>353.12</v>
       </c>
       <c r="C129" t="n">
-        <v>344.1233333333333</v>
+        <v>344.12</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>365.055</v>
+        <v>365.06</v>
       </c>
       <c r="C130" t="n">
         <v>355.47</v>
@@ -2782,7 +2782,7 @@
         <v>351.71</v>
       </c>
       <c r="C131" t="n">
-        <v>349.4033333333333</v>
+        <v>349.4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>344.625</v>
+        <v>344.62</v>
       </c>
       <c r="C132" t="n">
-        <v>342.2333333333333</v>
+        <v>342.23</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>357.765</v>
+        <v>357.76</v>
       </c>
       <c r="C133" t="n">
         <v>343.96</v>
@@ -2851,10 +2851,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>356.695</v>
+        <v>356.69</v>
       </c>
       <c r="C135" t="n">
-        <v>354.1433333333333</v>
+        <v>354.14</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>352.595</v>
+        <v>352.6</v>
       </c>
       <c r="C137" t="n">
-        <v>348.0133333333333</v>
+        <v>348.01</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>348.84</v>
       </c>
       <c r="C138" t="n">
-        <v>348.6366666666667</v>
+        <v>348.64</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>348.785</v>
+        <v>348.79</v>
       </c>
       <c r="C139" t="n">
-        <v>346.3466666666667</v>
+        <v>346.35</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>362.23</v>
       </c>
       <c r="C140" t="n">
-        <v>365.5233333333333</v>
+        <v>365.52</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>341.96</v>
       </c>
       <c r="C142" t="n">
-        <v>340.5233333333333</v>
+        <v>340.52</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>351.76</v>
       </c>
       <c r="C143" t="n">
-        <v>352.0633333333333</v>
+        <v>352.06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3011,10 +3011,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>357.065</v>
+        <v>357.06</v>
       </c>
       <c r="C144" t="n">
-        <v>359.6433333333333</v>
+        <v>359.64</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>359.355</v>
+        <v>359.36</v>
       </c>
       <c r="C145" t="n">
         <v>356.08</v>
@@ -3068,7 +3068,7 @@
         <v>361.51</v>
       </c>
       <c r="C147" t="n">
-        <v>347.6666666666667</v>
+        <v>347.67</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>364.745</v>
+        <v>364.75</v>
       </c>
       <c r="C149" t="n">
-        <v>363.0866666666667</v>
+        <v>363.09</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>345.565</v>
+        <v>345.56</v>
       </c>
       <c r="C151" t="n">
         <v>339.4</v>
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>342.075</v>
+        <v>342.07</v>
       </c>
       <c r="C152" t="n">
-        <v>336.1066666666667</v>
+        <v>336.11</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>364.19</v>
       </c>
       <c r="C154" t="n">
-        <v>350.6866666666667</v>
+        <v>350.69</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>347.83</v>
       </c>
       <c r="C155" t="n">
-        <v>354.5766666666667</v>
+        <v>354.58</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>360.63</v>
       </c>
       <c r="C156" t="n">
-        <v>359.8033333333333</v>
+        <v>359.8</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>339.695</v>
+        <v>339.69</v>
       </c>
       <c r="C157" t="n">
         <v>350.03</v>
@@ -3266,7 +3266,7 @@
         <v>339.19</v>
       </c>
       <c r="C158" t="n">
-        <v>392.2333333333333</v>
+        <v>392.23</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>360.775</v>
+        <v>360.77</v>
       </c>
       <c r="C159" t="n">
-        <v>364.8233333333333</v>
+        <v>364.82</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3299,10 +3299,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>372.835</v>
+        <v>372.83</v>
       </c>
       <c r="C160" t="n">
-        <v>360.0766666666667</v>
+        <v>360.08</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3317,10 +3317,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>354.995</v>
+        <v>355</v>
       </c>
       <c r="C161" t="n">
-        <v>346.7266666666667</v>
+        <v>346.73</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>341.175</v>
+        <v>341.18</v>
       </c>
       <c r="C162" t="n">
-        <v>345.4266666666667</v>
+        <v>345.43</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>356.05</v>
       </c>
       <c r="C163" t="n">
-        <v>353.6966666666667</v>
+        <v>353.7</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>347.1766666666667</v>
+        <v>347.18</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>363.855</v>
+        <v>363.86</v>
       </c>
       <c r="C166" t="n">
         <v>350.86</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>345.355</v>
+        <v>345.36</v>
       </c>
       <c r="C167" t="n">
         <v>340.96</v>
@@ -3441,10 +3441,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>367.635</v>
+        <v>367.63</v>
       </c>
       <c r="C168" t="n">
-        <v>361.9033333333333</v>
+        <v>361.9</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3459,10 +3459,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>356.845</v>
+        <v>356.85</v>
       </c>
       <c r="C169" t="n">
-        <v>359.9466666666667</v>
+        <v>359.95</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>346.33</v>
       </c>
       <c r="C171" t="n">
-        <v>351.2433333333333</v>
+        <v>351.24</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3513,10 +3513,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>365.555</v>
+        <v>365.56</v>
       </c>
       <c r="C172" t="n">
-        <v>350.4633333333333</v>
+        <v>350.46</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3531,10 +3531,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>368.515</v>
+        <v>368.51</v>
       </c>
       <c r="C173" t="n">
-        <v>355.3333333333333</v>
+        <v>355.33</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>355.935</v>
+        <v>355.94</v>
       </c>
       <c r="C174" t="n">
         <v>358.56</v>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>345.605</v>
+        <v>345.61</v>
       </c>
       <c r="C175" t="n">
-        <v>343.6666666666667</v>
+        <v>343.67</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>361.39</v>
       </c>
       <c r="C176" t="n">
-        <v>345.3833333333333</v>
+        <v>345.38</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>344.185</v>
+        <v>344.19</v>
       </c>
       <c r="C177" t="n">
         <v>339.29</v>
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>336.515</v>
+        <v>336.51</v>
       </c>
       <c r="C178" t="n">
         <v>343.6</v>
@@ -3639,10 +3639,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>353.395</v>
+        <v>353.39</v>
       </c>
       <c r="C179" t="n">
-        <v>350.9166666666667</v>
+        <v>350.92</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3693,10 +3693,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>343.365</v>
+        <v>343.37</v>
       </c>
       <c r="C182" t="n">
-        <v>351.4233333333333</v>
+        <v>351.42</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>361.585</v>
+        <v>361.58</v>
       </c>
       <c r="C184" t="n">
-        <v>351.3166666666667</v>
+        <v>351.32</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3745,10 +3745,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>368.565</v>
+        <v>368.56</v>
       </c>
       <c r="C185" t="n">
-        <v>369.8433333333333</v>
+        <v>369.84</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>364.02</v>
       </c>
       <c r="C186" t="n">
-        <v>349.1266666666667</v>
+        <v>349.13</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>370.525</v>
+        <v>370.52</v>
       </c>
       <c r="C187" t="n">
         <v>356.01</v>
@@ -3820,7 +3820,7 @@
         <v>365.17</v>
       </c>
       <c r="C189" t="n">
-        <v>362.9733333333333</v>
+        <v>362.97</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>354.345</v>
+        <v>354.35</v>
       </c>
       <c r="C190" t="n">
-        <v>343.8833333333333</v>
+        <v>343.88</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>358.935</v>
+        <v>358.94</v>
       </c>
       <c r="C191" t="n">
-        <v>354.7733333333333</v>
+        <v>354.77</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>343.965</v>
+        <v>343.96</v>
       </c>
       <c r="C192" t="n">
         <v>345.56</v>
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>352.965</v>
+        <v>352.96</v>
       </c>
       <c r="C193" t="n">
-        <v>340.8266666666667</v>
+        <v>340.83</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>352.775</v>
+        <v>352.77</v>
       </c>
       <c r="C194" t="n">
-        <v>346.2833333333333</v>
+        <v>346.28</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>357.09</v>
       </c>
       <c r="C195" t="n">
-        <v>357.8033333333333</v>
+        <v>357.8</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>358.585</v>
+        <v>358.58</v>
       </c>
       <c r="C196" t="n">
-        <v>350.2466666666667</v>
+        <v>350.25</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>346.485</v>
+        <v>346.49</v>
       </c>
       <c r="C197" t="n">
-        <v>344.1333333333333</v>
+        <v>344.13</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>373.935</v>
+        <v>373.94</v>
       </c>
       <c r="C198" t="n">
-        <v>361.8966666666667</v>
+        <v>361.9</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>361.71</v>
       </c>
       <c r="C199" t="n">
-        <v>348.7933333333333</v>
+        <v>348.79</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>377.125</v>
+        <v>377.12</v>
       </c>
       <c r="C200" t="n">
-        <v>370.6333333333333</v>
+        <v>370.63</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4033,10 +4033,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>351.515</v>
+        <v>351.51</v>
       </c>
       <c r="C201" t="n">
-        <v>344.2666666666667</v>
+        <v>344.27</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>345.74</v>
       </c>
       <c r="C203" t="n">
-        <v>362.0566666666667</v>
+        <v>362.06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4087,10 +4087,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>361.785</v>
+        <v>361.79</v>
       </c>
       <c r="C204" t="n">
-        <v>360.4866666666667</v>
+        <v>360.49</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>344.165</v>
+        <v>344.17</v>
       </c>
       <c r="C205" t="n">
         <v>347.57</v>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>367.545</v>
+        <v>367.55</v>
       </c>
       <c r="C208" t="n">
-        <v>360.9233333333333</v>
+        <v>360.92</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>347.3366666666667</v>
+        <v>347.34</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>362</v>
       </c>
       <c r="C211" t="n">
-        <v>346.2233333333333</v>
+        <v>346.22</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>362.365</v>
+        <v>362.37</v>
       </c>
       <c r="C212" t="n">
-        <v>346.6666666666667</v>
+        <v>346.67</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>361.39</v>
       </c>
       <c r="C214" t="n">
-        <v>363.1866666666667</v>
+        <v>363.19</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>363.035</v>
+        <v>363.04</v>
       </c>
       <c r="C215" t="n">
-        <v>359.7566666666667</v>
+        <v>359.76</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>377.905</v>
+        <v>377.9</v>
       </c>
       <c r="C216" t="n">
         <v>360.87</v>
@@ -4322,7 +4322,7 @@
         <v>353.02</v>
       </c>
       <c r="C217" t="n">
-        <v>347.7833333333333</v>
+        <v>347.78</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>372.34</v>
       </c>
       <c r="C218" t="n">
-        <v>362.1766666666667</v>
+        <v>362.18</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>372.13</v>
       </c>
       <c r="C219" t="n">
-        <v>356.1366666666667</v>
+        <v>356.14</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>372.625</v>
+        <v>372.62</v>
       </c>
       <c r="C220" t="n">
-        <v>360.3733333333333</v>
+        <v>360.37</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>363.645</v>
+        <v>363.64</v>
       </c>
       <c r="C221" t="n">
-        <v>367.7866666666667</v>
+        <v>367.79</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>343.96</v>
       </c>
       <c r="C223" t="n">
-        <v>344.3033333333333</v>
+        <v>344.3</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>350.5633333333333</v>
+        <v>350.56</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4461,10 +4461,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>365.555</v>
+        <v>365.56</v>
       </c>
       <c r="C225" t="n">
-        <v>364.8866666666667</v>
+        <v>364.89</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4479,10 +4479,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>369.335</v>
+        <v>369.33</v>
       </c>
       <c r="C226" t="n">
-        <v>359.1966666666667</v>
+        <v>359.2</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>343.995</v>
+        <v>344</v>
       </c>
       <c r="C228" t="n">
         <v>351.62</v>
@@ -4533,10 +4533,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>345.685</v>
+        <v>345.69</v>
       </c>
       <c r="C229" t="n">
-        <v>346.5366666666667</v>
+        <v>346.54</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>353.355</v>
+        <v>353.36</v>
       </c>
       <c r="C230" t="n">
         <v>357.26</v>
@@ -4572,7 +4572,7 @@
         <v>350.45</v>
       </c>
       <c r="C231" t="n">
-        <v>362.6566666666667</v>
+        <v>362.66</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>362.45</v>
       </c>
       <c r="C232" t="n">
-        <v>358.4266666666667</v>
+        <v>358.43</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4605,10 +4605,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>336.495</v>
+        <v>336.5</v>
       </c>
       <c r="C233" t="n">
-        <v>333.9033333333333</v>
+        <v>333.9</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>362.47</v>
       </c>
       <c r="C234" t="n">
-        <v>363.7466666666666</v>
+        <v>363.75</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>363.08</v>
       </c>
       <c r="C235" t="n">
-        <v>348.8966666666667</v>
+        <v>348.9</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4675,10 +4675,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>372.675</v>
+        <v>372.68</v>
       </c>
       <c r="C237" t="n">
-        <v>353.7166666666667</v>
+        <v>353.72</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4693,10 +4693,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>338.785</v>
+        <v>338.79</v>
       </c>
       <c r="C238" t="n">
-        <v>325.0466666666667</v>
+        <v>325.05</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>346.195</v>
+        <v>346.19</v>
       </c>
       <c r="C240" t="n">
-        <v>349.0833333333333</v>
+        <v>349.08</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>357.455</v>
+        <v>357.45</v>
       </c>
       <c r="C241" t="n">
-        <v>346.3333333333333</v>
+        <v>346.33</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4765,10 +4765,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>354.705</v>
+        <v>354.7</v>
       </c>
       <c r="C242" t="n">
-        <v>355.9366666666667</v>
+        <v>355.94</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>353.27</v>
       </c>
       <c r="C243" t="n">
-        <v>340.5633333333333</v>
+        <v>340.56</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>345.28</v>
       </c>
       <c r="C245" t="n">
-        <v>344.0133333333333</v>
+        <v>344.01</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>348.79</v>
       </c>
       <c r="C246" t="n">
-        <v>341.5466666666667</v>
+        <v>341.55</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>363.21</v>
       </c>
       <c r="C247" t="n">
-        <v>353.4066666666667</v>
+        <v>353.41</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>358.23</v>
       </c>
       <c r="C249" t="n">
-        <v>353.6966666666667</v>
+        <v>353.7</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4909,10 +4909,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>362.575</v>
+        <v>362.57</v>
       </c>
       <c r="C250" t="n">
-        <v>355.9066666666667</v>
+        <v>355.91</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>342.725</v>
+        <v>342.73</v>
       </c>
       <c r="C252" t="n">
         <v>350.23</v>
@@ -4966,7 +4966,7 @@
         <v>344.92</v>
       </c>
       <c r="C253" t="n">
-        <v>343.2666666666667</v>
+        <v>343.27</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4981,10 +4981,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>353.485</v>
+        <v>353.49</v>
       </c>
       <c r="C254" t="n">
-        <v>355.9466666666667</v>
+        <v>355.95</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>361.695</v>
+        <v>361.69</v>
       </c>
       <c r="C255" t="n">
-        <v>353.8333333333333</v>
+        <v>353.83</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>364.065</v>
+        <v>364.06</v>
       </c>
       <c r="C258" t="n">
         <v>349.8</v>
@@ -5074,7 +5074,7 @@
         <v>373.79</v>
       </c>
       <c r="C259" t="n">
-        <v>362.1133333333333</v>
+        <v>362.11</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>345.97</v>
       </c>
       <c r="C260" t="n">
-        <v>341.3533333333333</v>
+        <v>341.35</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>370.06</v>
       </c>
       <c r="C261" t="n">
-        <v>357.4866666666667</v>
+        <v>357.49</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>350.52</v>
       </c>
       <c r="C263" t="n">
-        <v>342.6733333333333</v>
+        <v>342.67</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>352.5</v>
       </c>
       <c r="C266" t="n">
-        <v>349.8533333333333</v>
+        <v>349.85</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="n">
-        <v>337.8833333333333</v>
+        <v>337.88</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>353.79</v>
       </c>
       <c r="C268" t="n">
-        <v>364.1933333333333</v>
+        <v>364.19</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>372.77</v>
       </c>
       <c r="C270" t="n">
-        <v>362.7133333333333</v>
+        <v>362.71</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
-        <v>356.0333333333333</v>
+        <v>356.03</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>360.545</v>
+        <v>360.55</v>
       </c>
       <c r="C273" t="n">
         <v>373.18</v>
@@ -5336,7 +5336,7 @@
         <v>360.36</v>
       </c>
       <c r="C274" t="n">
-        <v>347.2333333333333</v>
+        <v>347.23</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5351,10 +5351,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>355.335</v>
+        <v>355.33</v>
       </c>
       <c r="C275" t="n">
-        <v>362.1966666666667</v>
+        <v>362.2</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>351.61</v>
       </c>
       <c r="C276" t="n">
-        <v>354.0666666666667</v>
+        <v>354.07</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>365.015</v>
+        <v>365.01</v>
       </c>
       <c r="C277" t="n">
         <v>353.9</v>
@@ -5405,10 +5405,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>364.655</v>
+        <v>364.65</v>
       </c>
       <c r="C278" t="n">
-        <v>351.8333333333333</v>
+        <v>351.83</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>342.985</v>
+        <v>342.99</v>
       </c>
       <c r="C281" t="n">
         <v>340.69</v>
@@ -5480,7 +5480,7 @@
         <v>343.17</v>
       </c>
       <c r="C282" t="n">
-        <v>346.1133333333333</v>
+        <v>346.11</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
-        <v>350.0766666666667</v>
+        <v>350.08</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>344.14</v>
       </c>
       <c r="C284" t="n">
-        <v>341.2966666666667</v>
+        <v>341.3</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5529,10 +5529,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>349.805</v>
+        <v>349.81</v>
       </c>
       <c r="C285" t="n">
-        <v>349.3366666666667</v>
+        <v>349.34</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>367.665</v>
+        <v>367.67</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
@@ -5566,7 +5566,7 @@
         <v>353.75</v>
       </c>
       <c r="C287" t="n">
-        <v>355.5333333333333</v>
+        <v>355.53</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>349.77</v>
       </c>
       <c r="C288" t="n">
-        <v>359.2766666666667</v>
+        <v>359.28</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>367.985</v>
+        <v>367.99</v>
       </c>
       <c r="C289" t="n">
         <v>353.94</v>
@@ -5638,7 +5638,7 @@
         <v>364.5</v>
       </c>
       <c r="C291" t="n">
-        <v>364.8433333333333</v>
+        <v>364.84</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>361.72</v>
       </c>
       <c r="C292" t="n">
-        <v>351.3133333333333</v>
+        <v>351.31</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5671,10 +5671,10 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>364.015</v>
+        <v>364.01</v>
       </c>
       <c r="C293" t="n">
-        <v>354.3166666666667</v>
+        <v>354.32</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>355.09</v>
       </c>
       <c r="C294" t="n">
-        <v>346.4333333333333</v>
+        <v>346.43</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>352.77</v>
       </c>
       <c r="C296" t="n">
-        <v>355.6266666666667</v>
+        <v>355.63</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>355.935</v>
+        <v>355.94</v>
       </c>
       <c r="C297" t="n">
         <v>361.96</v>
@@ -5764,7 +5764,7 @@
         <v>349.36</v>
       </c>
       <c r="C298" t="n">
-        <v>346.6466666666667</v>
+        <v>346.65</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>366.91</v>
       </c>
       <c r="C300" t="n">
-        <v>352.6833333333333</v>
+        <v>352.68</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>362.425</v>
+        <v>362.43</v>
       </c>
       <c r="C301" t="n">
         <v>369.38</v>
@@ -5836,7 +5836,7 @@
         <v>366.16</v>
       </c>
       <c r="C302" t="n">
-        <v>352.1366666666667</v>
+        <v>352.14</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>360.58</v>
       </c>
       <c r="C303" t="n">
-        <v>352.1233333333333</v>
+        <v>352.12</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5869,10 +5869,10 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>363.505</v>
+        <v>363.5</v>
       </c>
       <c r="C304" t="n">
-        <v>347.1566666666667</v>
+        <v>347.16</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5887,10 +5887,10 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>346.735</v>
+        <v>346.74</v>
       </c>
       <c r="C305" t="n">
-        <v>346.5566666666667</v>
+        <v>346.56</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5905,10 +5905,10 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>362.945</v>
+        <v>362.94</v>
       </c>
       <c r="C306" t="n">
-        <v>352.3466666666667</v>
+        <v>352.35</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>349.755</v>
+        <v>349.75</v>
       </c>
       <c r="C307" t="n">
-        <v>342.6566666666667</v>
+        <v>342.66</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5941,10 +5941,10 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>336.015</v>
+        <v>336.01</v>
       </c>
       <c r="C308" t="n">
-        <v>342.4966666666667</v>
+        <v>342.5</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5977,10 +5977,10 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>354.475</v>
+        <v>354.48</v>
       </c>
       <c r="C310" t="n">
-        <v>361.9533333333333</v>
+        <v>361.95</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>353.215</v>
+        <v>353.21</v>
       </c>
       <c r="C311" t="n">
         <v>344.57</v>
@@ -6013,10 +6013,10 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>344.265</v>
+        <v>344.26</v>
       </c>
       <c r="C312" t="n">
-        <v>352.1633333333333</v>
+        <v>352.16</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>349.235</v>
+        <v>349.24</v>
       </c>
       <c r="C313" t="n">
-        <v>355.3933333333333</v>
+        <v>355.39</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>336.17</v>
       </c>
       <c r="C314" t="n">
-        <v>338.6866666666667</v>
+        <v>338.69</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>0.0897</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2349142848455016</v>
+        <v>0.2349110158670396</v>
       </c>
       <c r="J2" t="n">
         <v>313</v>
@@ -9901,19 +9901,19 @@
         <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03134477037246819</v>
+        <v>0.03134604826512077</v>
       </c>
       <c r="M2" t="n">
-        <v>7.697197084521069</v>
+        <v>7.696949345819363</v>
       </c>
       <c r="N2" t="n">
-        <v>87.74551810502948</v>
+        <v>87.73938326000764</v>
       </c>
       <c r="O2" t="n">
-        <v>9.367257768687134</v>
+        <v>9.366930300797996</v>
       </c>
       <c r="P2" t="n">
-        <v>351.4712419644173</v>
+        <v>351.4713415431753</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9970,7 +9970,7 @@
         <v>0.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2380565589913597</v>
+        <v>0.2380718369147556</v>
       </c>
       <c r="J3" t="n">
         <v>313</v>
@@ -9979,19 +9979,19 @@
         <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0364583986994933</v>
+        <v>0.03646299578949197</v>
       </c>
       <c r="M3" t="n">
-        <v>6.914216200721962</v>
+        <v>6.914334510809383</v>
       </c>
       <c r="N3" t="n">
-        <v>76.64666856954997</v>
+        <v>76.64647670841829</v>
       </c>
       <c r="O3" t="n">
-        <v>8.754808311410935</v>
+        <v>8.754797353932203</v>
       </c>
       <c r="P3" t="n">
-        <v>347.2301107136661</v>
+        <v>347.2299395560467</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-35.511560004945025,174.4784254140517</t>
+          <t>-35.51155997537692,174.47842542059988</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-35.5115190155515,174.47752174729527</t>
+          <t>-35.511519059903634,174.47752173747273</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -10111,12 +10111,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.511624573624985,174.47749836959338</t>
+          <t>-35.51162452927285,174.47749837941595</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.51171446875987,174.47839120644758</t>
+          <t>-35.51171449832798,174.4783911998994</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.51164341658905,174.47840694169855</t>
+          <t>-35.51164344615716,174.4784069351504</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -10177,12 +10177,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.511544118858474,174.47751618772924</t>
+          <t>-35.51154407450635,174.4775161975518</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.51171896311267,174.47839021112497</t>
+          <t>-35.511718933544564,174.47839021767314</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.51172730131983,174.47838836453934</t>
+          <t>-35.51172727175172,174.47838837108753</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -10221,12 +10221,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-35.511417360461,174.47754426055823</t>
+          <t>-35.51141731610889,174.47754427038078</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-35.51164749698844,174.47840603805187</t>
+          <t>-35.51164752655655,174.4784060315037</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-35.51152016870694,174.47752149190893</t>
+          <t>-35.51152021305907,174.47752148208636</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.51172440364501,174.47838900626064</t>
+          <t>-35.51172443321311,174.47838899971245</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.511717750820154,174.47839047960017</t>
+          <t>-35.51171778038825,174.478390473052</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10331,12 +10331,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.511674248010834,174.47748736830235</t>
+          <t>-35.511674292362954,174.47748735847978</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.51172972590488,174.47838782758885</t>
+          <t>-35.511729755473,174.47838782104068</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10353,12 +10353,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.511512274027304,174.47752324032305</t>
+          <t>-35.51151231837944,174.4775232305005</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-35.5115861727245,174.47841961893585</t>
+          <t>-35.511586143156386,174.478419625484</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -10380,7 +10380,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.51166236974845,174.4784027443245</t>
+          <t>-35.51166234018033,174.47840275087265</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.51163646808285,174.47840848051698</t>
+          <t>-35.511636438514735,174.47840848706517</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10419,12 +10419,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.5115560052299,174.47751355528345</t>
+          <t>-35.511556049582026,174.4775135454609</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-35.511741316604116,174.47838526070316</t>
+          <t>-35.51174128703602,174.47838526725133</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10441,12 +10441,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.51155813413224,174.47751308380055</t>
+          <t>-35.5115580897801,174.47751309362312</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.511719613611106,174.47839006706513</t>
+          <t>-35.51171964317921,174.47839006051694</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-35.51151289495717,174.47752310280734</t>
+          <t>-35.5115129393093,174.4775230929848</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-35.51143323852519,174.47754074409218</t>
+          <t>-35.51143319417305,174.4775407539147</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -10534,7 +10534,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.511645515924975,174.4784064767789</t>
+          <t>-35.51164548635685,174.47840648332706</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10556,7 +10556,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.51171367042089,174.4783913832483</t>
+          <t>-35.511713699988995,174.47839137670013</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10573,12 +10573,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.511390483067224,174.4775502130091</t>
+          <t>-35.51139052741936,174.47755020318658</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.51164764482899,174.47840600531106</t>
+          <t>-35.51164761526089,174.47840601185922</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.5116683129388,174.47840142814286</t>
+          <t>-35.511668283370675,174.47840143469105</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.511738064111995,174.4783859810028</t>
+          <t>-35.51173809368011,174.47838597445462</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.51161343452381,174.47841358153462</t>
+          <t>-35.511613464091916,174.47841357498646</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-35.51191236811547,174.47834737941537</t>
+          <t>-35.51191239768357,174.47834737286715</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -10683,12 +10683,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.51146942986656,174.47753272890213</t>
+          <t>-35.511469385514424,174.47753273872468</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.511676030215796,174.47839971907092</t>
+          <t>-35.51167600064769,174.47839972561908</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.51165757971442,174.47840380512747</t>
+          <t>-35.5116575501463,174.47840381167563</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.511681255647325,174.4774858163335</t>
+          <t>-35.51168121129519,174.4774858261561</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-35.51149958931727,174.47752604957208</t>
+          <t>-35.511499633669416,174.47752603974953</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.51169158304217,174.47839627473346</t>
+          <t>-35.51169161261028,174.4783962681853</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -10815,12 +10815,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.511591309526715,174.47750573652232</t>
+          <t>-35.51159126517459,174.4775057463449</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.51171443919176,174.47839121299575</t>
+          <t>-35.51171440962365,174.47839121954394</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -10842,7 +10842,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.51163428004258,174.47840896508103</t>
+          <t>-35.51163430961069,174.47840895853287</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -10864,7 +10864,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-35.5116146763845,174.4784133065119</t>
+          <t>-35.51161470595262,174.47841329996376</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -10886,7 +10886,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.511598709604044,174.47841684251753</t>
+          <t>-35.511598739172165,174.47841683596937</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10903,12 +10903,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.511452576055696,174.47753646146694</t>
+          <t>-35.51145262040783,174.47753645164443</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-35.51164421492806,174.47840676489812</t>
+          <t>-35.511644244496175,174.47840675834996</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.5114223279001,174.47754316043492</t>
+          <t>-35.511422283547965,174.47754317025746</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10996,7 +10996,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.51155486009343,174.47842655343</t>
+          <t>-35.51155483052533,174.47842655997817</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -11058,7 +11058,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-35.51149687702383,174.47843939434523</t>
+          <t>-35.51149690659196,174.4784393877971</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -11075,12 +11075,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.51156922216521,174.47751062816005</t>
+          <t>-35.51156917781308,174.47751063798262</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35.51180015714273,174.47837222981877</t>
+          <t>-35.51180018671085,174.4783722232706</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -11097,12 +11097,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-35.51153764344717,174.47751762182256</t>
+          <t>-35.51153759909503,174.47751763164513</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.511738478065524,174.47838588932828</t>
+          <t>-35.511738448497425,174.47838589587647</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-35.51167588237526,174.47839975181176</t>
+          <t>-35.51167591194336,174.4783997452636</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.51158572115817,174.47750697416583</t>
+          <t>-35.51158567680603,174.4775069839884</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11208,7 +11208,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.511544747798894,174.47842879289735</t>
+          <t>-35.51154471823077,174.47842879944548</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.511535256434684,174.47843089485303</t>
+          <t>-35.51153522686656,174.47843090140117</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-35.51161405545415,174.47841344402326</t>
+          <t>-35.51161408502226,174.47841343747513</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -11269,12 +11269,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-35.51147936474448,174.47753052865275</t>
+          <t>-35.51147932039235,174.4775305384753</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-35.51180030498328,174.47837219707785</t>
+          <t>-35.51180027541516,174.47837220362604</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-35.5115151125638,174.4775226116798</t>
+          <t>-35.51151515691594,174.47752260185723</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.511654238517835,174.47840454507022</t>
+          <t>-35.511654268085955,174.47840453852206</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-35.51147235710738,174.47753208061445</t>
+          <t>-35.5114724014595,174.47753207079188</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11419,12 +11419,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-35.511494621878356,174.47752714969735</t>
+          <t>-35.51149466623048,174.47752713987478</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-35.51171710032171,174.47839062366</t>
+          <t>-35.51171707075361,174.4783906302082</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.51162212754869,174.4784116563755</t>
+          <t>-35.51162215711679,174.47841164982736</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11463,12 +11463,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.511630516810484,174.47749705336815</t>
+          <t>-35.51163056116262,174.47749704354555</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-35.51182898604928,174.47836584533385</t>
+          <t>-35.51182901561741,174.4783658387857</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.511876886385544,174.47835523725735</t>
+          <t>-35.51187691595366,174.47835523070913</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.51145621293069,174.4775356560189</t>
+          <t>-35.51145625728281,174.47753564619634</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -11551,12 +11551,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.5114836225493,174.47752958568856</t>
+          <t>-35.51148366690143,174.47752957586601</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.511641553798036,174.47840735423287</t>
+          <t>-35.51164158336614,174.47840734768474</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11573,12 +11573,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.5114934687229,174.47752740508355</t>
+          <t>-35.51149351307502,174.477527395261</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.51159318036708,174.4784180670229</t>
+          <t>-35.51159315079897,174.47841807357102</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.51148592886023,174.47752907491628</t>
+          <t>-35.511485884508105,174.47752908473882</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.511681382043896,174.47839853385227</t>
+          <t>-35.511681411612,174.4783985273041</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -11679,12 +11679,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-35.51135021132811,174.47755913185597</t>
+          <t>-35.51135016697597,174.4775591416785</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-35.51168909932086,174.47839682477982</t>
+          <t>-35.511689128888975,174.47839681823166</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -11745,12 +11745,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.51157197199737,174.4775100191611</t>
+          <t>-35.51157192764523,174.47751002898366</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-35.51170202058529,174.47839396322874</t>
+          <t>-35.511701991017176,174.4783939697769</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -11767,12 +11767,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.51144822954656,174.47753742407554</t>
+          <t>-35.51144818519442,174.47753743389808</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.51165766841875,174.47840378548298</t>
+          <t>-35.511657638850636,174.47840379203114</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -11794,7 +11794,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.51169350496938,174.4783958491023</t>
+          <t>-35.511693475401266,174.4783958556505</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.511495686329546,174.47752691395624</t>
+          <t>-35.511495730681695,174.4775269041337</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -11838,7 +11838,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-35.511772806641304,174.47837828689035</t>
+          <t>-35.5117727770732,174.4783782934385</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -11855,12 +11855,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-35.5114006840583,174.47754795382852</t>
+          <t>-35.511400639706174,174.47754796365103</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-35.511602701299175,174.47841595851625</t>
+          <t>-35.51160273086728,174.4784159519681</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-35.51148113882982,174.47753013575104</t>
+          <t>-35.51148118318196,174.47753012592847</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-35.511697171415115,174.47839503712902</t>
+          <t>-35.511697200983235,174.47839503058083</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-35.511407159470004,174.4775465197397</t>
+          <t>-35.511407115117876,174.4775465295622</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.51153764344717,174.47751762182256</t>
+          <t>-35.51153759909503,174.47751763164513</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.511665385695785,174.47840207641144</t>
+          <t>-35.511665356127686,174.4784020829596</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -11965,12 +11965,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.51143297241237,174.47754080302738</t>
+          <t>-35.51143301676451,174.4775407932048</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-35.511567722222395,174.478423704984</t>
+          <t>-35.51156769265428,174.47842371153217</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -11987,12 +11987,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-35.51149639596368,174.47752675679547</t>
+          <t>-35.51149635161156,174.477526766618</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-35.51170249367507,174.47839385845796</t>
+          <t>-35.51170252324317,174.47839385190977</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.51159238202806,174.4784182438231</t>
+          <t>-35.511592352459935,174.47841825037128</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.5115268590906,174.47843275452684</t>
+          <t>-35.51152688865871,174.4784327479787</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-35.51166014403353,174.47749049188448</t>
+          <t>-35.511660099681414,174.47749050170705</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12119,12 +12119,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-35.51147280062872,174.47753198238902</t>
+          <t>-35.511472756276575,174.47753199221157</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35.51163123452708,174.47840963954178</t>
+          <t>-35.51163120495899,174.47840964608991</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-35.51159760752937,174.47750434171755</t>
+          <t>-35.51159765188149,174.47750433189498</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12185,12 +12185,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.51147785677194,174.4775308626192</t>
+          <t>-35.51147790112407,174.47753085279666</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.51160098634867,174.4784163383094</t>
+          <t>-35.51160095678056,174.47841634485755</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -12207,12 +12207,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-35.51150251655806,174.4775254012839</t>
+          <t>-35.51150247220592,174.47752541110646</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.51162399033972,174.47841124384138</t>
+          <t>-35.51162401990783,174.47841123729322</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-35.511651193002365,174.47840521953125</t>
+          <t>-35.51165116343426,174.47840522607942</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -12256,7 +12256,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-35.51169332756071,174.47839588839133</t>
+          <t>-35.51169329799259,174.47839589493952</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.51168552157943,174.47839761710847</t>
+          <t>-35.51168549201134,174.47839762365663</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-35.511545900955284,174.47842853751953</t>
+          <t>-35.51154587138717,174.47842854406767</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-35.51167277772358,174.47840043936947</t>
+          <t>-35.51167280729169,174.4784004328213</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.51170539134991,174.478393216737</t>
+          <t>-35.5117053617818,174.47839322328517</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -12427,12 +12427,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-35.51143332722945,174.4775407244471</t>
+          <t>-35.51143328287731,174.47754073426964</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-35.51170148835929,174.47839408109584</t>
+          <t>-35.511701458791194,174.478394087644</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -12471,12 +12471,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.511337171800086,174.4775620196747</t>
+          <t>-35.51133721615223,174.47756200985216</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-35.511570560761186,174.47842307636134</t>
+          <t>-35.51157053119307,174.4784230829095</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -12493,12 +12493,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.51159033377982,174.47750595261883</t>
+          <t>-35.5115902894277,174.4775059624414</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.51174007474349,174.47838553572663</t>
+          <t>-35.51174004517539,174.47838554227485</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.51185352757972,174.47836041033315</t>
+          <t>-35.51185349801162,174.47836041688134</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -12542,7 +12542,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.51170069002029,174.4783942578965</t>
+          <t>-35.51170066045219,174.47839426444466</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -12559,12 +12559,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-35.51144131061362,174.47753895639107</t>
+          <t>-35.51144135496576,174.4775389465685</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-35.511690518590164,174.4783965104676</t>
+          <t>-35.51169054815829,174.47839650391947</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -12581,12 +12581,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.51157605239349,174.4775091154852</t>
+          <t>-35.51157609674562,174.47750910566262</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-35.51172511327965,174.47838884910442</t>
+          <t>-35.51172514284777,174.47838884255623</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -12603,12 +12603,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-35.51139261196972,174.47754974152798</t>
+          <t>-35.51139265632185,174.47754973170544</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.51157129996399,174.4784229126575</t>
+          <t>-35.51157132953211,174.47842290610936</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -12625,12 +12625,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.51159272879493,174.47750542220012</t>
+          <t>-35.51159277314705,174.47750541237755</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-35.51171541493941,174.478390996906</t>
+          <t>-35.511715385371296,174.47839100345416</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.51162399033972,174.47841124384138</t>
+          <t>-35.51162401990783,174.47841123729322</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.5114905414821,174.47752805337157</t>
+          <t>-35.511490497129955,174.47752806319411</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -12713,12 +12713,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.51144033486667,174.4775391724868</t>
+          <t>-35.511440379218804,174.47753916266427</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.51169060729451,174.47839649082312</t>
+          <t>-35.51169063686261,174.47839648427492</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12757,12 +12757,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.511493734835696,174.47752734614826</t>
+          <t>-35.511493690483555,174.4775273559708</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-35.511578839832644,174.47842124287828</t>
+          <t>-35.51157886940076,174.47842123633012</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -12779,12 +12779,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-35.51133282529074,174.47756298228074</t>
+          <t>-35.511332869642864,174.47756297245823</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-35.51155512620645,174.47842649449666</t>
+          <t>-35.51155509663834,174.47842650104482</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.51147209099458,174.47753213954968</t>
+          <t>-35.511472046642446,174.47753214937222</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -12845,12 +12845,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.51149258168024,174.47752760153446</t>
+          <t>-35.511492537328095,174.477527611357</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-35.51170941261295,174.4783923261854</t>
+          <t>-35.511709442181065,174.4783923196372</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -12867,7 +12867,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-35.51138666878359,174.47755105774604</t>
+          <t>-35.51138662443146,174.47755106756856</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.51166257672522,174.47840269848732</t>
+          <t>-35.51166260629333,174.47840269193915</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12911,12 +12911,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-35.51156789160125,174.47751092283693</t>
+          <t>-35.51156793595338,174.47751091301436</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.51172617773163,174.47838861337007</t>
+          <t>-35.51172620729974,174.47838860682188</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.51145133419594,174.477536736498</t>
+          <t>-35.51145137854808,174.47753672667545</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -12977,12 +12977,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-35.511460825552604,174.4775346344749</t>
+          <t>-35.51146086990473,174.47753462465235</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.51162053087065,174.47841200997618</t>
+          <t>-35.51162056043875,174.47841200342805</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -13021,12 +13021,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.51149719430209,174.47752657998964</t>
+          <t>-35.511497149949946,174.4775265898122</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.51167490662757,174.47839996790134</t>
+          <t>-35.511674936195696,174.47839996135318</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.5116693773908,174.47840119240882</t>
+          <t>-35.511669347822696,174.478401198957</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -13065,12 +13065,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.5115309906273,174.47751909520585</t>
+          <t>-35.511530946275165,174.47751910502842</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.51168969068308,174.4783966938164</t>
+          <t>-35.511689661114964,174.47839670036458</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.511519585334796,174.4784343653708</t>
+          <t>-35.51151961490291,174.47843435882262</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.51174134617223,174.47838525415497</t>
+          <t>-35.51174137574034,174.47838524760678</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -13154,7 +13154,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.51163898137233,174.47840792392313</t>
+          <t>-35.511639010940435,174.47840791737494</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -13171,12 +13171,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.5114575434947,174.47753536134275</t>
+          <t>-35.51145758784682,174.4775353515202</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.51157174348569,174.4784228144352</t>
+          <t>-35.5115717730538,174.47842280788706</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.51143723021728,174.47753986006418</t>
+          <t>-35.51143718586513,174.47753986988673</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.51167798171114,174.47839928689177</t>
+          <t>-35.511677952143025,174.47839929343994</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13281,12 +13281,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-35.51138941861599,174.47755044874964</t>
+          <t>-35.51138937426386,174.47755045857215</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-35.51154119962536,174.47842957867522</t>
+          <t>-35.511541170057235,174.47842958522338</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-35.51155955340047,174.47751276947858</t>
+          <t>-35.51155959775259,174.47751275965604</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -13347,12 +13347,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-35.51159051118835,174.47750591332854</t>
+          <t>-35.511590555540494,174.47750590350597</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-35.511780523917956,174.47837657781432</t>
+          <t>-35.51178049434985,174.4783765843625</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-35.511651193002365,174.47840521953125</t>
+          <t>-35.51165116343426,174.47840522607942</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -13418,7 +13418,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.51161668701611,174.47841286123705</t>
+          <t>-35.511616657448,174.4784128677852</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.51157032421629,174.47842312874656</t>
+          <t>-35.5115703537844,174.4784231221984</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -13457,7 +13457,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-35.51161162280279,174.47750123778505</t>
+          <t>-35.51161166715492,174.47750122796248</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -13484,7 +13484,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.51128265603248,174.47848683551874</t>
+          <t>-35.51128268560059,174.47848682897063</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13501,12 +13501,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.511424634211096,174.47754264966332</t>
+          <t>-35.51142467856322,174.4775426398408</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.51152579463853,174.47843299026013</t>
+          <t>-35.51152582420666,174.47843298371197</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13523,12 +13523,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.51131765686005,174.47756634157864</t>
+          <t>-35.51131770121219,174.47756633175612</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.51156789963105,174.4784236656951</t>
+          <t>-35.511567870062954,174.47842367224325</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -13545,12 +13545,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.51147590527806,174.4775312948111</t>
+          <t>-35.511475860925934,174.47753130463363</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-35.51168631991843,174.47839744030784</t>
+          <t>-35.51168629035032,174.47839744685604</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -13567,12 +13567,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-35.511598494571984,174.47750414526612</t>
+          <t>-35.511598450219864,174.4775041550887</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.51169785148166,174.47839488652104</t>
+          <t>-35.51169782191356,174.4783948930692</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13594,7 +13594,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.511624492997626,174.47841113252264</t>
+          <t>-35.511624463429506,174.4784111390708</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13634,7 +13634,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-35.51168232822345,174.47839832431083</t>
+          <t>-35.51168229865533,174.47839833085902</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.51139731329604,174.4775487003404</t>
+          <t>-35.51139726894391,174.47754871016295</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -13673,7 +13673,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-35.51156141619,174.47751235693102</t>
+          <t>-35.511561371837864,174.4775123667536</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -13695,12 +13695,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.51136378308167,174.4775561261662</t>
+          <t>-35.51136382743381,174.4775561163437</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.511551696305375,174.47842725408213</t>
+          <t>-35.51155172587349,174.478427247534</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13717,12 +13717,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-35.5114594949886,174.47753492915103</t>
+          <t>-35.51145945063645,174.47753493897358</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-35.51156905278745,174.47842341031713</t>
+          <t>-35.51156902321934,174.4784234168653</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13766,7 +13766,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-35.51164625512776,174.4784063130748</t>
+          <t>-35.51164628469587,174.4784063065266</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13783,12 +13783,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-35.51138223357006,174.47755203999822</t>
+          <t>-35.51138218921793,174.47755204982073</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.51165317406583,174.47840478080417</t>
+          <t>-35.511653203633934,174.47840477425603</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.51135597710577,174.47755785492907</t>
+          <t>-35.5113560214579,174.47755784510656</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.51160997505472,174.47841434766926</t>
+          <t>-35.511610004622824,174.4784143411211</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.51146756707695,174.47753314144887</t>
+          <t>-35.51146752272481,174.47753315127142</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -13849,12 +13849,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.5115591985834,174.47751284805906</t>
+          <t>-35.511559154231264,174.47751285788164</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.5117134634441,174.47839142908552</t>
+          <t>-35.511713433876,174.47839143563368</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13876,7 +13876,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.511698235867115,174.4783948013948</t>
+          <t>-35.51169826543522,174.47839479484665</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-35.511571794588846,174.47751005845134</t>
+          <t>-35.51157175023671,174.47751006827392</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -13915,7 +13915,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-35.51163983075789,174.47749499062672</t>
+          <t>-35.51163987511003,174.47749498080415</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -13937,12 +13937,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-35.51149009796078,174.47752815159706</t>
+          <t>-35.5114901423129,174.47752814177448</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-35.511649152802676,174.47840567135466</t>
+          <t>-35.51164912323456,174.4784056779028</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -14003,12 +14003,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-35.51157906833843,174.47750844755078</t>
+          <t>-35.5115790239863,174.47750845737335</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.51164465844974,174.47840666667565</t>
+          <t>-35.51164468801785,174.4784066601275</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14043,12 +14043,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-35.51141744916528,174.4775442409132</t>
+          <t>-35.51141749351742,174.47754423109066</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.51164560462931,174.4784064571344</t>
+          <t>-35.511645575061195,174.47840646368257</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -14065,12 +14065,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-35.51135553358441,174.47755795315422</t>
+          <t>-35.51135557793655,174.4775579433317</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-35.51148126505991,174.47844285176365</t>
+          <t>-35.51148129462804,174.4784428452155</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -14092,7 +14092,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.511665030878454,174.47840215498945</t>
+          <t>-35.51166500131034,174.47840216153762</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.51133814754708,174.47756180357945</t>
+          <t>-35.51133819189922,174.47756179375693</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-35.5115422049412,174.47842935603816</t>
+          <t>-35.51154223450931,174.47842934949003</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -14175,12 +14175,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.511481671055435,174.4775300178805</t>
+          <t>-35.511481626703294,174.47753002770307</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.511711541516924,174.47839185471685</t>
+          <t>-35.51171157108503,174.47839184816868</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -14197,12 +14197,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.51144095579655,174.47753903497133</t>
+          <t>-35.511440911444424,174.47753904479387</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.51161494249752,174.47841324757846</t>
+          <t>-35.51161497206562,174.47841324103032</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-35.51157374608264,174.47750962625855</t>
+          <t>-35.511573790434774,174.47750961643598</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -14241,12 +14241,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.511493912244234,174.4775273068581</t>
+          <t>-35.511493956596354,174.47752729703555</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.51173865547419,174.47838585003922</t>
+          <t>-35.511738625906084,174.4783858565874</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -14263,12 +14263,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.51149559762529,174.47752693360133</t>
+          <t>-35.51149564197742,174.47752692377878</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.51169025247719,174.47839656940116</t>
+          <t>-35.51169028204528,174.478396562853</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.51158806508368,174.47841919985387</t>
+          <t>-35.5115880946518,174.47841919330574</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -14307,12 +14307,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.51144406044593,174.4775383473939</t>
+          <t>-35.51144410479807,174.47753833757136</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.51165509599307,174.4784043551734</t>
+          <t>-35.51165506642495,174.47840436172157</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -14329,12 +14329,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-35.51155139260816,174.47751457682966</t>
+          <t>-35.51155134825603,174.47751458665223</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-35.51170932390863,174.47839234582992</t>
+          <t>-35.51170935347673,174.47839233928175</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -14351,12 +14351,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.51130789938997,174.4775685025299</t>
+          <t>-35.51130785503784,174.47756851235238</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.51155175544161,174.47842724098584</t>
+          <t>-35.51155172587349,174.478427247534</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-35.51166798768957,174.4784015001727</t>
+          <t>-35.51166801725769,174.47840149362452</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -14395,12 +14395,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-35.511279602726525,174.47757476928578</t>
+          <t>-35.51127964707865,174.4775747594633</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-35.51147425741701,174.47844440367265</t>
+          <t>-35.511474286985106,174.47844439712452</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -14417,12 +14417,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.511506774362836,174.4775244583192</t>
+          <t>-35.51150681871495,174.47752444849667</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.5117081411842,174.47839260775686</t>
+          <t>-35.51170811161609,174.47839261430505</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.5115503361722,174.47842755529703</t>
+          <t>-35.51155030660408,174.4784275618452</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14483,12 +14483,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.51141567507989,174.47754463381435</t>
+          <t>-35.51141563072775,174.4775446436369</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.51156426275324,174.47842447111785</t>
+          <t>-35.51156423318512,174.47842447766598</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -14505,7 +14505,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-35.51157197199737,174.4775100191611</t>
+          <t>-35.51157192764523,174.47751002898366</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -14571,12 +14571,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-35.51136458142012,174.4775559493609</t>
+          <t>-35.511364537067976,174.47755595918343</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.51156038933049,174.47842532892577</t>
+          <t>-35.5115604188986,174.4784253223776</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -14594,7 +14594,7 @@
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.51168090895412,174.478398638623</t>
+          <t>-35.51168087938601,174.47839864517115</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -14638,7 +14638,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-35.51169078470318,174.47839645153408</t>
+          <t>-35.51169081427128,174.47839644498592</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -14655,12 +14655,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.51141053023226,174.47754577322763</t>
+          <t>-35.51141048588012,174.47754578305015</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-35.51168685214442,174.4783973224408</t>
+          <t>-35.511686822576316,174.478397328989</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.51154031258198,174.47842977511968</t>
+          <t>-35.51154028301385,174.47842978166784</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -14721,12 +14721,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-35.51140458704619,174.47754708944623</t>
+          <t>-35.511404542694045,174.47754709926875</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.511570738169866,174.4784230370724</t>
+          <t>-35.511570708601745,174.47842304362055</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-35.511272683793074,174.4775763015954</t>
+          <t>-35.511272728145215,174.47757629177292</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -14770,7 +14770,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-35.51167694682724,174.47839951607767</t>
+          <t>-35.51167697639535,174.4783995095295</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-35.51154927172015,174.47842779103044</t>
+          <t>-35.51154924215203,174.47842779757858</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-35.511602849139734,174.47841592577547</t>
+          <t>-35.51160281957163,174.47841593232363</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -14831,12 +14831,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.51131951964979,174.47756592903335</t>
+          <t>-35.51131956400193,174.47756591921083</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.511565268069056,174.47842424848068</t>
+          <t>-35.511565297637176,174.47842424193252</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -14853,12 +14853,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.51139917608572,174.47754828779435</t>
+          <t>-35.511399220437845,174.47754827797183</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.51149950858593,174.47843881156055</t>
+          <t>-35.511499479017814,174.4784388181087</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.511707815934976,174.47839267978677</t>
+          <t>-35.5117078455031,174.4783926732386</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14920,7 +14920,7 @@
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.511652287022486,174.47840497724914</t>
+          <t>-35.51165231659059,174.47840497070098</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14937,12 +14937,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.51138223357006,174.47755203999822</t>
+          <t>-35.51138218921793,174.47755204982073</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.511525232844384,174.47843311467489</t>
+          <t>-35.51152520327628,174.47843312122305</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14959,12 +14959,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-35.51134870335547,174.47755946582146</t>
+          <t>-35.511348747707615,174.47755945599894</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.51157570561274,174.4784219369826</t>
+          <t>-35.511575676044636,174.47842194353075</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.511573479969854,174.47750968519392</t>
+          <t>-35.51157343561771,174.4775096950165</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -15025,12 +15025,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.51155848894929,174.47751300522006</t>
+          <t>-35.51155844459715,174.47751301504263</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.51168800530075,174.47839706706216</t>
+          <t>-35.51168797573265,174.4783970736103</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.51149045277785,174.47752807301666</t>
+          <t>-35.5114904084257,174.4775280828392</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-35.51154501391191,174.478428733964</t>
+          <t>-35.5115449843438,174.47842874051213</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.51158253584669,174.47842042435894</t>
+          <t>-35.511582506278586,174.4784204309071</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -15113,12 +15113,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.51164000816642,174.4774949513364</t>
+          <t>-35.511639963814275,174.47749496115898</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-35.511800068438404,174.47837224946335</t>
+          <t>-35.51180009800652,174.47837224291516</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -15140,7 +15140,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.511535345139016,174.47843087520857</t>
+          <t>-35.51153531557091,174.47843088175674</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-35.51166707107813,174.4784017031659</t>
+          <t>-35.51166704151001,174.47840170971406</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -15197,12 +15197,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.511319076128416,174.47756602725843</t>
+          <t>-35.51131903177629,174.47756603708092</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.51162431558895,174.47841117181162</t>
+          <t>-35.51162428602084,174.47841117835978</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -15219,12 +15219,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.511619694890605,174.47749945007664</t>
+          <t>-35.51161965053848,174.4774994598992</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.51187863090396,174.47835485091358</t>
+          <t>-35.51187860133585,174.4783548574618</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -15263,12 +15263,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.51155396503182,174.47751400712121</t>
+          <t>-35.51155400938396,174.47751399729864</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-35.51166541526389,174.47840206986328</t>
+          <t>-35.51166544483201,174.47840206331512</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -15285,12 +15285,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-35.511454084028244,174.47753612750068</t>
+          <t>-35.51145412838039,174.47753611767814</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-35.511689808955516,174.4783966676237</t>
+          <t>-35.51168983852364,174.47839666107555</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -15307,12 +15307,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-35.51147847770181,174.4775307251036</t>
+          <t>-35.51147852205395,174.47753071528106</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-35.511604623226454,174.47841553288598</t>
+          <t>-35.51160459365833,174.47841553943414</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -15334,7 +15334,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.51174099135491,174.4783853327331</t>
+          <t>-35.51174102092302,174.47838532618493</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-35.5117103883606,174.47839211009565</t>
+          <t>-35.511710417928725,174.47839210354746</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-35.51173226876237,174.47838726444562</t>
+          <t>-35.51173223919426,174.47838727099378</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -15422,7 +15422,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-35.51162706542335,174.4784105628326</t>
+          <t>-35.511627035855234,174.47841056938077</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-35.511624492997626,174.47841113252264</t>
+          <t>-35.511624463429506,174.4784111390708</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -15483,12 +15483,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-35.511408667442595,174.47754618577375</t>
+          <t>-35.51140871179473,174.47754617595123</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.51160488933945,174.47841547395254</t>
+          <t>-35.51160485977136,174.4784154805007</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -15527,7 +15527,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-35.51158474541127,174.47750719026232</t>
+          <t>-35.51158470105914,174.47750720008486</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-35.511717011617385,174.47839064330455</t>
+          <t>-35.51171698204927,174.4783906498527</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -15571,12 +15571,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-35.51148929962237,174.47752832840285</t>
+          <t>-35.51148925527023,174.4775283382254</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-35.51160453452212,174.47841555253044</t>
+          <t>-35.51160450495401,174.47841555907863</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -15593,12 +15593,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-35.51141647341832,174.47754445700883</t>
+          <t>-35.511416517770456,174.4775444471863</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-35.51162328070504,174.47841140099726</t>
+          <t>-35.51162331027315,174.47841139444907</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-35.51139545050637,174.47754911288644</t>
+          <t>-35.5113954948585,174.4775491030639</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-35.51154983351429,174.4784276666156</t>
+          <t>-35.511549863082394,174.47842766006747</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-35.51173398371277,174.47838688465131</t>
+          <t>-35.511734013280886,174.47838687810315</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-35.511590874054335,174.47841857777908</t>
+          <t>-35.51159084448622,174.47841858432722</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -15770,7 +15770,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.51172227474105,174.4783894777293</t>
+          <t>-35.51172230430917,174.47838947118115</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.5116585850302,174.47840358248982</t>
+          <t>-35.51165861459832,174.47840357594166</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -15854,7 +15854,7 @@
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.51176476411542,174.47838006799606</t>
+          <t>-35.511764793683525,174.47838006144787</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-35.511531383011885,174.47843175266036</t>
+          <t>-35.51153141258,174.47843174611222</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -15916,7 +15916,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-35.51154451125399,174.47842884528254</t>
+          <t>-35.5115445408221,174.47842883873437</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -15934,7 +15934,7 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-35.51160376575121,174.47841572278256</t>
+          <t>-35.51160379531932,174.4784157162344</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-35.51142667440928,174.4775421978269</t>
+          <t>-35.511426630057144,174.47754220764944</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.51168182556557,174.4783984356297</t>
+          <t>-35.51168185513367,174.47839842908158</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -16017,12 +16017,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-35.511472889332985,174.47753196274394</t>
+          <t>-35.51147293368511,174.4775319529214</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-35.51154909431147,174.47842783031933</t>
+          <t>-35.51154906474335,174.4784278368675</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-35.51162121093722,174.47841185936852</t>
+          <t>-35.51162118136911,174.47841186591666</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -16061,7 +16061,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-35.511387023600676,174.47755097916587</t>
+          <t>-35.51138706795282,174.47755096934335</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -16083,12 +16083,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-35.51139021695442,174.47755027194424</t>
+          <t>-35.51139026130656,174.4775502621217</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-35.511641021572025,174.47840747209983</t>
+          <t>-35.51164105114014,174.47840746555164</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-35.51158243910044,174.47750770103576</t>
+          <t>-35.5115823947483,174.47750771085833</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-35.51169176045084,174.47839623544442</t>
+          <t>-35.51169179001894,174.47839622889626</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -16194,7 +16194,7 @@
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-35.51165660396674,174.47840402121696</t>
+          <t>-35.51165657439864,174.47840402776512</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.51173448637065,174.47838677333232</t>
+          <t>-35.511734456802536,174.4783867798805</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -16233,12 +16233,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-35.51152194279225,174.4775210990068</t>
+          <t>-35.511521898440115,174.47752110882936</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-35.511663168087445,174.47840256752397</t>
+          <t>-35.51166313851934,174.47840257407216</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-35.511363516968856,174.4775561851013</t>
+          <t>-35.51136347261672,174.47755619492384</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-35.511608200968006,174.4784147405588</t>
+          <t>-35.51160823053611,174.47841473401064</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -16300,7 +16300,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-35.51157499597804,174.47842209413832</t>
+          <t>-35.51157496640994,174.47842210068646</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -16317,7 +16317,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-35.51136067843217,174.47755681374238</t>
+          <t>-35.51136063408004,174.4775568235649</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-35.51152561722986,174.478433029549</t>
+          <t>-35.51152564679797,174.47843302300086</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-35.511645634197414,174.47840645058625</t>
+          <t>-35.51164566376553,174.4784064440381</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -16405,12 +16405,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-35.51139589402772,174.4775490146612</t>
+          <t>-35.511395938379856,174.4775490048387</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-35.51161899332883,174.47841235048057</t>
+          <t>-35.511618963760725,174.4784123570287</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -16432,7 +16432,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.511688921912196,174.47839686406886</t>
+          <t>-35.5116889514803,174.47839685752066</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-35.51160737306087,174.47841492390725</t>
+          <t>-35.51160734349275,174.4784149304554</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -16493,7 +16493,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-35.51146756707695,174.47753314144887</t>
+          <t>-35.51146752272481,174.47753315127142</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-35.51168702955309,174.47839728315176</t>
+          <t>-35.51168699998498,174.47839728969996</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -16564,7 +16564,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-35.51163348170357,174.47840914188143</t>
+          <t>-35.51163351127169,174.47840913533327</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-35.511409998006634,174.47754589109795</t>
+          <t>-35.51140995365451,174.4775459009205</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-35.51163833087387,174.4784080679827</t>
+          <t>-35.511638301305766,174.47840807453088</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -16630,7 +16630,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-35.51163844914631,174.47840804179006</t>
+          <t>-35.51163847871444,174.4784080352419</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -16647,12 +16647,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-35.5114004179455,174.47754801276366</t>
+          <t>-35.51140046229763,174.47754800294112</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-35.51168250563211,174.47839828502183</t>
+          <t>-35.511682476063996,174.47839829157</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -16669,12 +16669,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-35.511549175001555,174.47751506795763</t>
+          <t>-35.51154913064942,174.47751507778017</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-35.511687827892096,174.47839710635117</t>
+          <t>-35.511687798323976,174.47839711289936</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -16691,12 +16691,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-35.51140538538461,174.47754691264075</t>
+          <t>-35.511405429736755,174.47754690281823</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-35.51163646808285,174.47840848051698</t>
+          <t>-35.511636438514735,174.47840848706517</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -16713,12 +16713,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-35.51152238631357,174.47752100078128</t>
+          <t>-35.51152243066571,174.47752099095874</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-35.511722422581606,174.47838944498844</t>
+          <t>-35.5117223930135,174.4783894515366</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -16735,12 +16735,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-35.511644265970936,174.47749400836878</t>
+          <t>-35.511644310323064,174.4774939985462</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-35.51172384185091,174.478389130676</t>
+          <t>-35.5117238122828,174.47838913722416</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -16779,12 +16779,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-35.511480517899955,174.47753027326664</t>
+          <t>-35.51148047354782,174.47753028308918</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-35.51155125278369,174.4784273523044</t>
+          <t>-35.51155128235181,174.47842734575624</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-35.51149169463756,174.4775277979854</t>
+          <t>-35.5114917389897,174.47752778816286</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -16823,12 +16823,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-35.51157108495473,174.4775102156124</t>
+          <t>-35.511571129306866,174.47751020578983</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-35.51163809432897,174.47840812036802</t>
+          <t>-35.51163812389709,174.47840811381985</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -16845,12 +16845,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-35.51152699893537,174.47751997923575</t>
+          <t>-35.51152695458323,174.47751998905832</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-35.5116094428287,174.47841446553613</t>
+          <t>-35.51160947239682,174.47841445898797</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-35.51175763820092,174.47838164610786</t>
+          <t>-35.51175760863279,174.47838165265603</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -9886,10 +9886,10 @@
         <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07240000000000001</v>
+        <v>0.0688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0897</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0.2349110158670396</v>
@@ -9961,13 +9961,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0536</v>
+        <v>0.0801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0635</v>
+        <v>0.1202</v>
       </c>
       <c r="I3" t="n">
         <v>0.2380718369147556</v>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>359.95</v>
       </c>
       <c r="C2" t="n">
-        <v>360.97</v>
+        <v>355.19</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         <v>350.13</v>
       </c>
       <c r="C3" t="n">
-        <v>359.51</v>
+        <v>357.12</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
         <v>338.24</v>
       </c>
       <c r="C4" t="n">
-        <v>343.55</v>
+        <v>346.93</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         <v>335.21</v>
       </c>
       <c r="C5" t="n">
-        <v>330.44</v>
+        <v>334.86</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         <v>353.76</v>
       </c>
       <c r="C6" t="n">
-        <v>351.56</v>
+        <v>351.44</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
         <v>347.31</v>
       </c>
       <c r="C7" t="n">
-        <v>343.05</v>
+        <v>347.77</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         <v>350.29</v>
       </c>
       <c r="C8" t="n">
-        <v>342.11</v>
+        <v>336.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>361.6</v>
       </c>
       <c r="C9" t="n">
-        <v>351.1</v>
+        <v>352.27</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>350</v>
       </c>
       <c r="C10" t="n">
-        <v>346.74</v>
+        <v>344.71</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         <v>356.85</v>
       </c>
       <c r="C11" t="n">
-        <v>342.43</v>
+        <v>347.84</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         <v>343.65</v>
       </c>
       <c r="C12" t="n">
-        <v>343.18</v>
+        <v>341.59</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>352.72</v>
       </c>
       <c r="C13" t="n">
-        <v>358.81</v>
+        <v>353.65</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>332.63</v>
       </c>
       <c r="C14" t="n">
-        <v>341.83</v>
+        <v>336.74</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>350.89</v>
       </c>
       <c r="C15" t="n">
-        <v>358.02</v>
+        <v>356.48</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>348.08</v>
       </c>
       <c r="C16" t="n">
-        <v>349.43</v>
+        <v>350.65</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
         <v>357.27</v>
       </c>
       <c r="C17" t="n">
-        <v>352.35</v>
+        <v>353.57</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>345.96</v>
       </c>
       <c r="C18" t="n">
-        <v>340.53</v>
+        <v>341.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
         <v>345.73</v>
       </c>
       <c r="C19" t="n">
-        <v>342.97</v>
+        <v>337.88</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>365.07</v>
       </c>
       <c r="C20" t="n">
-        <v>351.19</v>
+        <v>347.51</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>350.82</v>
       </c>
       <c r="C21" t="n">
-        <v>348.81</v>
+        <v>348.63</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>359.81</v>
       </c>
       <c r="C22" t="n">
-        <v>350.62</v>
+        <v>352.65</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>366.59</v>
       </c>
       <c r="C23" t="n">
-        <v>351.33</v>
+        <v>354.03</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>353.77</v>
       </c>
       <c r="C24" t="n">
-        <v>343.64</v>
+        <v>348.68</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>364.62</v>
       </c>
       <c r="C25" t="n">
-        <v>351.09</v>
+        <v>348.81</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>361.08</v>
       </c>
       <c r="C26" t="n">
-        <v>348.76</v>
+        <v>343.72</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>341.51</v>
       </c>
       <c r="C27" t="n">
-        <v>340.89</v>
+        <v>339.67</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>368.43</v>
       </c>
       <c r="C28" t="n">
-        <v>354.94</v>
+        <v>355.56</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>333.24</v>
       </c>
       <c r="C29" t="n">
-        <v>321.24</v>
+        <v>321.49</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>355.73</v>
       </c>
       <c r="C30" t="n">
-        <v>347.89</v>
+        <v>349.3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         <v>351.4</v>
       </c>
       <c r="C31" t="n">
-        <v>349.97</v>
+        <v>347.14</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>331.85</v>
       </c>
       <c r="C32" t="n">
-        <v>333.81</v>
+        <v>327.73</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>355.21</v>
       </c>
       <c r="C33" t="n">
-        <v>338.84</v>
+        <v>343.26</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>352.32</v>
       </c>
       <c r="C34" t="n">
-        <v>353.73</v>
+        <v>352.07</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1062,7 +1062,7 @@
         <v>353.86</v>
       </c>
       <c r="C35" t="n">
-        <v>346.13</v>
+        <v>347.85</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>341.99</v>
       </c>
       <c r="C36" t="n">
-        <v>343.56</v>
+        <v>340.18</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>360.78</v>
       </c>
       <c r="C37" t="n">
-        <v>352.59</v>
+        <v>355.05</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>360.16</v>
       </c>
       <c r="C38" t="n">
-        <v>354.8</v>
+        <v>350.26</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>350.63</v>
       </c>
       <c r="C39" t="n">
-        <v>356.6</v>
+        <v>357.59</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>357.62</v>
       </c>
       <c r="C40" t="n">
-        <v>351.47</v>
+        <v>349.32</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>360.08</v>
       </c>
       <c r="C41" t="n">
-        <v>355.51</v>
+        <v>355.14</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>361.04</v>
       </c>
       <c r="C42" t="n">
-        <v>359.37</v>
+        <v>354.03</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>365.13</v>
       </c>
       <c r="C43" t="n">
-        <v>349.96</v>
+        <v>352.17</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>349.77</v>
       </c>
       <c r="C44" t="n">
-        <v>361.55</v>
+        <v>356.88</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>359.09</v>
       </c>
       <c r="C45" t="n">
-        <v>352.27</v>
+        <v>353.74</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         <v>350.28</v>
       </c>
       <c r="C46" t="n">
-        <v>346.09</v>
+        <v>351.25</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>368.08</v>
+        <v>363.17</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>344.48</v>
       </c>
       <c r="C48" t="n">
-        <v>333.89</v>
+        <v>334.32</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>348.04</v>
       </c>
       <c r="C49" t="n">
-        <v>340.85</v>
+        <v>345.94</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
         <v>355.28</v>
       </c>
       <c r="C50" t="n">
-        <v>347.9</v>
+        <v>348.15</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>360.06</v>
       </c>
       <c r="C51" t="n">
-        <v>362.37</v>
+        <v>356.84</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>342.62</v>
       </c>
       <c r="C52" t="n">
-        <v>346.56</v>
+        <v>342.69</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>361.49</v>
       </c>
       <c r="C54" t="n">
-        <v>362.69</v>
+        <v>358.76</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>361.84</v>
       </c>
       <c r="C55" t="n">
-        <v>363.76</v>
+        <v>359.83</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>364.52</v>
       </c>
       <c r="C56" t="n">
-        <v>354.87</v>
+        <v>356.59</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
         <v>354.61</v>
       </c>
       <c r="C57" t="n">
-        <v>333.88</v>
+        <v>336.39</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>361.82</v>
       </c>
       <c r="C58" t="n">
-        <v>361.93</v>
+        <v>357.88</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         <v>350.57</v>
       </c>
       <c r="C60" t="n">
-        <v>349.23</v>
+        <v>350.89</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>362.45</v>
       </c>
       <c r="C61" t="n">
-        <v>350.34</v>
+        <v>345.8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>354.36</v>
       </c>
       <c r="C62" t="n">
-        <v>344.81</v>
+        <v>347.39</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>355.39</v>
       </c>
       <c r="C63" t="n">
-        <v>347.23</v>
+        <v>352.2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>352.88</v>
       </c>
       <c r="C64" t="n">
-        <v>343.26</v>
+        <v>347.62</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>367.34</v>
       </c>
       <c r="C65" t="n">
-        <v>353.96</v>
+        <v>359</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>337.56</v>
       </c>
       <c r="C66" t="n">
-        <v>330.64</v>
+        <v>327.39</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         <v>351.1</v>
       </c>
       <c r="C67" t="n">
-        <v>346.25</v>
+        <v>342.57</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>322.98</v>
       </c>
       <c r="C68" t="n">
-        <v>325.24</v>
+        <v>319.96</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>357.21</v>
       </c>
       <c r="C69" t="n">
-        <v>353.2</v>
+        <v>347.49</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>354.12</v>
       </c>
       <c r="C70" t="n">
-        <v>351.77</v>
+        <v>351.83</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>353.01</v>
       </c>
       <c r="C71" t="n">
-        <v>357.23</v>
+        <v>352.74</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>348.01</v>
       </c>
       <c r="C72" t="n">
-        <v>348.41</v>
+        <v>346.57</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>353.87</v>
       </c>
       <c r="C73" t="n">
-        <v>349.99</v>
+        <v>348.7</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>343.8</v>
       </c>
       <c r="C74" t="n">
-        <v>347.28</v>
+        <v>342</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>369.17</v>
       </c>
       <c r="C76" t="n">
-        <v>346.41</v>
+        <v>351.26</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         <v>351.14</v>
       </c>
       <c r="C77" t="n">
-        <v>341.52</v>
+        <v>345.2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>363.68</v>
       </c>
       <c r="C78" t="n">
-        <v>349.37</v>
+        <v>353.42</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>344.17</v>
       </c>
       <c r="C79" t="n">
-        <v>344.96</v>
+        <v>341.21</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>358.12</v>
       </c>
       <c r="C80" t="n">
-        <v>349.96</v>
+        <v>351</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>350.63</v>
       </c>
       <c r="C81" t="n">
-        <v>345.92</v>
+        <v>348.99</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>352.76</v>
       </c>
       <c r="C82" t="n">
-        <v>351.21</v>
+        <v>346.97</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>338.4</v>
       </c>
       <c r="C83" t="n">
-        <v>336.98</v>
+        <v>332.68</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>363.48</v>
       </c>
       <c r="C84" t="n">
-        <v>356.15</v>
+        <v>354.74</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>354.4</v>
       </c>
       <c r="C85" t="n">
-        <v>343.87</v>
+        <v>348.48</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>347.43</v>
       </c>
       <c r="C86" t="n">
-        <v>345.5</v>
+        <v>349.06</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>362.75</v>
       </c>
       <c r="C87" t="n">
-        <v>359.95</v>
+        <v>355.71</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>348.04</v>
       </c>
       <c r="C88" t="n">
-        <v>349.09</v>
+        <v>347.18</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         <v>359.83</v>
       </c>
       <c r="C89" t="n">
-        <v>360.1</v>
+        <v>354.14</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         <v>352.69</v>
       </c>
       <c r="C90" t="n">
-        <v>344.9</v>
+        <v>347.54</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>347.86</v>
       </c>
       <c r="C91" t="n">
-        <v>347.8</v>
+        <v>350.01</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>364.29</v>
       </c>
       <c r="C92" t="n">
-        <v>357.32</v>
+        <v>356.7</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>370.84</v>
       </c>
       <c r="C93" t="n">
-        <v>364.7</v>
+        <v>360.9</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>357.67</v>
       </c>
       <c r="C94" t="n">
-        <v>340.87</v>
+        <v>346.03</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>334.23</v>
       </c>
       <c r="C95" t="n">
-        <v>332.57</v>
+        <v>336.44</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>355.35</v>
       </c>
       <c r="C96" t="n">
-        <v>352.94</v>
+        <v>352.51</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>345.13</v>
       </c>
       <c r="C97" t="n">
-        <v>334.68</v>
+        <v>333.57</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>341.27</v>
       </c>
       <c r="C98" t="n">
-        <v>339.2</v>
+        <v>336.07</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>354.77</v>
       </c>
       <c r="C99" t="n">
-        <v>356.35</v>
+        <v>355.55</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>352</v>
       </c>
       <c r="C100" t="n">
-        <v>353.75</v>
+        <v>350.13</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>357.4</v>
       </c>
       <c r="C101" t="n">
-        <v>350.69</v>
+        <v>343.44</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>348.43</v>
       </c>
       <c r="C102" t="n">
-        <v>345.94</v>
+        <v>349.38</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>347.58</v>
       </c>
       <c r="C103" t="n">
-        <v>339.86</v>
+        <v>342.81</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>359.07</v>
       </c>
       <c r="C104" t="n">
-        <v>346.82</v>
+        <v>348.78</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>365.63</v>
       </c>
       <c r="C105" t="n">
-        <v>363.05</v>
+        <v>360.47</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>353.87</v>
       </c>
       <c r="C106" t="n">
-        <v>362.56</v>
+        <v>358.63</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>362.18</v>
       </c>
       <c r="C107" t="n">
-        <v>348.25</v>
+        <v>352.55</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         <v>362.94</v>
       </c>
       <c r="C108" t="n">
-        <v>364.48</v>
+        <v>358.59</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>350.6</v>
       </c>
       <c r="C109" t="n">
-        <v>344.58</v>
+        <v>348.75</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>359.8</v>
       </c>
       <c r="C110" t="n">
-        <v>345.02</v>
+        <v>350.11</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>352.5</v>
       </c>
       <c r="C111" t="n">
-        <v>353.29</v>
+        <v>354.03</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>370.63</v>
       </c>
       <c r="C112" t="n">
-        <v>359.78</v>
+        <v>358.98</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>342.1</v>
       </c>
       <c r="C113" t="n">
-        <v>340.67</v>
+        <v>345.39</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>336.27</v>
       </c>
       <c r="C114" t="n">
-        <v>327.88</v>
+        <v>332.05</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>356.75</v>
       </c>
       <c r="C115" t="n">
-        <v>345.11</v>
+        <v>349.28</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>358.89</v>
       </c>
       <c r="C116" t="n">
-        <v>346.25</v>
+        <v>349.63</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>343.7</v>
       </c>
       <c r="C117" t="n">
-        <v>342.35</v>
+        <v>344.99</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>364.38</v>
       </c>
       <c r="C118" t="n">
-        <v>359.69</v>
+        <v>358.28</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>341.82</v>
       </c>
       <c r="C119" t="n">
-        <v>343.45</v>
+        <v>339.33</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>350.71</v>
       </c>
       <c r="C120" t="n">
-        <v>346.5</v>
+        <v>349.82</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>336.8</v>
       </c>
       <c r="C121" t="n">
-        <v>353.75</v>
+        <v>347</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>353.35</v>
       </c>
       <c r="C122" t="n">
-        <v>352.23</v>
+        <v>346.89</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>359</v>
       </c>
       <c r="C123" t="n">
-        <v>346.24</v>
+        <v>349.99</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>345.29</v>
       </c>
       <c r="C124" t="n">
-        <v>343.32</v>
+        <v>340.74</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>352.99</v>
       </c>
       <c r="C125" t="n">
-        <v>358.84</v>
+        <v>357.43</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>371.12</v>
       </c>
       <c r="C126" t="n">
-        <v>361.52</v>
+        <v>359.24</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>362.16</v>
       </c>
       <c r="C127" t="n">
-        <v>343.78</v>
+        <v>348.57</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         <v>355.43</v>
       </c>
       <c r="C128" t="n">
-        <v>354.82</v>
+        <v>350.58</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>353.12</v>
       </c>
       <c r="C129" t="n">
-        <v>344.12</v>
+        <v>338.29</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>365.06</v>
       </c>
       <c r="C130" t="n">
-        <v>355.47</v>
+        <v>352.34</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>351.71</v>
       </c>
       <c r="C131" t="n">
-        <v>349.4</v>
+        <v>348.91</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         <v>344.62</v>
       </c>
       <c r="C132" t="n">
-        <v>342.23</v>
+        <v>339.72</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>357.76</v>
       </c>
       <c r="C133" t="n">
-        <v>343.96</v>
+        <v>347.83</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>345.41</v>
       </c>
       <c r="C134" t="n">
-        <v>341.1</v>
+        <v>345.52</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>356.69</v>
       </c>
       <c r="C135" t="n">
-        <v>354.14</v>
+        <v>351.63</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>353.98</v>
       </c>
       <c r="C136" t="n">
-        <v>345.91</v>
+        <v>349.96</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>352.6</v>
       </c>
       <c r="C137" t="n">
-        <v>348.01</v>
+        <v>350.65</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>348.84</v>
       </c>
       <c r="C138" t="n">
-        <v>348.64</v>
+        <v>344.34</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         <v>348.79</v>
       </c>
       <c r="C139" t="n">
-        <v>346.35</v>
+        <v>349.23</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>362.23</v>
       </c>
       <c r="C140" t="n">
-        <v>365.52</v>
+        <v>360.98</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>341.96</v>
       </c>
       <c r="C142" t="n">
-        <v>340.52</v>
+        <v>338.56</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>351.76</v>
       </c>
       <c r="C143" t="n">
-        <v>352.06</v>
+        <v>353.41</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>357.06</v>
       </c>
       <c r="C144" t="n">
-        <v>359.64</v>
+        <v>358.23</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>359.36</v>
       </c>
       <c r="C145" t="n">
-        <v>356.08</v>
+        <v>354.42</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>359.13</v>
       </c>
       <c r="C146" t="n">
-        <v>346.14</v>
+        <v>343.93</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>361.51</v>
       </c>
       <c r="C147" t="n">
-        <v>347.67</v>
+        <v>352.58</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>368.69</v>
       </c>
       <c r="C148" t="n">
-        <v>349.65</v>
+        <v>354.07</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>364.75</v>
       </c>
       <c r="C149" t="n">
-        <v>363.09</v>
+        <v>360.08</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>361.68</v>
       </c>
       <c r="C150" t="n">
-        <v>347.9</v>
+        <v>351.95</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>345.56</v>
       </c>
       <c r="C151" t="n">
-        <v>339.4</v>
+        <v>338.11</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>342.07</v>
       </c>
       <c r="C152" t="n">
-        <v>336.11</v>
+        <v>335.68</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>364.19</v>
       </c>
       <c r="C154" t="n">
-        <v>350.69</v>
+        <v>354.49</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>347.83</v>
       </c>
       <c r="C155" t="n">
-        <v>354.58</v>
+        <v>352.49</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>360.63</v>
       </c>
       <c r="C156" t="n">
-        <v>359.8</v>
+        <v>356.36</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>339.69</v>
       </c>
       <c r="C157" t="n">
-        <v>350.03</v>
+        <v>345.42</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3266,7 +3266,7 @@
         <v>339.19</v>
       </c>
       <c r="C158" t="n">
-        <v>392.23</v>
+        <v>385.48</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>360.77</v>
       </c>
       <c r="C159" t="n">
-        <v>364.82</v>
+        <v>360.83</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>372.83</v>
       </c>
       <c r="C160" t="n">
-        <v>360.08</v>
+        <v>358.54</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>355</v>
       </c>
       <c r="C161" t="n">
-        <v>346.73</v>
+        <v>347.77</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>341.18</v>
       </c>
       <c r="C162" t="n">
-        <v>345.43</v>
+        <v>344.26</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>356.05</v>
       </c>
       <c r="C163" t="n">
-        <v>353.7</v>
+        <v>356.77</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>354.1</v>
       </c>
       <c r="C164" t="n">
-        <v>341.89</v>
+        <v>346.31</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>347.18</v>
+        <v>350.43</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>363.86</v>
       </c>
       <c r="C166" t="n">
-        <v>350.86</v>
+        <v>351.41</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>345.36</v>
       </c>
       <c r="C167" t="n">
-        <v>340.96</v>
+        <v>345.2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>367.63</v>
       </c>
       <c r="C168" t="n">
-        <v>361.9</v>
+        <v>359.75</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>356.85</v>
       </c>
       <c r="C169" t="n">
-        <v>359.95</v>
+        <v>353.62</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         <v>360.78</v>
       </c>
       <c r="C170" t="n">
-        <v>361.42</v>
+        <v>357.74</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>346.33</v>
       </c>
       <c r="C171" t="n">
-        <v>351.24</v>
+        <v>344.86</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         <v>365.56</v>
       </c>
       <c r="C172" t="n">
-        <v>350.46</v>
+        <v>354.21</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>368.51</v>
       </c>
       <c r="C173" t="n">
-        <v>355.33</v>
+        <v>356.13</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>355.94</v>
       </c>
       <c r="C174" t="n">
-        <v>358.56</v>
+        <v>352.85</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>345.61</v>
       </c>
       <c r="C175" t="n">
-        <v>343.67</v>
+        <v>348.03</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>361.39</v>
       </c>
       <c r="C176" t="n">
-        <v>345.38</v>
+        <v>340.47</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>344.19</v>
       </c>
       <c r="C177" t="n">
-        <v>339.29</v>
+        <v>344.26</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>336.51</v>
       </c>
       <c r="C178" t="n">
-        <v>343.6</v>
+        <v>345.99</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
         <v>353.39</v>
       </c>
       <c r="C179" t="n">
-        <v>350.92</v>
+        <v>349.38</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>349.3</v>
       </c>
       <c r="C180" t="n">
-        <v>350.94</v>
+        <v>353.52</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>348.48</v>
       </c>
       <c r="C181" t="n">
-        <v>349.67</v>
+        <v>352.62</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>343.37</v>
       </c>
       <c r="C182" t="n">
-        <v>351.42</v>
+        <v>344.12</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>361.68</v>
+        <v>359.47</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         <v>361.58</v>
       </c>
       <c r="C184" t="n">
-        <v>351.32</v>
+        <v>355.31</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         <v>368.56</v>
       </c>
       <c r="C185" t="n">
-        <v>369.84</v>
+        <v>364.01</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>364.02</v>
       </c>
       <c r="C186" t="n">
-        <v>349.13</v>
+        <v>353.3</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         <v>370.52</v>
       </c>
       <c r="C187" t="n">
-        <v>356.01</v>
+        <v>356.56</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>369.97</v>
       </c>
       <c r="C188" t="n">
-        <v>359.36</v>
+        <v>358.99</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>365.17</v>
       </c>
       <c r="C189" t="n">
-        <v>362.97</v>
+        <v>359.9</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         <v>354.35</v>
       </c>
       <c r="C190" t="n">
-        <v>343.88</v>
+        <v>348</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>358.94</v>
       </c>
       <c r="C191" t="n">
-        <v>354.77</v>
+        <v>348.57</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>343.96</v>
       </c>
       <c r="C192" t="n">
-        <v>345.56</v>
+        <v>340.95</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>352.96</v>
       </c>
       <c r="C193" t="n">
-        <v>340.83</v>
+        <v>345.92</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>352.77</v>
       </c>
       <c r="C194" t="n">
-        <v>346.28</v>
+        <v>347.82</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>357.09</v>
       </c>
       <c r="C195" t="n">
-        <v>357.8</v>
+        <v>356.21</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>358.58</v>
       </c>
       <c r="C196" t="n">
-        <v>350.25</v>
+        <v>352.76</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>346.49</v>
       </c>
       <c r="C197" t="n">
-        <v>344.13</v>
+        <v>346.77</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>373.94</v>
       </c>
       <c r="C198" t="n">
-        <v>361.9</v>
+        <v>359.99</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>361.71</v>
       </c>
       <c r="C199" t="n">
-        <v>348.79</v>
+        <v>353.09</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>377.12</v>
       </c>
       <c r="C200" t="n">
-        <v>370.63</v>
+        <v>365.91</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>351.51</v>
       </c>
       <c r="C201" t="n">
-        <v>344.27</v>
+        <v>348.26</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>365.25</v>
       </c>
       <c r="C202" t="n">
-        <v>362.1</v>
+        <v>356.94</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4072,7 +4072,7 @@
         <v>345.74</v>
       </c>
       <c r="C203" t="n">
-        <v>362.06</v>
+        <v>359.23</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>361.79</v>
       </c>
       <c r="C204" t="n">
-        <v>360.49</v>
+        <v>358.95</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>344.17</v>
       </c>
       <c r="C205" t="n">
-        <v>347.57</v>
+        <v>347.75</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         <v>353.15</v>
       </c>
       <c r="C206" t="n">
-        <v>342.06</v>
+        <v>346.11</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>353.31</v>
       </c>
       <c r="C207" t="n">
-        <v>347.1</v>
+        <v>351.15</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>367.55</v>
       </c>
       <c r="C208" t="n">
-        <v>360.92</v>
+        <v>358.77</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>347.34</v>
+        <v>351.51</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>361.97</v>
       </c>
       <c r="C210" t="n">
-        <v>358.6</v>
+        <v>352.34</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>362</v>
       </c>
       <c r="C211" t="n">
-        <v>346.22</v>
+        <v>349.42</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>362.37</v>
       </c>
       <c r="C212" t="n">
-        <v>346.67</v>
+        <v>349.55</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4250,7 +4250,7 @@
         <v>352.76</v>
       </c>
       <c r="C213" t="n">
-        <v>363.04</v>
+        <v>358.99</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>361.39</v>
       </c>
       <c r="C214" t="n">
-        <v>363.19</v>
+        <v>360.36</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>363.04</v>
       </c>
       <c r="C215" t="n">
-        <v>359.76</v>
+        <v>358.96</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>377.9</v>
       </c>
       <c r="C216" t="n">
-        <v>360.87</v>
+        <v>356.63</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>353.02</v>
       </c>
       <c r="C217" t="n">
-        <v>347.78</v>
+        <v>350.61</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         <v>372.34</v>
       </c>
       <c r="C218" t="n">
-        <v>362.18</v>
+        <v>356.77</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>372.13</v>
       </c>
       <c r="C219" t="n">
-        <v>356.14</v>
+        <v>356.63</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>372.62</v>
       </c>
       <c r="C220" t="n">
-        <v>360.37</v>
+        <v>358.96</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>363.64</v>
       </c>
       <c r="C221" t="n">
-        <v>367.79</v>
+        <v>362.94</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>358.74</v>
       </c>
       <c r="C222" t="n">
-        <v>346.92</v>
+        <v>350.97</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>343.96</v>
       </c>
       <c r="C223" t="n">
-        <v>344.3</v>
+        <v>339.76</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>350.56</v>
+        <v>354.86</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>365.56</v>
       </c>
       <c r="C225" t="n">
-        <v>364.89</v>
+        <v>362.25</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>369.33</v>
       </c>
       <c r="C226" t="n">
-        <v>359.2</v>
+        <v>357.29</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>361.9</v>
       </c>
       <c r="C227" t="n">
-        <v>350.25</v>
+        <v>354.3</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>344</v>
       </c>
       <c r="C228" t="n">
-        <v>351.62</v>
+        <v>347.75</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         <v>345.69</v>
       </c>
       <c r="C229" t="n">
-        <v>346.54</v>
+        <v>344.26</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>353.36</v>
       </c>
       <c r="C230" t="n">
-        <v>357.26</v>
+        <v>350.44</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>350.45</v>
       </c>
       <c r="C231" t="n">
-        <v>362.66</v>
+        <v>359.46</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>362.45</v>
       </c>
       <c r="C232" t="n">
-        <v>358.43</v>
+        <v>358.18</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>336.5</v>
       </c>
       <c r="C233" t="n">
-        <v>333.9</v>
+        <v>327.33</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>362.47</v>
       </c>
       <c r="C234" t="n">
-        <v>363.75</v>
+        <v>360.55</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>363.08</v>
       </c>
       <c r="C235" t="n">
-        <v>348.9</v>
+        <v>353.07</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
-        <v>366.96</v>
+        <v>366.78</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>372.68</v>
       </c>
       <c r="C237" t="n">
-        <v>353.72</v>
+        <v>354.02</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         <v>338.79</v>
       </c>
       <c r="C238" t="n">
-        <v>325.05</v>
+        <v>324.25</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>365.74</v>
       </c>
       <c r="C239" t="n">
-        <v>345.03</v>
+        <v>349.08</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>346.19</v>
       </c>
       <c r="C240" t="n">
-        <v>349.08</v>
+        <v>346.93</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>357.45</v>
       </c>
       <c r="C241" t="n">
-        <v>346.33</v>
+        <v>351.18</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>354.7</v>
       </c>
       <c r="C242" t="n">
-        <v>355.94</v>
+        <v>351.82</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4786,7 +4786,7 @@
         <v>353.27</v>
       </c>
       <c r="C243" t="n">
-        <v>340.56</v>
+        <v>344.12</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>352.18</v>
       </c>
       <c r="C244" t="n">
-        <v>345.28</v>
+        <v>346.02</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4822,7 +4822,7 @@
         <v>345.28</v>
       </c>
       <c r="C245" t="n">
-        <v>344.01</v>
+        <v>340.94</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>348.79</v>
       </c>
       <c r="C246" t="n">
-        <v>341.55</v>
+        <v>345.35</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>363.21</v>
       </c>
       <c r="C247" t="n">
-        <v>353.41</v>
+        <v>356.85</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>351.4</v>
       </c>
       <c r="C248" t="n">
-        <v>359.37</v>
+        <v>353.84</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>358.23</v>
       </c>
       <c r="C249" t="n">
-        <v>353.7</v>
+        <v>354.19</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>362.57</v>
       </c>
       <c r="C250" t="n">
-        <v>355.91</v>
+        <v>355.48</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>366.55</v>
       </c>
       <c r="C251" t="n">
-        <v>355.24</v>
+        <v>355.98</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4948,7 +4948,7 @@
         <v>342.73</v>
       </c>
       <c r="C252" t="n">
-        <v>350.23</v>
+        <v>351.89</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>344.92</v>
       </c>
       <c r="C253" t="n">
-        <v>343.27</v>
+        <v>345.97</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>353.49</v>
       </c>
       <c r="C254" t="n">
-        <v>355.95</v>
+        <v>350.36</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         <v>361.69</v>
       </c>
       <c r="C255" t="n">
-        <v>353.83</v>
+        <v>354.26</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>351.71</v>
       </c>
       <c r="C256" t="n">
-        <v>364.07</v>
+        <v>360.75</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>336.98</v>
       </c>
       <c r="C257" t="n">
-        <v>334.76</v>
+        <v>329.23</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5056,7 +5056,7 @@
         <v>364.06</v>
       </c>
       <c r="C258" t="n">
-        <v>349.8</v>
+        <v>352.56</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>373.79</v>
       </c>
       <c r="C259" t="n">
-        <v>362.11</v>
+        <v>360.15</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>345.97</v>
       </c>
       <c r="C260" t="n">
-        <v>341.35</v>
+        <v>345.65</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>370.06</v>
       </c>
       <c r="C261" t="n">
-        <v>357.49</v>
+        <v>357.24</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>350.52</v>
       </c>
       <c r="C263" t="n">
-        <v>342.67</v>
+        <v>346.23</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>365.14</v>
       </c>
       <c r="C264" t="n">
-        <v>369.13</v>
+        <v>363.6</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>350.86</v>
       </c>
       <c r="C265" t="n">
-        <v>343.33</v>
+        <v>348.86</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>352.5</v>
       </c>
       <c r="C266" t="n">
-        <v>349.85</v>
+        <v>348.63</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="n">
-        <v>337.88</v>
+        <v>342.18</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>353.79</v>
       </c>
       <c r="C268" t="n">
-        <v>364.19</v>
+        <v>358.91</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>372.77</v>
       </c>
       <c r="C270" t="n">
-        <v>362.71</v>
+        <v>359.64</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
-        <v>356.03</v>
+        <v>356.09</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>365.71</v>
       </c>
       <c r="C272" t="n">
-        <v>361.26</v>
+        <v>359.42</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>360.55</v>
       </c>
       <c r="C273" t="n">
-        <v>373.18</v>
+        <v>370.05</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         <v>360.36</v>
       </c>
       <c r="C274" t="n">
-        <v>347.23</v>
+        <v>351.9</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>355.33</v>
       </c>
       <c r="C275" t="n">
-        <v>362.2</v>
+        <v>359.19</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>351.61</v>
       </c>
       <c r="C276" t="n">
-        <v>354.07</v>
+        <v>351.98</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>365.01</v>
       </c>
       <c r="C277" t="n">
-        <v>353.9</v>
+        <v>354.82</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>364.65</v>
       </c>
       <c r="C278" t="n">
-        <v>351.83</v>
+        <v>355.58</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>359.12</v>
       </c>
       <c r="C279" t="n">
-        <v>347.53</v>
+        <v>350.85</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>352.3</v>
       </c>
       <c r="C280" t="n">
-        <v>352.8</v>
+        <v>348.75</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>342.99</v>
       </c>
       <c r="C281" t="n">
-        <v>340.69</v>
+        <v>346.03</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>343.17</v>
       </c>
       <c r="C282" t="n">
-        <v>346.11</v>
+        <v>343.04</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
-        <v>350.08</v>
+        <v>345.78</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5514,7 +5514,7 @@
         <v>344.14</v>
       </c>
       <c r="C284" t="n">
-        <v>341.3</v>
+        <v>340.31</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>349.81</v>
       </c>
       <c r="C285" t="n">
-        <v>349.34</v>
+        <v>351.12</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>353.75</v>
       </c>
       <c r="C287" t="n">
-        <v>355.53</v>
+        <v>349.15</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>349.77</v>
       </c>
       <c r="C288" t="n">
-        <v>359.28</v>
+        <v>356.82</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>367.99</v>
       </c>
       <c r="C289" t="n">
-        <v>353.94</v>
+        <v>355.6</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>354.4</v>
       </c>
       <c r="C290" t="n">
-        <v>358.08</v>
+        <v>350.71</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>364.5</v>
       </c>
       <c r="C291" t="n">
-        <v>364.84</v>
+        <v>359.93</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>361.72</v>
       </c>
       <c r="C292" t="n">
-        <v>351.31</v>
+        <v>353.03</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>364.01</v>
       </c>
       <c r="C293" t="n">
-        <v>354.32</v>
+        <v>349.47</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>355.09</v>
       </c>
       <c r="C294" t="n">
-        <v>346.43</v>
+        <v>350.36</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>371.73</v>
       </c>
       <c r="C295" t="n">
-        <v>365.27</v>
+        <v>361.22</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>352.77</v>
       </c>
       <c r="C296" t="n">
-        <v>355.63</v>
+        <v>352.8</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>355.94</v>
       </c>
       <c r="C297" t="n">
-        <v>361.96</v>
+        <v>358.46</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         <v>349.36</v>
       </c>
       <c r="C298" t="n">
-        <v>346.65</v>
+        <v>340.14</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>354.57</v>
       </c>
       <c r="C299" t="n">
-        <v>354.63</v>
+        <v>349.1</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>366.91</v>
       </c>
       <c r="C300" t="n">
-        <v>352.68</v>
+        <v>354.03</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
         <v>362.43</v>
       </c>
       <c r="C301" t="n">
-        <v>369.38</v>
+        <v>365.51</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>366.16</v>
       </c>
       <c r="C302" t="n">
-        <v>352.14</v>
+        <v>354.1</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>360.58</v>
       </c>
       <c r="C303" t="n">
-        <v>352.12</v>
+        <v>353.84</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>363.5</v>
       </c>
       <c r="C304" t="n">
-        <v>347.16</v>
+        <v>350.78</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>346.74</v>
       </c>
       <c r="C305" t="n">
-        <v>346.56</v>
+        <v>349.07</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>362.94</v>
       </c>
       <c r="C306" t="n">
-        <v>352.35</v>
+        <v>355.23</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>349.75</v>
       </c>
       <c r="C307" t="n">
-        <v>342.66</v>
+        <v>337.81</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>336.01</v>
       </c>
       <c r="C308" t="n">
-        <v>342.5</v>
+        <v>346.86</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>362.73</v>
       </c>
       <c r="C309" t="n">
-        <v>344.17</v>
+        <v>350.06</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>354.48</v>
       </c>
       <c r="C310" t="n">
-        <v>361.95</v>
+        <v>359.07</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>353.21</v>
       </c>
       <c r="C311" t="n">
-        <v>344.57</v>
+        <v>341.81</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>344.26</v>
       </c>
       <c r="C312" t="n">
-        <v>352.16</v>
+        <v>352.96</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>349.24</v>
       </c>
       <c r="C313" t="n">
-        <v>355.39</v>
+        <v>354.72</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6052,11 +6052,29 @@
         <v>336.17</v>
       </c>
       <c r="C314" t="n">
-        <v>338.69</v>
+        <v>334.39</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:12:10+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>345.74</v>
+      </c>
+      <c r="C315" t="n">
+        <v>349.41</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B364"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9719,6 +9737,16 @@
       </c>
       <c r="B364" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -9889,33 +9917,37 @@
         <v>0.0688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0901</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2349110158670396</v>
+        <v>0.2268500516344291</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03134604826512077</v>
+        <v>0.02935384459615786</v>
       </c>
       <c r="M2" t="n">
-        <v>7.696949345819363</v>
+        <v>7.709777833466501</v>
       </c>
       <c r="N2" t="n">
-        <v>87.73938326000764</v>
+        <v>87.90836691264406</v>
       </c>
       <c r="O2" t="n">
-        <v>9.366930300797996</v>
+        <v>9.375946187593232</v>
       </c>
       <c r="P2" t="n">
-        <v>351.4713415431753</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+        <v>351.5566040403526</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Hidden</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.47683387903544 -35.51462486025414, 174.4786499997947 -35.50642427306745)</t>
@@ -9964,34 +9996,34 @@
         <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0801</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1202</v>
+        <v>0.1201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2380718369147556</v>
+        <v>0.2317275765941713</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03646299578949197</v>
+        <v>0.04352184445992013</v>
       </c>
       <c r="M3" t="n">
-        <v>6.914334510809383</v>
+        <v>5.823232702038234</v>
       </c>
       <c r="N3" t="n">
-        <v>76.64647670841829</v>
+        <v>60.62853902094799</v>
       </c>
       <c r="O3" t="n">
-        <v>8.754797353932203</v>
+        <v>7.786433010111112</v>
       </c>
       <c r="P3" t="n">
-        <v>347.2299395560467</v>
+        <v>346.8256528103524</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10029,7 +10061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10072,7 +10104,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-35.51155997537692,174.47842542059988</t>
+          <t>-35.511611246483525,174.47841406609842</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10094,7 +10126,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-35.511572926210185,174.47842255250907</t>
+          <t>-35.51159412654667,174.47841785748187</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -10116,7 +10148,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.51171449832798,174.4783911998994</t>
+          <t>-35.51168451626365,174.47839783974626</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -10138,7 +10170,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-35.51183078970394,174.47836544589416</t>
+          <t>-35.51179158239097,174.47837412879298</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -10160,7 +10192,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.51164344615716,174.4784069351504</t>
+          <t>-35.51164451060919,174.4784066994165</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -10182,7 +10214,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.511718933544564,174.47839021767314</t>
+          <t>-35.51167706509968,174.478399489885</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -10204,7 +10236,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.51172727175172,174.47838837108753</t>
+          <t>-35.51177526079443,174.4783777433911</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -10226,7 +10258,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-35.51164752655655,174.4784060315037</t>
+          <t>-35.51163714814942,174.47840832990926</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -10248,7 +10280,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-35.51168620164598,174.47839746650055</t>
+          <t>-35.511704208625474,174.47839347866392</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10270,7 +10302,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.51172443321311,174.47838899971245</t>
+          <t>-35.51167644416935,174.47839962739656</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10292,7 +10324,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.51171778038825,174.478390473052</t>
+          <t>-35.511731884376935,174.47838734957193</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10314,7 +10346,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-35.51157913551378,174.47842117739674</t>
+          <t>-35.5116249069512,174.47841104084839</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -10336,7 +10368,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.511729755473,174.47838782104068</t>
+          <t>-35.5117749059771,174.4783778219693</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10358,7 +10390,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-35.511586143156386,174.478419625484</t>
+          <t>-35.5115998036242,174.4784166002357</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -10380,7 +10412,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.51166234018033,174.47840275087265</t>
+          <t>-35.5116515182516,174.47840514750143</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10402,7 +10434,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.511636438514735,174.47840848706517</t>
+          <t>-35.51162561658587,174.4784108836925</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10424,7 +10456,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-35.51174128703602,174.47838526725133</t>
+          <t>-35.51173534384584,174.47838658343517</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10446,7 +10478,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.51171964317921,174.47839006051694</t>
+          <t>-35.511764793683525,174.47838006144787</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10468,7 +10500,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-35.51164672821754,174.47840620830416</t>
+          <t>-35.511679371412356,174.47839897912783</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -10490,7 +10522,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-35.51166783984901,174.47840153291355</t>
+          <t>-35.51166943652703,174.47840117931247</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -10512,7 +10544,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-35.511651784364595,174.47840508856797</t>
+          <t>-35.51163377738469,174.4784090763998</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -10534,7 +10566,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.51164548635685,174.47840648332706</t>
+          <t>-35.51162153618645,174.47841178733873</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10556,7 +10588,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.511713699988995,174.47839137670013</t>
+          <t>-35.51166899300535,174.478401277535</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10578,7 +10610,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.51164761526089,174.47840601185922</t>
+          <t>-35.51166783984901,174.47840153291355</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10600,7 +10632,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.511668283370675,174.47840143469105</t>
+          <t>-35.51171299035435,174.47839153385632</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -10622,7 +10654,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.51173809368011,174.47838597445462</t>
+          <t>-35.511748915608436,174.47838357782106</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10644,7 +10676,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.511613464091916,174.47841357498646</t>
+          <t>-35.5116079644231,174.47841479294405</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -10666,7 +10698,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-35.51191239768357,174.47834737286715</t>
+          <t>-35.51191018007547,174.4783478639825</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -10688,7 +10720,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.51167600064769,174.47839972561908</t>
+          <t>-35.51166349333667,174.47840249549415</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -10710,7 +10742,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.5116575501463,174.47840381167563</t>
+          <t>-35.51168265347267,174.47839825228098</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -10732,7 +10764,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-35.51180089634547,174.4783720661141</t>
+          <t>-35.5118548285765,174.47836012221254</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -10754,7 +10786,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.51175627806785,174.47838194732415</t>
+          <t>-35.51171707075361,174.4783906302082</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -10776,7 +10808,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-35.51162419731651,174.47841119800424</t>
+          <t>-35.511638922236095,174.47840793701945</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -10798,7 +10830,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.51169161261028,174.4783962681853</t>
+          <t>-35.51167635546501,174.47839964704107</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -10820,7 +10852,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.51171440962365,174.47839121954394</t>
+          <t>-35.511744391687586,174.47838457969254</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -10842,7 +10874,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.51163430961069,174.47840895853287</t>
+          <t>-35.511612488344234,174.47841379107572</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -10864,7 +10896,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-35.51161470595262,174.47841329996376</t>
+          <t>-35.51165497772061,174.47840438136606</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -10886,7 +10918,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.511598739172165,174.47841683596937</t>
+          <t>-35.511589957442865,174.4784187807719</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10908,7 +10940,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-35.511644244496175,174.47840675834996</t>
+          <t>-35.511663315928,174.47840253478316</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10930,7 +10962,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-35.511608407944784,174.4784146947217</t>
+          <t>-35.51161169000521,174.47841396787604</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10952,7 +10984,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.51157416807091,174.4784222774866</t>
+          <t>-35.51162153618645,174.47841178733873</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10974,7 +11006,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-35.511657638850636,174.47840379203114</t>
+          <t>-35.51163803519276,174.47840813346434</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -10996,7 +11028,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.51155483052533,174.47842655997817</t>
+          <t>-35.51159625545074,174.47841738601457</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -11018,7 +11050,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-35.51163714814942,174.47840832990926</t>
+          <t>-35.511624108612175,174.47841121764873</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -11040,7 +11072,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.51169196742761,174.47839618960722</t>
+          <t>-35.51164619599154,174.47840632617113</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -11058,7 +11090,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-35.51149690659196,174.4784393877971</t>
+          <t>-35.51154046042254,174.47842974237895</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -11080,7 +11112,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35.51180018671085,174.4783722232706</t>
+          <t>-35.51179637242472,174.47837306798675</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -11102,7 +11134,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.511738448497425,174.47838589587647</t>
+          <t>-35.51169329799259,174.47839589493952</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -11124,7 +11156,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-35.51167591194336,174.4783997452636</t>
+          <t>-35.51167369433503,174.47840023637625</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -11146,7 +11178,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.5115475567696,174.47842817082315</t>
+          <t>-35.511596610268086,174.4784173074367</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -11168,7 +11200,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-35.511687798323976,174.47839711289936</t>
+          <t>-35.51172212690051,174.4783895104702</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -11208,7 +11240,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.51154471823077,174.47842879944548</t>
+          <t>-35.511579579035455,174.4784210791744</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -11230,7 +11262,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.51153522686656,174.47843090140117</t>
+          <t>-35.51157008767139,174.47842318113177</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -11252,7 +11284,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-35.51161408502226,174.47841343747513</t>
+          <t>-35.51159882787649,174.4784168163249</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -11274,7 +11306,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-35.51180027541516,174.47837220362604</t>
+          <t>-35.511778010628625,174.47837713440998</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -11296,7 +11328,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-35.511551459760476,174.47842730646732</t>
+          <t>-35.511587385017094,174.47841935046148</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -11336,7 +11368,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-35.511664114267006,174.47840235798262</t>
+          <t>-35.51164938934756,174.47840561896933</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11358,7 +11390,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.511654268085955,174.47840453852206</t>
+          <t>-35.51169453985325,174.4783956199163</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11380,7 +11412,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-35.51170332158216,174.47839367510912</t>
+          <t>-35.51168043586434,174.4783987433937</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11402,7 +11434,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-35.51168185513367,174.47839842908158</t>
+          <t>-35.511637769079755,174.4784081923978</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11424,7 +11456,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-35.51171707075361,174.4783906302082</t>
+          <t>-35.51167839566469,174.4783991952174</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11446,7 +11478,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.51162215711679,174.47841164982736</t>
+          <t>-35.51157745013137,174.4784215506415</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11468,7 +11500,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-35.51182901561741,174.4783658387857</t>
+          <t>-35.5118578445236,174.47835945429654</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11490,7 +11522,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.51169054815829,174.47839650391947</t>
+          <t>-35.51172319135248,174.47838927473586</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11512,7 +11544,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.51187691595366,174.47835523070913</t>
+          <t>-35.511923751837024,174.4783448583564</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11534,7 +11566,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-35.51162889864627,174.47841015684656</t>
+          <t>-35.511679548821014,174.47839893983877</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -11556,7 +11588,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.51164158336614,174.47840734768474</t>
+          <t>-35.51164105114014,174.47840746555164</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11578,7 +11610,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.51159315079897,174.47841807357102</t>
+          <t>-35.51163297904568,174.4784092532002</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -11600,7 +11632,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-35.51167138802236,174.47840074713338</t>
+          <t>-35.51168770961965,174.47839713254385</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -11622,7 +11654,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.51165737273763,174.47840385096464</t>
+          <t>-35.511668815596686,174.478401316824</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -11644,7 +11676,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.511681411612,174.4783985273041</t>
+          <t>-35.511728247499356,174.4783881549977</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -11684,7 +11716,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-35.511689128888975,174.47839681823166</t>
+          <t>-35.5116461072872,174.47840634581559</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -11706,7 +11738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-35.51173250530726,174.4783872120602</t>
+          <t>-35.5116998621132,174.47839444124534</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -11728,7 +11760,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-35.51166287240634,174.47840263300566</t>
+          <t>-35.5116269471509,174.47841058902526</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -11750,7 +11782,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-35.511701991017176,174.4783939697769</t>
+          <t>-35.5117352551415,174.47838660307968</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -11772,7 +11804,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.511657638850636,174.47840379203114</t>
+          <t>-35.51164841359989,174.47840583505877</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -11794,7 +11826,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.511693475401266,174.4783958556505</t>
+          <t>-35.51166624317101,174.4784018865146</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -11816,7 +11848,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-35.51164655080887,174.47840624759314</t>
+          <t>-35.51168416144633,174.4783979183243</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -11838,7 +11870,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-35.5117727770732,174.4783782934385</t>
+          <t>-35.511810919934554,174.47836984627824</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -11860,7 +11892,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-35.51160273086728,174.4784159519681</t>
+          <t>-35.51161523817864,174.4784131820969</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -11882,7 +11914,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-35.51171165978937,174.47839182852414</t>
+          <t>-35.51167076709202,174.4784008846449</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -11904,7 +11936,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-35.511697200983235,174.47839503058083</t>
+          <t>-35.51166562224068,174.4784020240261</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11926,7 +11958,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-35.51156902321934,174.4784234168653</t>
+          <t>-35.511606633858065,174.4784150876112</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -11948,7 +11980,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.511665356127686,174.4784020829596</t>
+          <t>-35.51168229865533,174.47839833085902</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -11970,7 +12002,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-35.51156769265428,174.47842371153217</t>
+          <t>-35.51162056043875,174.47841200342805</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -11992,7 +12024,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-35.51170252324317,174.47839385190977</t>
+          <t>-35.51167910529934,174.47839903806133</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -12014,7 +12046,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.51167679898668,174.47839954881852</t>
+          <t>-35.511657195328965,174.47840389025362</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -12036,7 +12068,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.511592352459935,174.47841825037128</t>
+          <t>-35.5115978521288,174.4784170324141</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -12058,7 +12090,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.51152688865871,174.4784327479787</t>
+          <t>-35.511560596307284,174.4784252830887</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -12080,7 +12112,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.511738271088774,174.47838593516553</t>
+          <t>-35.511692499653606,174.47839607174015</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -12102,7 +12134,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-35.51181189568218,174.478369630188</t>
+          <t>-35.51177756710698,174.47837723263274</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -12124,7 +12156,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35.51163120495899,174.47840964608991</t>
+          <t>-35.51163501924537,174.47840880137696</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -12146,7 +12178,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-35.51179317906888,174.4783737751909</t>
+          <t>-35.51180302524935,174.47837159464459</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -12168,7 +12200,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-35.51175308471196,174.47838265452768</t>
+          <t>-35.51178084916716,174.47837650578427</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -12190,7 +12222,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.51160095678056,174.47841634485755</t>
+          <t>-35.51160805312744,174.4784147732996</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -12212,7 +12244,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.51162401990783,174.47841123729322</t>
+          <t>-35.51165613087696,174.47840412598762</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -12234,7 +12266,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-35.51165116343426,174.47840522607942</t>
+          <t>-35.51171547407563,174.47839098380965</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -12256,7 +12288,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-35.51169329799259,174.47839589493952</t>
+          <t>-35.51166278370201,174.47840265265015</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -12278,7 +12310,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.51174723022616,174.47838395106731</t>
+          <t>-35.51172106244852,174.47838974620453</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -12300,7 +12332,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.51168549201134,174.47839762365663</t>
+          <t>-35.51166810596202,174.47840147398006</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -12322,7 +12354,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-35.511541524874595,174.47842950664557</t>
+          <t>-35.51156441059379,174.4784244383771</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -12344,7 +12376,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-35.51154587138717,174.47842854406767</t>
+          <t>-35.51158073219184,174.47842082379637</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -12366,7 +12398,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-35.51167280729169,174.4784004328213</t>
+          <t>-35.51163466442804,174.47840887995494</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12388,7 +12420,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-35.51152884015417,174.478432315801</t>
+          <t>-35.51158108700919,174.47842074521853</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -12410,7 +12442,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.5117053617818,174.47839322328517</t>
+          <t>-35.511668372075015,174.47840141504653</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -12432,7 +12464,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-35.511701458791194,174.478394087644</t>
+          <t>-35.51165630828564,174.47840408669862</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -12454,7 +12486,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-35.51162810030725,174.47841033364693</t>
+          <t>-35.51162153618645,174.47841178733873</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12476,7 +12508,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-35.51157053119307,174.4784230829095</t>
+          <t>-35.51157762754005,174.47842151135262</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -12498,7 +12530,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.51174004517539,174.47838554227485</t>
+          <t>-35.51169817673089,174.47839481449114</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12520,7 +12552,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.51185349801162,174.47836041688134</t>
+          <t>-35.51181650830722,174.47836860867042</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -12542,7 +12574,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.51170066045219,174.47839426444466</t>
+          <t>-35.511663670745335,174.47840245620515</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -12564,7 +12596,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-35.51169054815829,174.47839650391947</t>
+          <t>-35.51166056609366,174.47840314376265</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -12586,7 +12618,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-35.51172514284777,174.47838884255623</t>
+          <t>-35.51170172490417,174.47839402871045</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -12608,7 +12640,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.51157132953211,174.47842290610936</t>
+          <t>-35.511583836843634,174.47842013624012</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -12630,7 +12662,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-35.511715385371296,174.47839100345416</t>
+          <t>-35.51175193155567,174.4783829099067</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -12652,7 +12684,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-35.51168833054997,174.47839699503226</t>
+          <t>-35.51165888071131,174.47840351700816</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -12674,7 +12706,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.51162401990783,174.47841123729322</t>
+          <t>-35.51168389533333,174.47839797725783</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -12696,7 +12728,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-35.51163750296674,174.47840825133127</t>
+          <t>-35.51168487108099,174.47839776116822</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -12718,7 +12750,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.51169063686261,174.47839648427492</t>
+          <t>-35.51165737273763,174.47840385096464</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12740,7 +12772,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-35.511716538527615,174.47839074807536</t>
+          <t>-35.511739424245064,174.47838567978658</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -12762,7 +12794,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-35.51157886940076,174.47842123633012</t>
+          <t>-35.511591376712246,174.47841846646043</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -12784,7 +12816,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-35.51155509663834,174.47842650104482</t>
+          <t>-35.51157532122728,174.47842202210862</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -12806,7 +12838,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.51171245812836,174.47839165172346</t>
+          <t>-35.51166996875302,174.47840106144545</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -12828,7 +12860,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.511614528543944,174.4784133392527</t>
+          <t>-35.511652139181926,174.47840500998996</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12850,7 +12882,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-35.511709442181065,174.4783923196372</t>
+          <t>-35.51176115680601,174.47838086687423</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -12872,7 +12904,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-35.51160876276213,174.47841461614377</t>
+          <t>-35.51163652721907,174.47840846742065</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12894,7 +12926,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.51166260629333,174.47840269193915</t>
+          <t>-35.51166695280569,174.47840172935855</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12916,7 +12948,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.51172620729974,174.47838860682188</t>
+          <t>-35.51174847208678,174.47838367604376</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12938,7 +12970,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-35.511710861450375,174.47839200532485</t>
+          <t>-35.51167653287368,174.47839960775207</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -12960,7 +12992,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-35.51173623088916,174.4783863869898</t>
+          <t>-35.51169702357456,174.47839506986986</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -12982,7 +13014,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.51162056043875,174.47841200342805</t>
+          <t>-35.51164282522682,174.47840707266184</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -13004,7 +13036,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.5116935641056,174.47839583600597</t>
+          <t>-35.511657638850636,174.47840379203114</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -13026,7 +13058,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.511674936195696,174.47839996135318</t>
+          <t>-35.5116515182516,174.47840514750143</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -13048,7 +13080,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.511669347822696,174.478401198957</t>
+          <t>-35.511707490685765,174.47839275181667</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -13070,7 +13102,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.511689661114964,174.47839670036458</t>
+          <t>-35.511664114267006,174.47840235798262</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -13092,7 +13124,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.51151961490291,174.47843435882262</t>
+          <t>-35.511559886672586,174.47842544024434</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -13132,7 +13164,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.51174137574034,174.47838524760678</t>
+          <t>-35.511758761789096,174.47838139727696</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -13154,7 +13186,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.511639010940435,174.47840791737494</t>
+          <t>-35.511627035855234,174.47841056938077</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -13176,7 +13208,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.5115717730538,174.47842280788706</t>
+          <t>-35.51158428036531,174.47842003801782</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -13198,7 +13230,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.51160335179764,174.47841581445678</t>
+          <t>-35.511618076717376,174.47841255347353</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -13220,7 +13252,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.511691523905945,174.4783962878298</t>
+          <t>-35.51171112756338,174.47839194639127</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -13242,7 +13274,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.511677952143025,174.47839929343994</t>
+          <t>-35.51163439831503,174.4784089388884</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13264,7 +13296,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.511660388685,174.47840318305165</t>
+          <t>-35.51162118136911,174.47841186591666</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13286,7 +13318,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-35.511541170057235,174.47842958522338</t>
+          <t>-35.511567870062954,174.47842367224325</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13308,7 +13340,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-35.51167591194336,174.4783997452636</t>
+          <t>-35.51163998668812,174.47840770128556</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -13330,7 +13362,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.511751310625364,174.47838304741848</t>
+          <t>-35.51176275348393,174.47838051327244</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13352,7 +13384,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-35.51178049434985,174.4783765843625</t>
+          <t>-35.511784308636,174.47837573964665</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13396,7 +13428,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-35.51165116343426,174.47840522607942</t>
+          <t>-35.51161745578702,174.4784126909849</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -13418,7 +13450,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.511616657448,174.4784128677852</t>
+          <t>-35.51163519665405,174.478408762088</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13440,7 +13472,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.5115703537844,174.4784231221984</t>
+          <t>-35.51160086807622,174.47841636450204</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -13462,7 +13494,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-35.51165701792029,174.47840392954262</t>
+          <t>-35.511697910617876,174.47839487342472</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13484,7 +13516,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.51128268560059,174.47848682897063</t>
+          <t>-35.511342561034965,174.4784735690387</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13506,7 +13538,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.51152582420666,174.47843298371197</t>
+          <t>-35.51156121723764,174.4784251455775</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13528,7 +13560,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.511567870062954,174.47842367224325</t>
+          <t>-35.51158153053087,174.47842064699623</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -13550,7 +13582,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-35.51168629035032,174.47839744685604</t>
+          <t>-35.51167706509968,174.478399489885</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -13572,7 +13604,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.51169782191356,174.4783948930692</t>
+          <t>-35.51170820032043,174.4783925946605</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13594,7 +13626,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.511624463429506,174.4784111390708</t>
+          <t>-35.511597231198444,174.4784171699254</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13616,7 +13648,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-35.511729223246995,174.47838793890787</t>
+          <t>-35.511690015932295,174.47839662178654</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -13634,7 +13666,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-35.51168229865533,174.47839833085902</t>
+          <t>-35.511653469746946,174.47840471532254</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13656,7 +13688,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-35.51164965546058,174.47840556003584</t>
+          <t>-35.511644776722186,174.478406640483</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13678,7 +13710,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-35.511737472749786,174.47838611196636</t>
+          <t>-35.5116998621132,174.47839444124534</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -13700,7 +13732,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.51155172587349,174.478427247534</t>
+          <t>-35.51157079730609,174.4784230239761</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13722,7 +13754,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-35.51156902321934,174.4784234168653</t>
+          <t>-35.511625173064196,174.47841098191492</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13744,7 +13776,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-35.51155598368171,174.4784263046003</t>
+          <t>-35.51158862687781,174.47841907543892</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13766,7 +13798,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-35.51164628469587,174.4784063065266</t>
+          <t>-35.5117028780605,174.4783937733317</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13788,7 +13820,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.511653203633934,174.47840477425603</t>
+          <t>-35.51161993950842,174.4784121409394</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -13810,7 +13842,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.511610004622824,174.4784143411211</t>
+          <t>-35.51160290827595,174.47841591267914</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13832,7 +13864,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-35.511581353122196,174.47842068628515</t>
+          <t>-35.511632003298,174.47840946928955</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -13854,7 +13886,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.511713433876,174.47839143563368</t>
+          <t>-35.51167475878702,174.47840000064218</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13876,7 +13908,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.51169826543522,174.47839479484665</t>
+          <t>-35.511741819262,174.4783851493841</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13898,7 +13930,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-35.511752286372996,174.47838283132856</t>
+          <t>-35.51170820032043,174.4783925946605</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -13920,7 +13952,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.51171405480632,174.47839129812203</t>
+          <t>-35.51169285447093,174.47839599316208</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -13942,7 +13974,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-35.51164912323456,174.4784056779028</t>
+          <t>-35.51166278370201,174.47840265265015</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13964,7 +13996,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.5116489458259,174.4784057171918</t>
+          <t>-35.511626060107545,174.4784107854701</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -13986,7 +14018,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-35.51166021127633,174.4784032223407</t>
+          <t>-35.51163404349769,174.47840901746633</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -14008,7 +14040,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.51164468801785,174.4784066601275</t>
+          <t>-35.511709442181065,174.4783923196372</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14026,7 +14058,7 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-35.51155367736892,174.47842681535604</t>
+          <t>-35.51157328102753,174.47842247393123</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -14048,7 +14080,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.511645575061195,174.47840646368257</t>
+          <t>-35.5116101820315,174.47841430183215</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -14070,7 +14102,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-35.51148129462804,174.4784428452155</t>
+          <t>-35.511533009258095,174.47843139251228</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -14092,7 +14124,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.51166500131034,174.47840216153762</t>
+          <t>-35.511628011602916,174.47841035329142</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -14114,7 +14146,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-35.51160397272799,174.47841567694545</t>
+          <t>-35.51159909398951,174.4784167573915</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -14136,7 +14168,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.51157425677524,174.47842225784214</t>
+          <t>-35.511577538835716,174.47842153099705</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -14158,7 +14190,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-35.51154223450931,174.47842934949003</t>
+          <t>-35.511569466741015,174.478423318643</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -14180,7 +14212,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.51171157108503,174.47839184816868</t>
+          <t>-35.511675024900015,174.47839994170866</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -14202,7 +14234,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.51161497206562,174.47841324103032</t>
+          <t>-35.51166996875302,174.47840106144545</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -14224,7 +14256,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-35.51169666875724,174.47839514844793</t>
+          <t>-35.511737561454126,174.4783860923218</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -14246,7 +14278,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.511738625906084,174.4783858565874</t>
+          <t>-35.511693475401266,174.4783958556505</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -14268,7 +14300,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.51169028204528,174.478396562853</t>
+          <t>-35.51167662157803,174.47839958810755</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -14290,7 +14322,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.5115880946518,174.47841919330574</t>
+          <t>-35.51160219864126,174.47841606983494</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -14312,7 +14344,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.51165506642495,174.47840436172157</t>
+          <t>-35.511632801637006,174.47840929248915</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -14334,7 +14366,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-35.51170935347673,174.47839233928175</t>
+          <t>-35.51168593553299,174.47839752543408</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -14356,7 +14388,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.51155172587349,174.478427247534</t>
+          <t>-35.511568668402,174.47842349544314</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14378,7 +14410,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-35.51166801725769,174.47840149362452</t>
+          <t>-35.51162987439394,174.47840994075722</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -14400,7 +14432,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-35.511474286985106,174.47844439712452</t>
+          <t>-35.511516155433675,174.47843512495564</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -14422,7 +14454,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.51170811161609,174.47839261430505</t>
+          <t>-35.511672718587356,174.47840045246582</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -14444,7 +14476,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.51154995178673,174.478427640423</t>
+          <t>-35.51159572322474,174.4784175038814</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -14466,7 +14498,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.51155030660408,174.4784275618452</t>
+          <t>-35.511575409931616,174.47842200246416</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14488,7 +14520,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.51156423318512,174.47842447766598</t>
+          <t>-35.511577893653055,174.4784214524192</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -14510,7 +14542,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.51167883918635,174.47839909699485</t>
+          <t>-35.51167724250835,174.478399450596</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -14532,7 +14564,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-35.51172771527337,174.47838827286486</t>
+          <t>-35.51169179001894,174.47839622889626</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -14554,7 +14586,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-35.51168300829,174.47839817370294</t>
+          <t>-35.51164708303488,174.47840612972618</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -14576,7 +14608,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.5115604188986,174.4784253223776</t>
+          <t>-35.511579490331115,174.47842109881887</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -14594,7 +14626,7 @@
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.51168087938601,174.47839864517115</t>
+          <t>-35.51164388967883,174.47840683692792</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -14616,7 +14648,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-35.51158099830485,174.478420764863</t>
+          <t>-35.51163652721907,174.47840846742065</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -14638,7 +14670,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-35.51169081427128,174.47839644498592</t>
+          <t>-35.51166242888467,174.47840273122816</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -14660,7 +14692,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-35.511686822576316,174.478397328989</t>
+          <t>-35.511661275728315,174.47840298660665</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -14682,7 +14714,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.511541613578935,174.47842948700114</t>
+          <t>-35.511577538835716,174.47842153099705</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -14704,7 +14736,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.51154028301385,174.47842978166784</t>
+          <t>-35.511565386341495,174.47842422228806</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -14726,7 +14758,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.511570708601745,174.47842304362055</t>
+          <t>-35.51157780494872,174.47842147206367</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -14748,7 +14780,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.51156086242029,174.47842522415533</t>
+          <t>-35.51159847305914,174.47841689490278</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -14770,7 +14802,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-35.51167697639535,174.4783995095295</t>
+          <t>-35.51165187306893,174.47840506892345</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -14792,7 +14824,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-35.51154924215203,174.47842779757858</t>
+          <t>-35.511597231198444,174.4784171699254</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14814,7 +14846,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-35.51160281957163,174.47841593232363</t>
+          <t>-35.51159847305914,174.47841689490278</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -14836,7 +14868,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.511565297637176,174.47842424193252</t>
+          <t>-35.51157780494872,174.47842147206367</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -14858,7 +14890,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.511499479017814,174.4784388181087</t>
+          <t>-35.511542500622326,174.47842929055668</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14880,7 +14912,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-35.511684604967996,174.47839782010175</t>
+          <t>-35.5116486797129,174.47840577612527</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -14902,7 +14934,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.5117078455031,174.4783926732386</t>
+          <t>-35.51174811726946,174.47838375462194</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14920,7 +14952,7 @@
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.51165231659059,174.47840497070098</t>
+          <t>-35.511614173726606,174.47841341783064</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14942,7 +14974,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.51152520327628,174.47843312122305</t>
+          <t>-35.511548621221664,174.47842793508974</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14964,7 +14996,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.511575676044636,174.47842194353075</t>
+          <t>-35.511592618572955,174.47841819143787</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -14986,7 +15018,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.51165506642495,174.47840436172157</t>
+          <t>-35.51161914116939,174.47841231773975</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -15008,7 +15040,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.51164291393117,174.47840705301735</t>
+          <t>-35.51167724250835,174.478399450596</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -15030,7 +15062,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.51168797573265,174.4783970736103</t>
+          <t>-35.51170820032043,174.4783925946605</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -15052,7 +15084,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-35.51159288468596,174.47841813250443</t>
+          <t>-35.511653381042606,174.478404734967</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -15074,7 +15106,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-35.5115449843438,174.47842874051213</t>
+          <t>-35.51157336973187,174.47842245428677</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -15096,7 +15128,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.511582506278586,174.4784204309071</t>
+          <t>-35.51158472388699,174.47841993979546</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -15118,7 +15150,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-35.51180009800652,174.47837224291516</t>
+          <t>-35.511858376749565,174.47835933642904</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -15140,7 +15172,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.51153531557091,174.47843088175674</t>
+          <t>-35.5115637009591,174.47842459553274</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -15162,7 +15194,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-35.51166704151001,174.47840170971406</t>
+          <t>-35.51163005180262,174.47840990146827</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -15180,7 +15212,7 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-35.511506841478024,174.4784371876211</t>
+          <t>-35.51150843815615,174.47843683402132</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -15202,7 +15234,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.51162428602084,174.47841117835978</t>
+          <t>-35.511621624890786,174.47841176769427</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -15224,7 +15256,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.51187860133585,174.4783548574618</t>
+          <t>-35.51188569768186,174.47835328589383</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -15246,7 +15278,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-35.511701370086854,174.47839410728852</t>
+          <t>-35.51166544483201,174.47840206331512</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -15268,7 +15300,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-35.51166544483201,174.47840206331512</t>
+          <t>-35.51168451626365,174.47839783974626</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -15290,7 +15322,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-35.51168983852364,174.47839666107555</t>
+          <t>-35.51164681692188,174.47840618865965</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -15312,7 +15344,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-35.51160459365833,174.47841553943414</t>
+          <t>-35.511641139844464,174.47840744590718</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -15334,7 +15366,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.51174102092302,174.47838532618493</t>
+          <t>-35.511709442181065,174.4783923196372</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -15356,7 +15388,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-35.51169915247854,174.47839459840145</t>
+          <t>-35.511692588357946,174.47839605209563</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -15378,7 +15410,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-35.511710417928725,174.47839210354746</t>
+          <t>-35.51173765015845,174.47838607267727</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -15400,7 +15432,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-35.51173223919426,174.47838727099378</t>
+          <t>-35.51169853154822,174.4783947359131</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -15422,7 +15454,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-35.511627035855234,174.47841056938077</t>
+          <t>-35.511596521563746,174.47841732708116</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -15444,7 +15476,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-35.51157416807091,174.4784222774866</t>
+          <t>-35.51162322156883,174.47841141409359</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -15466,7 +15498,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-35.511624463429506,174.4784111390708</t>
+          <t>-35.511620116917086,174.47841210165043</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -15488,7 +15520,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.51160485977136,174.4784154805007</t>
+          <t>-35.51160867405779,174.47841463578825</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -15510,7 +15542,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-35.51161080296185,174.4784141643208</t>
+          <t>-35.51160423884099,174.47841561801204</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -15532,7 +15564,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-35.51165524383362,174.4784043224326</t>
+          <t>-35.511640518914135,174.4784075834186</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -15554,7 +15586,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-35.51171698204927,174.4783906498527</t>
+          <t>-35.51169303187961,174.47839595387305</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -15576,7 +15608,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-35.51160450495401,174.47841555907863</t>
+          <t>-35.51165409067729,174.47840457781106</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -15598,7 +15630,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-35.51162331027315,174.47841139444907</t>
+          <t>-35.511619495986736,174.47841223916183</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -15620,7 +15652,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-35.51153247703206,174.47843151037893</t>
+          <t>-35.51156192687235,174.47842498842186</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -15642,7 +15674,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-35.51179246943426,174.47837393234738</t>
+          <t>-35.51184152292752,174.47836306890017</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -15664,7 +15696,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-35.51165905811998,174.47840347771916</t>
+          <t>-35.5116345757237,174.4784088995994</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -15686,7 +15718,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-35.511549863082394,174.47842766006747</t>
+          <t>-35.51156724913259,174.47842380975445</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -15708,7 +15740,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-35.511734013280886,174.47838687810315</t>
+          <t>-35.511695870418244,174.47839532524858</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15730,7 +15762,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-35.51159084448622,174.47841858432722</t>
+          <t>-35.51159306209463,174.4784180932155</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -15770,7 +15802,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.51172230430917,174.47838947118115</t>
+          <t>-35.51169072556695,174.4783964646304</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -15792,7 +15824,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-35.51148759263623,174.47844145046164</t>
+          <t>-35.51153664613599,174.4784305870901</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -15814,7 +15846,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-35.51171644982328,174.47839076771987</t>
+          <t>-35.511667396327354,174.47840163113605</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -15836,7 +15868,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.51165861459832,174.47840357594166</t>
+          <t>-35.51166943652703,174.47840117931247</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -15854,7 +15886,7 @@
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.511764793683525,174.47838006144787</t>
+          <t>-35.511726650821394,174.47838850859924</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15876,7 +15908,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-35.51153141258,174.47843174611222</t>
+          <t>-35.51157824847041,174.47842137384134</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -15916,7 +15948,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-35.5115445408221,174.47842883873437</t>
+          <t>-35.5115717730538,174.47842280788706</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -15934,7 +15966,7 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-35.51160379531932,174.4784157162344</t>
+          <t>-35.5116032630933,174.47841583410127</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -15956,7 +15988,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-35.51155740295113,174.47842599028905</t>
+          <t>-35.51157372454921,174.47842237570893</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -15978,7 +16010,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-35.51145166737805,174.47844940644936</t>
+          <t>-35.51147943183688,174.4784432577483</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -16000,7 +16032,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.51168185513367,174.47839842908158</t>
+          <t>-35.511640430209795,174.47840760306312</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -16022,7 +16054,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-35.51154906474335,174.4784278368675</t>
+          <t>-35.51157576474896,174.47842192388632</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -16044,7 +16076,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-35.51162118136911,174.47841186591666</t>
+          <t>-35.51163972057511,174.47840776021903</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -16066,7 +16098,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-35.51162268934281,174.47841153196046</t>
+          <t>-35.511614528543944,174.4784133392527</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -16088,7 +16120,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-35.51164105114014,174.47840746555164</t>
+          <t>-35.511607787014434,174.47841483223303</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -16110,7 +16142,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-35.511679194003676,174.47839901841684</t>
+          <t>-35.511649744164906,174.47840554039135</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -16132,7 +16164,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-35.511632446819654,174.4784093710671</t>
+          <t>-35.511668372075015,174.47840141504653</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -16154,7 +16186,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-35.511739867766714,174.4783855815639</t>
+          <t>-35.511692499653606,174.47839607174015</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -16176,7 +16208,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-35.51169179001894,174.47839622889626</t>
+          <t>-35.5117190222489,174.47839019802862</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -16194,7 +16226,7 @@
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-35.51165657439864,174.47840402776512</t>
+          <t>-35.511694717261925,174.47839558062728</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -16216,7 +16248,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.511734456802536,174.4783867798805</t>
+          <t>-35.51174323853128,174.47838483507152</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -16238,7 +16270,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-35.51166313851934,174.47840257407216</t>
+          <t>-35.51164734914788,174.47840607079272</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -16278,7 +16310,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-35.51160823053611,174.47841473401064</t>
+          <t>-35.511664823901675,174.47840220082665</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -16300,7 +16332,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-35.51157496640994,174.47842210068646</t>
+          <t>-35.51159678767676,174.47841726814775</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -16322,7 +16354,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-35.51162233452548,174.4784116105384</t>
+          <t>-35.51160760960576,174.47841487152198</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -16344,7 +16376,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-35.51158561093036,174.4784197433508</t>
+          <t>-35.51165098602558,174.47840526536842</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -16366,7 +16398,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-35.51152564679797,174.47843302300086</t>
+          <t>-35.51156920062802,174.47842337757638</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -16388,7 +16420,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-35.51164566376553,174.4784064440381</t>
+          <t>-35.51163040661995,174.4784098228903</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -16410,7 +16442,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-35.511618963760725,174.4784123570287</t>
+          <t>-35.51166198536299,174.47840282945066</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -16432,7 +16464,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.5116889514803,174.47839685752066</t>
+          <t>-35.51165409067729,174.47840457781106</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -16454,7 +16486,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-35.5115218325114,174.47843386771171</t>
+          <t>-35.511557757768465,174.47842591171124</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -16476,7 +16508,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-35.51160734349275,174.4784149304554</t>
+          <t>-35.511632446819654,174.4784093710671</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -16498,7 +16530,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-35.51155119364746,174.4784273654007</t>
+          <t>-35.511582240165566,174.4784204898405</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -16520,7 +16552,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-35.51168699998498,174.47839728969996</t>
+          <t>-35.5117447465049,174.4783845011144</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -16542,7 +16574,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-35.51161621392633,174.4784129660076</t>
+          <t>-35.51166526742335,174.47840210260412</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -16564,7 +16596,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-35.51163351127169,174.47840913533327</t>
+          <t>-35.51162153618645,174.47841178733873</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -16586,7 +16618,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-35.51148537502771,174.47844194157219</t>
+          <t>-35.511519703607256,174.4784343391782</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -16608,7 +16640,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-35.511638301305766,174.47840807453088</t>
+          <t>-35.5116209152561,174.47841192485012</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -16630,7 +16662,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-35.51163847871444,174.4784080352419</t>
+          <t>-35.51162322156883,174.47841141409359</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -16652,7 +16684,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-35.511682476063996,174.47839829157</t>
+          <t>-35.51165036509525,174.47840540287987</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -16674,7 +16706,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-35.511687798323976,174.47839711289936</t>
+          <t>-35.51166553353635,174.47840204367063</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -16696,7 +16728,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-35.511636438514735,174.47840848706517</t>
+          <t>-35.51161089166618,174.47841414467632</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -16718,7 +16750,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-35.5117223930135,174.4783894515366</t>
+          <t>-35.51176541461385,174.47837992393605</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -16740,7 +16772,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-35.5117238122828,174.47838913722416</t>
+          <t>-35.51168513719399,174.47839770223467</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -16762,7 +16794,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-35.5117089986594,174.47839241785982</t>
+          <t>-35.5116567518073,174.47840398847612</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -16784,7 +16816,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-35.51155128235181,174.47842734575624</t>
+          <t>-35.51157682920101,174.47842168815276</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -16806,7 +16838,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-35.51170545048613,174.47839320364065</t>
+          <t>-35.51172993288165,174.47838778175162</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -16828,7 +16860,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-35.51163812389709,174.47840811381985</t>
+          <t>-35.511631027550315,174.4784096853789</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -16850,7 +16882,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-35.51160947239682,174.47841445898797</t>
+          <t>-35.5116154155873,174.4784131428079</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -16872,12 +16904,34 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-35.51175760863279,174.47838165265603</t>
+          <t>-35.51179575149442,174.47837320549868</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:12:10+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-35.511558001075834,174.47751311326823</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-35.511662517588995,174.47840271158367</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.13</v>
+        <v>355.04</v>
       </c>
       <c r="C3" t="n">
-        <v>357.12</v>
+        <v>356.15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.24</v>
+        <v>349.44</v>
       </c>
       <c r="C4" t="n">
-        <v>346.93</v>
+        <v>353.08</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.21</v>
+        <v>345.88</v>
       </c>
       <c r="C5" t="n">
-        <v>334.86</v>
+        <v>348.52</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>353.76</v>
+        <v>347.46</v>
       </c>
       <c r="C6" t="n">
-        <v>351.44</v>
+        <v>349.11</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.31</v>
+        <v>345.43</v>
       </c>
       <c r="C7" t="n">
-        <v>347.77</v>
+        <v>344.69</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>350.29</v>
+        <v>348.8</v>
       </c>
       <c r="C8" t="n">
-        <v>336.7</v>
+        <v>342.24</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>361.6</v>
+        <v>353.07</v>
       </c>
       <c r="C9" t="n">
-        <v>352.27</v>
+        <v>345.58</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350</v>
+        <v>353.96</v>
       </c>
       <c r="C10" t="n">
-        <v>344.71</v>
+        <v>344.56</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356.85</v>
+        <v>353.43</v>
       </c>
       <c r="C11" t="n">
-        <v>347.84</v>
+        <v>346.27</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>343.65</v>
+        <v>350.25</v>
       </c>
       <c r="C12" t="n">
-        <v>341.59</v>
+        <v>344.71</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352.72</v>
+        <v>351.07</v>
       </c>
       <c r="C13" t="n">
-        <v>353.65</v>
+        <v>347.69</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.63</v>
+        <v>346.46</v>
       </c>
       <c r="C14" t="n">
-        <v>336.74</v>
+        <v>344.95</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350.89</v>
+        <v>347.35</v>
       </c>
       <c r="C15" t="n">
-        <v>356.48</v>
+        <v>347.26</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.08</v>
+        <v>347.47</v>
       </c>
       <c r="C16" t="n">
-        <v>350.65</v>
+        <v>347.82</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>357.27</v>
+        <v>348.87</v>
       </c>
       <c r="C17" t="n">
-        <v>353.57</v>
+        <v>348.65</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>345.96</v>
+        <v>347.31</v>
       </c>
       <c r="C18" t="n">
-        <v>341.2</v>
+        <v>347.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>345.73</v>
+        <v>347.61</v>
       </c>
       <c r="C19" t="n">
-        <v>337.88</v>
+        <v>347.17</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>365.07</v>
+        <v>352.17</v>
       </c>
       <c r="C20" t="n">
-        <v>347.51</v>
+        <v>347.88</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>350.82</v>
+        <v>352.15</v>
       </c>
       <c r="C21" t="n">
-        <v>348.63</v>
+        <v>346.57</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.81</v>
+        <v>354.11</v>
       </c>
       <c r="C22" t="n">
-        <v>352.65</v>
+        <v>346.91</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>366.59</v>
+        <v>355.66</v>
       </c>
       <c r="C23" t="n">
-        <v>354.03</v>
+        <v>346.98</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>353.77</v>
+        <v>355.39</v>
       </c>
       <c r="C24" t="n">
-        <v>348.68</v>
+        <v>347.23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>364.62</v>
+        <v>358.06</v>
       </c>
       <c r="C25" t="n">
-        <v>348.81</v>
+        <v>348.31</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>361.08</v>
+        <v>360.25</v>
       </c>
       <c r="C26" t="n">
-        <v>343.72</v>
+        <v>349.15</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>341.51</v>
+        <v>357.9</v>
       </c>
       <c r="C27" t="n">
-        <v>339.67</v>
+        <v>347.93</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>368.43</v>
+        <v>359.33</v>
       </c>
       <c r="C28" t="n">
-        <v>355.56</v>
+        <v>348.41</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>355.73</v>
+        <v>344.49</v>
       </c>
       <c r="C30" t="n">
-        <v>349.3</v>
+        <v>335.39</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.4</v>
+        <v>346.79</v>
       </c>
       <c r="C31" t="n">
-        <v>347.14</v>
+        <v>339.31</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>331.85</v>
+        <v>343.06</v>
       </c>
       <c r="C32" t="n">
-        <v>327.73</v>
+        <v>336.42</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>355.21</v>
+        <v>345.49</v>
       </c>
       <c r="C33" t="n">
-        <v>343.26</v>
+        <v>337.78</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1041,10 +1041,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>352.32</v>
+        <v>347.69</v>
       </c>
       <c r="C34" t="n">
-        <v>352.07</v>
+        <v>342.55</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>353.86</v>
+        <v>348.93</v>
       </c>
       <c r="C35" t="n">
-        <v>347.85</v>
+        <v>343.61</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>341.99</v>
+        <v>349.39</v>
       </c>
       <c r="C36" t="n">
-        <v>340.18</v>
+        <v>346.7</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>360.78</v>
+        <v>352.24</v>
       </c>
       <c r="C37" t="n">
-        <v>355.05</v>
+        <v>348.79</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>360.16</v>
+        <v>353.82</v>
       </c>
       <c r="C38" t="n">
-        <v>350.26</v>
+        <v>349.08</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>350.63</v>
+        <v>353.39</v>
       </c>
       <c r="C39" t="n">
-        <v>357.59</v>
+        <v>350.77</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>357.62</v>
+        <v>356.14</v>
       </c>
       <c r="C40" t="n">
-        <v>349.32</v>
+        <v>352.39</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>360.08</v>
+        <v>357.12</v>
       </c>
       <c r="C41" t="n">
-        <v>355.14</v>
+        <v>353.08</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>361.04</v>
+        <v>357.91</v>
       </c>
       <c r="C42" t="n">
-        <v>354.03</v>
+        <v>353.27</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.13</v>
+        <v>358.9</v>
       </c>
       <c r="C43" t="n">
-        <v>352.17</v>
+        <v>353.65</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>349.77</v>
+        <v>357.38</v>
       </c>
       <c r="C44" t="n">
-        <v>356.88</v>
+        <v>354.19</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>359.09</v>
+        <v>358.79</v>
       </c>
       <c r="C45" t="n">
-        <v>353.74</v>
+        <v>353.55</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>350.28</v>
+        <v>357.57</v>
       </c>
       <c r="C46" t="n">
-        <v>351.25</v>
+        <v>353.22</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1274,9 +1274,11 @@
           <t>2005-07-25 22:01:13+00:00</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>357.57</v>
+      </c>
       <c r="C47" t="n">
-        <v>363.17</v>
+        <v>354.46</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1291,10 +1293,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>344.48</v>
+        <v>355.7</v>
       </c>
       <c r="C48" t="n">
-        <v>334.32</v>
+        <v>352.59</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1309,10 +1311,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>348.04</v>
+        <v>350.47</v>
       </c>
       <c r="C49" t="n">
-        <v>345.94</v>
+        <v>349.68</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1327,10 +1329,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>355.28</v>
+        <v>349.52</v>
       </c>
       <c r="C50" t="n">
-        <v>348.15</v>
+        <v>348.57</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1345,10 +1347,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>360.06</v>
+        <v>351.97</v>
       </c>
       <c r="C51" t="n">
-        <v>356.84</v>
+        <v>349.68</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1363,10 +1365,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>342.62</v>
+        <v>350.1</v>
       </c>
       <c r="C52" t="n">
-        <v>342.69</v>
+        <v>345.59</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1381,9 +1383,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>335.84</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
+        <v>348.37</v>
+      </c>
+      <c r="C53" t="n">
+        <v>348.41</v>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1397,10 +1401,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>361.49</v>
+        <v>351.06</v>
       </c>
       <c r="C54" t="n">
-        <v>358.76</v>
+        <v>351.61</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1415,10 +1419,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>361.84</v>
+        <v>352.86</v>
       </c>
       <c r="C55" t="n">
-        <v>359.83</v>
+        <v>353.25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1433,10 +1437,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>364.52</v>
+        <v>354.39</v>
       </c>
       <c r="C56" t="n">
-        <v>356.59</v>
+        <v>354.94</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1451,10 +1455,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>354.61</v>
+        <v>354.43</v>
       </c>
       <c r="C57" t="n">
-        <v>336.39</v>
+        <v>351.85</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1469,10 +1473,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>361.82</v>
+        <v>354.68</v>
       </c>
       <c r="C58" t="n">
-        <v>357.88</v>
+        <v>352.02</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1487,9 +1491,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>350.72</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>357.92</v>
+      </c>
+      <c r="C59" t="n">
+        <v>350.29</v>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1503,10 +1509,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>350.57</v>
+        <v>356.45</v>
       </c>
       <c r="C60" t="n">
-        <v>350.89</v>
+        <v>350.44</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1521,10 +1527,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>362.45</v>
+        <v>356.39</v>
       </c>
       <c r="C61" t="n">
-        <v>345.8</v>
+        <v>351.52</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1539,10 +1545,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>354.36</v>
+        <v>354.53</v>
       </c>
       <c r="C62" t="n">
-        <v>347.39</v>
+        <v>348.03</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1557,10 +1563,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>355.39</v>
+        <v>354.7</v>
       </c>
       <c r="C63" t="n">
-        <v>352.2</v>
+        <v>349.07</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1611,10 +1617,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>337.56</v>
+        <v>352.45</v>
       </c>
       <c r="C66" t="n">
-        <v>327.39</v>
+        <v>343.19</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1629,10 +1635,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>351.1</v>
+        <v>352</v>
       </c>
       <c r="C67" t="n">
-        <v>342.57</v>
+        <v>342.99</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1647,10 +1653,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>322.98</v>
+        <v>344.75</v>
       </c>
       <c r="C68" t="n">
-        <v>319.96</v>
+        <v>337.23</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1665,10 +1671,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>357.21</v>
+        <v>347.24</v>
       </c>
       <c r="C69" t="n">
-        <v>347.49</v>
+        <v>339.28</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1683,10 +1689,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>354.12</v>
+        <v>348.38</v>
       </c>
       <c r="C70" t="n">
-        <v>351.83</v>
+        <v>341.37</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1701,10 +1707,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>353.01</v>
+        <v>346</v>
       </c>
       <c r="C71" t="n">
-        <v>352.74</v>
+        <v>340.33</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1719,10 +1725,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>348.01</v>
+        <v>346.28</v>
       </c>
       <c r="C72" t="n">
-        <v>346.57</v>
+        <v>341.22</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1737,10 +1743,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>353.87</v>
+        <v>348.61</v>
       </c>
       <c r="C73" t="n">
-        <v>348.7</v>
+        <v>344.27</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1755,10 +1761,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>343.8</v>
+        <v>350.56</v>
       </c>
       <c r="C74" t="n">
-        <v>342</v>
+        <v>348.37</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1773,9 +1779,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>362.26</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>352.19</v>
+      </c>
+      <c r="C75" t="n">
+        <v>347.5</v>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1789,10 +1797,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>369.17</v>
+        <v>355.02</v>
       </c>
       <c r="C76" t="n">
-        <v>351.26</v>
+        <v>348.25</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1807,10 +1815,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>351.14</v>
+        <v>354.71</v>
       </c>
       <c r="C77" t="n">
-        <v>345.2</v>
+        <v>346.75</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1825,10 +1833,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>363.68</v>
+        <v>355.99</v>
       </c>
       <c r="C78" t="n">
-        <v>353.42</v>
+        <v>347.86</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1843,10 +1851,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>344.17</v>
+        <v>355.7</v>
       </c>
       <c r="C79" t="n">
-        <v>341.21</v>
+        <v>346.62</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1861,10 +1869,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>358.12</v>
+        <v>358.09</v>
       </c>
       <c r="C80" t="n">
-        <v>351</v>
+        <v>348.42</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1879,10 +1887,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>350.63</v>
+        <v>353.55</v>
       </c>
       <c r="C81" t="n">
-        <v>348.99</v>
+        <v>347.96</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1897,10 +1905,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>352.76</v>
+        <v>351.42</v>
       </c>
       <c r="C82" t="n">
-        <v>346.97</v>
+        <v>347.04</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1915,10 +1923,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>338.4</v>
+        <v>349.98</v>
       </c>
       <c r="C83" t="n">
-        <v>332.68</v>
+        <v>344.91</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1933,10 +1941,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>363.48</v>
+        <v>352.68</v>
       </c>
       <c r="C84" t="n">
-        <v>354.74</v>
+        <v>346.88</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1951,10 +1959,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>354.4</v>
+        <v>352.26</v>
       </c>
       <c r="C85" t="n">
-        <v>348.48</v>
+        <v>345.72</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1969,10 +1977,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>347.43</v>
+        <v>350.93</v>
       </c>
       <c r="C86" t="n">
-        <v>349.06</v>
+        <v>346.24</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1987,10 +1995,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>362.75</v>
+        <v>357.01</v>
       </c>
       <c r="C87" t="n">
-        <v>355.71</v>
+        <v>352</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2005,10 +2013,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>348.04</v>
+        <v>353.16</v>
       </c>
       <c r="C88" t="n">
-        <v>347.18</v>
+        <v>350.11</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2023,10 +2031,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>359.83</v>
+        <v>354.51</v>
       </c>
       <c r="C89" t="n">
-        <v>354.14</v>
+        <v>351.52</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2041,10 +2049,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>352.69</v>
+        <v>354.15</v>
       </c>
       <c r="C90" t="n">
-        <v>347.54</v>
+        <v>350.73</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2059,10 +2067,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>347.86</v>
+        <v>354.23</v>
       </c>
       <c r="C91" t="n">
-        <v>350.01</v>
+        <v>350.92</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2077,10 +2085,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>364.29</v>
+        <v>355.91</v>
       </c>
       <c r="C92" t="n">
-        <v>356.7</v>
+        <v>351.88</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2095,10 +2103,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>370.84</v>
+        <v>357.26</v>
       </c>
       <c r="C93" t="n">
-        <v>360.9</v>
+        <v>352.74</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2113,10 +2121,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>357.67</v>
+        <v>358.67</v>
       </c>
       <c r="C94" t="n">
-        <v>346.03</v>
+        <v>352.24</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2131,10 +2139,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>334.23</v>
+        <v>354.98</v>
       </c>
       <c r="C95" t="n">
-        <v>336.44</v>
+        <v>350.02</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2149,10 +2157,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>355.35</v>
+        <v>356.48</v>
       </c>
       <c r="C96" t="n">
-        <v>352.51</v>
+        <v>350.52</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2167,10 +2175,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>345.13</v>
+        <v>352.64</v>
       </c>
       <c r="C97" t="n">
-        <v>333.57</v>
+        <v>345.89</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2203,10 +2211,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>354.77</v>
+        <v>348.02</v>
       </c>
       <c r="C99" t="n">
-        <v>355.55</v>
+        <v>345.81</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2221,10 +2229,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>352</v>
+        <v>353.38</v>
       </c>
       <c r="C100" t="n">
-        <v>350.13</v>
+        <v>352.84</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2239,10 +2247,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>357.4</v>
+        <v>354.72</v>
       </c>
       <c r="C101" t="n">
-        <v>343.44</v>
+        <v>349.71</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2257,10 +2265,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>348.43</v>
+        <v>352.61</v>
       </c>
       <c r="C102" t="n">
-        <v>349.38</v>
+        <v>347.65</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2275,10 +2283,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>347.58</v>
+        <v>351.35</v>
       </c>
       <c r="C103" t="n">
-        <v>342.81</v>
+        <v>346.44</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2293,10 +2301,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>359.07</v>
+        <v>352.9</v>
       </c>
       <c r="C104" t="n">
-        <v>348.78</v>
+        <v>346.91</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2311,10 +2319,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>365.63</v>
+        <v>355.62</v>
       </c>
       <c r="C105" t="n">
-        <v>360.47</v>
+        <v>348.98</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2329,10 +2337,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>353.87</v>
+        <v>355.33</v>
       </c>
       <c r="C106" t="n">
-        <v>358.63</v>
+        <v>350.58</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2347,10 +2355,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>362.18</v>
+        <v>356.13</v>
       </c>
       <c r="C107" t="n">
-        <v>352.55</v>
+        <v>352.1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2365,10 +2373,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>362.94</v>
+        <v>357.1</v>
       </c>
       <c r="C108" t="n">
-        <v>358.59</v>
+        <v>353.03</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2383,10 +2391,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>350.6</v>
+        <v>356.29</v>
       </c>
       <c r="C109" t="n">
-        <v>348.75</v>
+        <v>352.5</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2401,10 +2409,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>359.8</v>
+        <v>356.68</v>
       </c>
       <c r="C110" t="n">
-        <v>350.11</v>
+        <v>352.23</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2419,10 +2427,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>352.5</v>
+        <v>356.26</v>
       </c>
       <c r="C111" t="n">
-        <v>354.03</v>
+        <v>352.41</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2437,10 +2445,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>370.63</v>
+        <v>357.57</v>
       </c>
       <c r="C112" t="n">
-        <v>358.98</v>
+        <v>353.01</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2455,10 +2463,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>342.1</v>
+        <v>356.99</v>
       </c>
       <c r="C113" t="n">
-        <v>345.39</v>
+        <v>352.64</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2473,10 +2481,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>336.27</v>
+        <v>355.96</v>
       </c>
       <c r="C114" t="n">
-        <v>332.05</v>
+        <v>351.67</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2491,10 +2499,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>356.75</v>
+        <v>354.86</v>
       </c>
       <c r="C115" t="n">
-        <v>349.28</v>
+        <v>349.97</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2509,10 +2517,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>358.89</v>
+        <v>353.44</v>
       </c>
       <c r="C116" t="n">
-        <v>349.63</v>
+        <v>348.53</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2527,10 +2535,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>343.7</v>
+        <v>352.58</v>
       </c>
       <c r="C117" t="n">
-        <v>344.99</v>
+        <v>348.06</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2545,10 +2553,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>364.38</v>
+        <v>350.35</v>
       </c>
       <c r="C118" t="n">
-        <v>358.28</v>
+        <v>346.6</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2563,10 +2571,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>341.82</v>
+        <v>349.13</v>
       </c>
       <c r="C119" t="n">
-        <v>339.33</v>
+        <v>345.56</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2581,10 +2589,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>350.71</v>
+        <v>350.36</v>
       </c>
       <c r="C120" t="n">
-        <v>349.82</v>
+        <v>346.2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2599,10 +2607,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>336.8</v>
+        <v>348.66</v>
       </c>
       <c r="C121" t="n">
-        <v>347</v>
+        <v>346.3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2617,10 +2625,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>353.35</v>
+        <v>350.8</v>
       </c>
       <c r="C122" t="n">
-        <v>346.89</v>
+        <v>348.15</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2635,10 +2643,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>359</v>
+        <v>351.71</v>
       </c>
       <c r="C123" t="n">
-        <v>349.99</v>
+        <v>348.36</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2653,10 +2661,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>345.29</v>
+        <v>351.07</v>
       </c>
       <c r="C124" t="n">
-        <v>340.74</v>
+        <v>347.59</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2671,10 +2679,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>352.99</v>
+        <v>351.24</v>
       </c>
       <c r="C125" t="n">
-        <v>357.43</v>
+        <v>348.49</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2689,10 +2697,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>371.12</v>
+        <v>352.55</v>
       </c>
       <c r="C126" t="n">
-        <v>359.24</v>
+        <v>349.39</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2707,10 +2715,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>362.16</v>
+        <v>353.35</v>
       </c>
       <c r="C127" t="n">
-        <v>348.57</v>
+        <v>349.33</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2725,10 +2733,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>355.43</v>
+        <v>353.06</v>
       </c>
       <c r="C128" t="n">
-        <v>350.58</v>
+        <v>349.4</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2743,10 +2751,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>353.12</v>
+        <v>353.85</v>
       </c>
       <c r="C129" t="n">
-        <v>338.29</v>
+        <v>348.85</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2761,10 +2769,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>365.06</v>
+        <v>354.71</v>
       </c>
       <c r="C130" t="n">
-        <v>352.34</v>
+        <v>349.12</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2779,10 +2787,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>351.71</v>
+        <v>354.73</v>
       </c>
       <c r="C131" t="n">
-        <v>348.91</v>
+        <v>349.15</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2797,10 +2805,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>344.62</v>
+        <v>353.95</v>
       </c>
       <c r="C132" t="n">
-        <v>339.72</v>
+        <v>348.42</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2815,10 +2823,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>357.76</v>
+        <v>356.21</v>
       </c>
       <c r="C133" t="n">
-        <v>347.83</v>
+        <v>348.51</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2833,10 +2841,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>345.41</v>
+        <v>355.94</v>
       </c>
       <c r="C134" t="n">
-        <v>345.52</v>
+        <v>348.84</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2851,10 +2859,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>356.69</v>
+        <v>356.01</v>
       </c>
       <c r="C135" t="n">
-        <v>351.63</v>
+        <v>349.1</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2869,10 +2877,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>353.98</v>
+        <v>353.54</v>
       </c>
       <c r="C136" t="n">
-        <v>349.96</v>
+        <v>346.77</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2887,10 +2895,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>352.6</v>
+        <v>351.82</v>
       </c>
       <c r="C137" t="n">
-        <v>350.65</v>
+        <v>347.75</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2905,10 +2913,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>348.84</v>
+        <v>351.45</v>
       </c>
       <c r="C138" t="n">
-        <v>344.34</v>
+        <v>347.32</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2923,10 +2931,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>348.79</v>
+        <v>352.01</v>
       </c>
       <c r="C139" t="n">
-        <v>349.23</v>
+        <v>348.45</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2941,10 +2949,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>362.23</v>
+        <v>353.29</v>
       </c>
       <c r="C140" t="n">
-        <v>360.98</v>
+        <v>350.02</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2959,9 +2967,11 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>363.69</v>
-      </c>
-      <c r="C141" t="inlineStr"/>
+        <v>354.03</v>
+      </c>
+      <c r="C141" t="n">
+        <v>350.33</v>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2975,10 +2985,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>341.96</v>
+        <v>353.16</v>
       </c>
       <c r="C142" t="n">
-        <v>338.56</v>
+        <v>348.95</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2993,10 +3003,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>351.76</v>
+        <v>352.98</v>
       </c>
       <c r="C143" t="n">
-        <v>353.41</v>
+        <v>349.59</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3011,10 +3021,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>357.06</v>
+        <v>353.43</v>
       </c>
       <c r="C144" t="n">
-        <v>358.23</v>
+        <v>350.67</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3029,10 +3039,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>359.36</v>
+        <v>354.03</v>
       </c>
       <c r="C145" t="n">
-        <v>354.42</v>
+        <v>351.09</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3047,10 +3057,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>359.13</v>
+        <v>354.54</v>
       </c>
       <c r="C146" t="n">
-        <v>343.93</v>
+        <v>350.42</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3065,10 +3075,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>361.51</v>
+        <v>355.18</v>
       </c>
       <c r="C147" t="n">
-        <v>352.58</v>
+        <v>350.63</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3083,10 +3093,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>368.69</v>
+        <v>356.3</v>
       </c>
       <c r="C148" t="n">
-        <v>354.07</v>
+        <v>350.95</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3101,10 +3111,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>364.75</v>
+        <v>358.08</v>
       </c>
       <c r="C149" t="n">
-        <v>360.08</v>
+        <v>352.55</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3119,10 +3129,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>361.68</v>
+        <v>358.38</v>
       </c>
       <c r="C150" t="n">
-        <v>351.95</v>
+        <v>352.49</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3137,10 +3147,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>345.56</v>
+        <v>357.4</v>
       </c>
       <c r="C151" t="n">
-        <v>338.11</v>
+        <v>351.3</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3155,10 +3165,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>342.07</v>
+        <v>356.3</v>
       </c>
       <c r="C152" t="n">
-        <v>335.68</v>
+        <v>350.09</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3173,10 +3183,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>355.16</v>
+        <v>356.23</v>
       </c>
       <c r="C153" t="n">
-        <v>352.18</v>
+        <v>350.24</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3191,10 +3201,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>364.19</v>
+        <v>357.44</v>
       </c>
       <c r="C154" t="n">
-        <v>354.49</v>
+        <v>349.51</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3209,10 +3219,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>347.83</v>
+        <v>356.01</v>
       </c>
       <c r="C155" t="n">
-        <v>352.49</v>
+        <v>353.49</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3227,10 +3237,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>360.63</v>
+        <v>357.55</v>
       </c>
       <c r="C156" t="n">
-        <v>356.36</v>
+        <v>354.45</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3245,10 +3255,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>339.69</v>
+        <v>353.08</v>
       </c>
       <c r="C157" t="n">
-        <v>345.42</v>
+        <v>352.19</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3263,10 +3273,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>339.19</v>
+        <v>350.31</v>
       </c>
       <c r="C158" t="n">
-        <v>385.48</v>
+        <v>358.85</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3281,10 +3291,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>360.77</v>
+        <v>352.05</v>
       </c>
       <c r="C159" t="n">
-        <v>360.83</v>
+        <v>359.18</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3299,10 +3309,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>372.83</v>
+        <v>355.02</v>
       </c>
       <c r="C160" t="n">
-        <v>358.54</v>
+        <v>359.09</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3317,10 +3327,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>355</v>
+        <v>355.02</v>
       </c>
       <c r="C161" t="n">
-        <v>347.77</v>
+        <v>357.67</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3335,10 +3345,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>341.18</v>
+        <v>353.48</v>
       </c>
       <c r="C162" t="n">
-        <v>344.26</v>
+        <v>356.18</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3353,10 +3363,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>356.05</v>
+        <v>353.74</v>
       </c>
       <c r="C163" t="n">
-        <v>356.77</v>
+        <v>356.24</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3371,10 +3381,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>354.1</v>
+        <v>352.73</v>
       </c>
       <c r="C164" t="n">
-        <v>346.31</v>
+        <v>355.42</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3388,9 +3398,11 @@
           <t>2016-08-16 22:11:53+00:00</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="n">
+        <v>352.73</v>
+      </c>
       <c r="C165" t="n">
-        <v>350.43</v>
+        <v>354.97</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3405,10 +3417,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>363.86</v>
+        <v>353.63</v>
       </c>
       <c r="C166" t="n">
-        <v>351.41</v>
+        <v>354.72</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3423,10 +3435,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>345.36</v>
+        <v>354.26</v>
       </c>
       <c r="C167" t="n">
-        <v>345.2</v>
+        <v>354.7</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3441,10 +3453,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>367.63</v>
+        <v>354.7</v>
       </c>
       <c r="C168" t="n">
-        <v>359.75</v>
+        <v>350.59</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3459,10 +3471,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>356.85</v>
+        <v>358.43</v>
       </c>
       <c r="C169" t="n">
-        <v>353.62</v>
+        <v>352.08</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3477,10 +3489,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>360.78</v>
+        <v>358.9</v>
       </c>
       <c r="C170" t="n">
-        <v>357.74</v>
+        <v>353.54</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3495,10 +3507,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>346.33</v>
+        <v>357.9</v>
       </c>
       <c r="C171" t="n">
-        <v>344.86</v>
+        <v>353.99</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3513,10 +3525,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>365.56</v>
+        <v>359.43</v>
       </c>
       <c r="C172" t="n">
-        <v>354.21</v>
+        <v>354.04</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3531,10 +3543,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>368.51</v>
+        <v>359.61</v>
       </c>
       <c r="C173" t="n">
-        <v>356.13</v>
+        <v>353.31</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3549,10 +3561,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>355.94</v>
+        <v>359</v>
       </c>
       <c r="C174" t="n">
-        <v>352.85</v>
+        <v>353.23</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3567,10 +3579,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>345.61</v>
+        <v>357.12</v>
       </c>
       <c r="C175" t="n">
-        <v>348.03</v>
+        <v>352.3</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3585,10 +3597,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>361.39</v>
+        <v>357.73</v>
       </c>
       <c r="C176" t="n">
-        <v>340.47</v>
+        <v>350.61</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3603,10 +3615,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>344.19</v>
+        <v>355.36</v>
       </c>
       <c r="C177" t="n">
-        <v>344.26</v>
+        <v>348.69</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3621,10 +3633,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>336.51</v>
+        <v>353</v>
       </c>
       <c r="C178" t="n">
-        <v>345.99</v>
+        <v>348.35</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3639,10 +3651,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>353.39</v>
+        <v>353.05</v>
       </c>
       <c r="C179" t="n">
-        <v>349.38</v>
+        <v>348.46</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3657,10 +3669,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>349.3</v>
+        <v>349.48</v>
       </c>
       <c r="C180" t="n">
-        <v>353.52</v>
+        <v>347.79</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3675,10 +3687,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>348.48</v>
+        <v>348.41</v>
       </c>
       <c r="C181" t="n">
-        <v>352.62</v>
+        <v>347.75</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3693,10 +3705,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>343.37</v>
+        <v>348.09</v>
       </c>
       <c r="C182" t="n">
-        <v>344.12</v>
+        <v>347.19</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3710,9 +3722,11 @@
           <t>2018-03-31 22:11:15+00:00</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>347.05</v>
+      </c>
       <c r="C183" t="n">
-        <v>359.47</v>
+        <v>352.43</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3727,10 +3741,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>361.58</v>
+        <v>350.68</v>
       </c>
       <c r="C184" t="n">
-        <v>355.31</v>
+        <v>353.01</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3745,10 +3759,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>368.56</v>
+        <v>354.26</v>
       </c>
       <c r="C185" t="n">
-        <v>364.01</v>
+        <v>354.84</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3763,10 +3777,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>364.02</v>
+        <v>355.88</v>
       </c>
       <c r="C186" t="n">
-        <v>353.3</v>
+        <v>354.62</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3781,10 +3795,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>370.52</v>
+        <v>357.98</v>
       </c>
       <c r="C187" t="n">
-        <v>356.56</v>
+        <v>354.86</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3799,10 +3813,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>369.97</v>
+        <v>359.48</v>
       </c>
       <c r="C188" t="n">
-        <v>358.99</v>
+        <v>355.32</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3817,10 +3831,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>365.17</v>
+        <v>363.31</v>
       </c>
       <c r="C189" t="n">
-        <v>359.9</v>
+        <v>356.46</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3835,10 +3849,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>354.35</v>
+        <v>364.88</v>
       </c>
       <c r="C190" t="n">
-        <v>348</v>
+        <v>356.94</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3853,10 +3867,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>358.94</v>
+        <v>364.14</v>
       </c>
       <c r="C191" t="n">
-        <v>348.57</v>
+        <v>356.01</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3871,10 +3885,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>343.96</v>
+        <v>361.9</v>
       </c>
       <c r="C192" t="n">
-        <v>340.95</v>
+        <v>354.51</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3889,10 +3903,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>352.96</v>
+        <v>361</v>
       </c>
       <c r="C193" t="n">
-        <v>345.92</v>
+        <v>353.73</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3907,10 +3921,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>352.77</v>
+        <v>360.25</v>
       </c>
       <c r="C194" t="n">
-        <v>347.82</v>
+        <v>353.23</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3925,10 +3939,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>357.09</v>
+        <v>355.03</v>
       </c>
       <c r="C195" t="n">
-        <v>356.21</v>
+        <v>349.62</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3943,10 +3957,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>358.58</v>
+        <v>353.07</v>
       </c>
       <c r="C196" t="n">
-        <v>352.76</v>
+        <v>348.73</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3961,10 +3975,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>346.49</v>
+        <v>353.58</v>
       </c>
       <c r="C197" t="n">
-        <v>346.77</v>
+        <v>349.9</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3979,10 +3993,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>373.94</v>
+        <v>359.02</v>
       </c>
       <c r="C198" t="n">
-        <v>359.99</v>
+        <v>353.93</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3997,10 +4011,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>361.71</v>
+        <v>359.56</v>
       </c>
       <c r="C199" t="n">
-        <v>353.09</v>
+        <v>353.76</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4015,10 +4029,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>377.12</v>
+        <v>362.49</v>
       </c>
       <c r="C200" t="n">
-        <v>365.91</v>
+        <v>355.79</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4033,10 +4047,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>351.51</v>
+        <v>360.92</v>
       </c>
       <c r="C201" t="n">
-        <v>348.26</v>
+        <v>354.71</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4051,10 +4065,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>365.25</v>
+        <v>361.46</v>
       </c>
       <c r="C202" t="n">
-        <v>356.94</v>
+        <v>354.99</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4069,10 +4083,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>345.74</v>
+        <v>359.71</v>
       </c>
       <c r="C203" t="n">
-        <v>359.23</v>
+        <v>355.46</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4087,10 +4101,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>361.79</v>
+        <v>360.24</v>
       </c>
       <c r="C204" t="n">
-        <v>358.95</v>
+        <v>355.77</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4105,10 +4119,10 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>344.17</v>
+        <v>358.63</v>
       </c>
       <c r="C205" t="n">
-        <v>347.75</v>
+        <v>354.96</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4123,10 +4137,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>353.15</v>
+        <v>358.13</v>
       </c>
       <c r="C206" t="n">
-        <v>346.11</v>
+        <v>354.16</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4141,10 +4155,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>353.31</v>
+        <v>358.77</v>
       </c>
       <c r="C207" t="n">
-        <v>351.15</v>
+        <v>354.74</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4159,10 +4173,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>367.55</v>
+        <v>359.57</v>
       </c>
       <c r="C208" t="n">
-        <v>358.77</v>
+        <v>355.1</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4176,9 +4190,11 @@
           <t>2019-11-21 21:54:43+00:00</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="n">
+        <v>355.31</v>
+      </c>
       <c r="C209" t="n">
-        <v>351.51</v>
+        <v>353.19</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4193,10 +4209,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>361.97</v>
+        <v>356.62</v>
       </c>
       <c r="C210" t="n">
-        <v>352.34</v>
+        <v>353.64</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4211,10 +4227,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>362</v>
+        <v>356.21</v>
       </c>
       <c r="C211" t="n">
-        <v>349.42</v>
+        <v>352.8</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4229,10 +4245,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>362.37</v>
+        <v>358.29</v>
       </c>
       <c r="C212" t="n">
-        <v>349.55</v>
+        <v>351.73</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4247,10 +4263,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>352.76</v>
+        <v>357.67</v>
       </c>
       <c r="C213" t="n">
-        <v>358.99</v>
+        <v>352.45</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4265,10 +4281,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>361.39</v>
+        <v>357.63</v>
       </c>
       <c r="C214" t="n">
-        <v>360.36</v>
+        <v>352.6</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4283,10 +4299,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>363.04</v>
+        <v>359.73</v>
       </c>
       <c r="C215" t="n">
-        <v>358.96</v>
+        <v>353.72</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4301,10 +4317,10 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>377.9</v>
+        <v>362.48</v>
       </c>
       <c r="C216" t="n">
-        <v>356.63</v>
+        <v>354.77</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4319,10 +4335,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>353.02</v>
+        <v>361.53</v>
       </c>
       <c r="C217" t="n">
-        <v>350.61</v>
+        <v>354.39</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4337,10 +4353,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>372.34</v>
+        <v>362.51</v>
       </c>
       <c r="C218" t="n">
-        <v>356.77</v>
+        <v>354.59</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4355,10 +4371,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>372.13</v>
+        <v>363.89</v>
       </c>
       <c r="C219" t="n">
-        <v>356.63</v>
+        <v>354.71</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4373,10 +4389,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>372.62</v>
+        <v>364.69</v>
       </c>
       <c r="C220" t="n">
-        <v>358.96</v>
+        <v>355.06</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4391,10 +4407,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>363.64</v>
+        <v>365.12</v>
       </c>
       <c r="C221" t="n">
-        <v>362.94</v>
+        <v>357.04</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4409,10 +4425,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>358.74</v>
+        <v>364.54</v>
       </c>
       <c r="C222" t="n">
-        <v>350.97</v>
+        <v>356.49</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4427,10 +4443,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>343.96</v>
+        <v>362.87</v>
       </c>
       <c r="C223" t="n">
-        <v>339.76</v>
+        <v>355.6</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4444,9 +4460,11 @@
           <t>2020-07-02 21:42:25+00:00</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="n">
+        <v>363.88</v>
+      </c>
       <c r="C224" t="n">
-        <v>354.86</v>
+        <v>355.22</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4461,10 +4479,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>365.56</v>
+        <v>364.03</v>
       </c>
       <c r="C225" t="n">
-        <v>362.25</v>
+        <v>355.81</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4479,10 +4497,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>369.33</v>
+        <v>364.75</v>
       </c>
       <c r="C226" t="n">
-        <v>357.29</v>
+        <v>355.55</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4497,10 +4515,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>361.9</v>
+        <v>363.48</v>
       </c>
       <c r="C227" t="n">
-        <v>354.3</v>
+        <v>355.33</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4515,10 +4533,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>344</v>
+        <v>361.32</v>
       </c>
       <c r="C228" t="n">
-        <v>347.75</v>
+        <v>354.57</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4533,10 +4551,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>345.69</v>
+        <v>356.6</v>
       </c>
       <c r="C229" t="n">
-        <v>344.26</v>
+        <v>352.71</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4551,10 +4569,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>353.36</v>
+        <v>354.83</v>
       </c>
       <c r="C230" t="n">
-        <v>350.44</v>
+        <v>351.36</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4569,10 +4587,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>350.45</v>
+        <v>351.08</v>
       </c>
       <c r="C231" t="n">
-        <v>359.46</v>
+        <v>351.24</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4587,10 +4605,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>362.45</v>
+        <v>352.97</v>
       </c>
       <c r="C232" t="n">
-        <v>358.18</v>
+        <v>352.4</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4605,10 +4623,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>336.5</v>
+        <v>348.74</v>
       </c>
       <c r="C233" t="n">
-        <v>327.33</v>
+        <v>347.9</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4623,10 +4641,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>362.47</v>
+        <v>351.82</v>
       </c>
       <c r="C234" t="n">
-        <v>360.55</v>
+        <v>350.04</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4641,10 +4659,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>363.08</v>
+        <v>353.43</v>
       </c>
       <c r="C235" t="n">
-        <v>353.07</v>
+        <v>350.47</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4658,9 +4676,11 @@
           <t>2021-05-02 21:20:50+00:00</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" t="n">
+        <v>353.43</v>
+      </c>
       <c r="C236" t="n">
-        <v>366.78</v>
+        <v>352.51</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4675,10 +4695,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>372.68</v>
+        <v>357.28</v>
       </c>
       <c r="C237" t="n">
-        <v>354.02</v>
+        <v>353.73</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4693,10 +4713,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>338.79</v>
+        <v>354.97</v>
       </c>
       <c r="C238" t="n">
-        <v>324.25</v>
+        <v>350.45</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4711,10 +4731,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>365.74</v>
+        <v>356.17</v>
       </c>
       <c r="C239" t="n">
-        <v>349.08</v>
+        <v>350.32</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4729,10 +4749,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>346.19</v>
+        <v>355.17</v>
       </c>
       <c r="C240" t="n">
-        <v>346.93</v>
+        <v>350.01</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4747,10 +4767,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>357.45</v>
+        <v>355.58</v>
       </c>
       <c r="C241" t="n">
-        <v>351.18</v>
+        <v>350.08</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4765,10 +4785,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>354.7</v>
+        <v>355.5</v>
       </c>
       <c r="C242" t="n">
-        <v>351.82</v>
+        <v>350.22</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4783,10 +4803,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>353.27</v>
+        <v>355.31</v>
       </c>
       <c r="C243" t="n">
-        <v>344.12</v>
+        <v>349.75</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4801,10 +4821,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>352.18</v>
+        <v>355.46</v>
       </c>
       <c r="C244" t="n">
-        <v>346.02</v>
+        <v>348.72</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4819,10 +4839,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>345.28</v>
+        <v>354.03</v>
       </c>
       <c r="C245" t="n">
-        <v>340.94</v>
+        <v>347.39</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4837,10 +4857,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>348.79</v>
+        <v>353.62</v>
       </c>
       <c r="C246" t="n">
-        <v>345.35</v>
+        <v>347.25</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4855,10 +4875,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>363.21</v>
+        <v>355.68</v>
       </c>
       <c r="C247" t="n">
-        <v>356.85</v>
+        <v>349.35</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4873,10 +4893,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>351.4</v>
+        <v>354.14</v>
       </c>
       <c r="C248" t="n">
-        <v>353.84</v>
+        <v>347.03</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4891,10 +4911,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>358.23</v>
+        <v>354.45</v>
       </c>
       <c r="C249" t="n">
-        <v>354.19</v>
+        <v>347.58</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4909,10 +4929,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>362.57</v>
+        <v>353.68</v>
       </c>
       <c r="C250" t="n">
-        <v>355.48</v>
+        <v>347.7</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4927,10 +4947,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>366.55</v>
+        <v>355.81</v>
       </c>
       <c r="C251" t="n">
-        <v>355.98</v>
+        <v>350.14</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4945,10 +4965,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>342.73</v>
+        <v>354.42</v>
       </c>
       <c r="C252" t="n">
-        <v>351.89</v>
+        <v>350.47</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4963,10 +4983,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>344.92</v>
+        <v>353.56</v>
       </c>
       <c r="C253" t="n">
-        <v>345.97</v>
+        <v>350.06</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4981,10 +5001,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>353.49</v>
+        <v>353.58</v>
       </c>
       <c r="C254" t="n">
-        <v>350.36</v>
+        <v>350.62</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -4999,10 +5019,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>361.69</v>
+        <v>354.44</v>
       </c>
       <c r="C255" t="n">
-        <v>354.26</v>
+        <v>351.37</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5017,10 +5037,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>351.71</v>
+        <v>355.03</v>
       </c>
       <c r="C256" t="n">
-        <v>360.75</v>
+        <v>353.17</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5035,10 +5055,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>336.98</v>
+        <v>353.52</v>
       </c>
       <c r="C257" t="n">
-        <v>329.23</v>
+        <v>351.18</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5053,10 +5073,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>364.06</v>
+        <v>354.8</v>
       </c>
       <c r="C258" t="n">
-        <v>352.56</v>
+        <v>351.78</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5071,10 +5091,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>373.79</v>
+        <v>355.1</v>
       </c>
       <c r="C259" t="n">
-        <v>360.15</v>
+        <v>351.24</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5089,10 +5109,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>345.97</v>
+        <v>352.82</v>
       </c>
       <c r="C260" t="n">
-        <v>345.65</v>
+        <v>350.09</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5107,10 +5127,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>370.06</v>
+        <v>354.54</v>
       </c>
       <c r="C261" t="n">
-        <v>357.24</v>
+        <v>350.81</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5125,9 +5145,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>372.23</v>
-      </c>
-      <c r="C262" t="inlineStr"/>
+        <v>356.15</v>
+      </c>
+      <c r="C262" t="n">
+        <v>350.81</v>
+      </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>L7</t>
@@ -5141,10 +5163,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>350.52</v>
+        <v>355.68</v>
       </c>
       <c r="C263" t="n">
-        <v>346.23</v>
+        <v>350.39</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5159,10 +5181,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>365.14</v>
+        <v>358.69</v>
       </c>
       <c r="C264" t="n">
-        <v>363.6</v>
+        <v>352</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5177,10 +5199,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>350.86</v>
+        <v>358.46</v>
       </c>
       <c r="C265" t="n">
-        <v>348.86</v>
+        <v>351.85</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5195,10 +5217,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>352.5</v>
+        <v>360.13</v>
       </c>
       <c r="C266" t="n">
-        <v>348.63</v>
+        <v>352.91</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5212,9 +5234,11 @@
           <t>2022-12-30 20:20:35+00:00</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr"/>
+      <c r="B267" t="n">
+        <v>354.75</v>
+      </c>
       <c r="C267" t="n">
-        <v>342.18</v>
+        <v>349.9</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5229,10 +5253,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>353.79</v>
+        <v>353.14</v>
       </c>
       <c r="C268" t="n">
-        <v>358.91</v>
+        <v>349.91</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5247,9 +5271,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>348.92</v>
-      </c>
-      <c r="C269" t="inlineStr"/>
+        <v>351.74</v>
+      </c>
+      <c r="C269" t="n">
+        <v>349.91</v>
+      </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>L7</t>
@@ -5263,10 +5289,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>372.77</v>
+        <v>357</v>
       </c>
       <c r="C270" t="n">
-        <v>359.64</v>
+        <v>352.34</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5280,9 +5306,11 @@
           <t>2023-03-18 20:14:51+00:00</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
+      <c r="B271" t="n">
+        <v>357</v>
+      </c>
       <c r="C271" t="n">
-        <v>356.09</v>
+        <v>353.09</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5297,10 +5325,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>365.71</v>
+        <v>358.74</v>
       </c>
       <c r="C272" t="n">
-        <v>359.42</v>
+        <v>354.14</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5315,10 +5343,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>360.55</v>
+        <v>359.04</v>
       </c>
       <c r="C273" t="n">
-        <v>370.05</v>
+        <v>356.42</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5333,10 +5361,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>360.36</v>
+        <v>360.35</v>
       </c>
       <c r="C274" t="n">
-        <v>351.9</v>
+        <v>356.88</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5351,10 +5379,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>355.33</v>
+        <v>359.63</v>
       </c>
       <c r="C275" t="n">
-        <v>359.19</v>
+        <v>357.17</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5369,10 +5397,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>351.61</v>
+        <v>358.63</v>
       </c>
       <c r="C276" t="n">
-        <v>351.98</v>
+        <v>356.6</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5387,10 +5415,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>365.01</v>
+        <v>359.34</v>
       </c>
       <c r="C277" t="n">
-        <v>354.82</v>
+        <v>356.42</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5405,10 +5433,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>364.65</v>
+        <v>359.87</v>
       </c>
       <c r="C278" t="n">
-        <v>355.58</v>
+        <v>357.76</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5423,10 +5451,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>359.12</v>
+        <v>359.8</v>
       </c>
       <c r="C279" t="n">
-        <v>350.85</v>
+        <v>357.13</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5441,10 +5469,10 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>352.3</v>
+        <v>359.67</v>
       </c>
       <c r="C280" t="n">
-        <v>348.75</v>
+        <v>356.21</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5459,10 +5487,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>342.99</v>
+        <v>359.13</v>
       </c>
       <c r="C281" t="n">
-        <v>346.03</v>
+        <v>355.36</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5477,10 +5505,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>343.17</v>
+        <v>357.8</v>
       </c>
       <c r="C282" t="n">
-        <v>343.04</v>
+        <v>354.41</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5494,9 +5522,11 @@
           <t>2023-09-15 19:51:48+00:00</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
+      <c r="B283" t="n">
+        <v>356.44</v>
+      </c>
       <c r="C283" t="n">
-        <v>345.78</v>
+        <v>353.12</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5511,10 +5541,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>344.14</v>
+        <v>354.48</v>
       </c>
       <c r="C284" t="n">
-        <v>340.31</v>
+        <v>351.52</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5529,10 +5559,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>349.81</v>
+        <v>353.5</v>
       </c>
       <c r="C285" t="n">
-        <v>351.12</v>
+        <v>349.95</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5547,9 +5577,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>367.67</v>
-      </c>
-      <c r="C286" t="inlineStr"/>
+        <v>354.68</v>
+      </c>
+      <c r="C286" t="n">
+        <v>349.95</v>
+      </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>L7</t>
@@ -5563,10 +5595,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>353.75</v>
+        <v>351.62</v>
       </c>
       <c r="C287" t="n">
-        <v>349.15</v>
+        <v>346.88</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5581,10 +5613,10 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>349.77</v>
+        <v>351.41</v>
       </c>
       <c r="C288" t="n">
-        <v>356.82</v>
+        <v>347.98</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5599,10 +5631,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>367.99</v>
+        <v>352.4</v>
       </c>
       <c r="C289" t="n">
-        <v>355.6</v>
+        <v>348.51</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5617,10 +5649,10 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>354.4</v>
+        <v>352.6</v>
       </c>
       <c r="C290" t="n">
-        <v>350.71</v>
+        <v>348.73</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5635,10 +5667,10 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>364.5</v>
+        <v>355.02</v>
       </c>
       <c r="C291" t="n">
-        <v>359.93</v>
+        <v>350.27</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5653,10 +5685,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>361.72</v>
+        <v>358.69</v>
       </c>
       <c r="C292" t="n">
-        <v>353.03</v>
+        <v>354.21</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5671,10 +5703,10 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>364.01</v>
+        <v>359.45</v>
       </c>
       <c r="C293" t="n">
-        <v>349.47</v>
+        <v>353.53</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5689,10 +5721,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>355.09</v>
+        <v>358.9</v>
       </c>
       <c r="C294" t="n">
-        <v>350.36</v>
+        <v>353.13</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5707,10 +5739,10 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>371.73</v>
+        <v>360.33</v>
       </c>
       <c r="C295" t="n">
-        <v>361.22</v>
+        <v>354.03</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5725,10 +5757,10 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>352.77</v>
+        <v>359.57</v>
       </c>
       <c r="C296" t="n">
-        <v>352.8</v>
+        <v>353.91</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5743,10 +5775,10 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>355.94</v>
+        <v>360.02</v>
       </c>
       <c r="C297" t="n">
-        <v>358.46</v>
+        <v>354.5</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5761,10 +5793,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>349.36</v>
+        <v>357.45</v>
       </c>
       <c r="C298" t="n">
-        <v>340.14</v>
+        <v>353.16</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5779,10 +5811,10 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>354.57</v>
+        <v>353.16</v>
       </c>
       <c r="C299" t="n">
-        <v>349.1</v>
+        <v>350.12</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5797,10 +5829,10 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>366.91</v>
+        <v>356.69</v>
       </c>
       <c r="C300" t="n">
-        <v>354.03</v>
+        <v>350.43</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5815,10 +5847,10 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>362.43</v>
+        <v>357.84</v>
       </c>
       <c r="C301" t="n">
-        <v>365.51</v>
+        <v>353.45</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5833,10 +5865,10 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>366.16</v>
+        <v>359.89</v>
       </c>
       <c r="C302" t="n">
-        <v>354.1</v>
+        <v>352.58</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5851,10 +5883,10 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>360.58</v>
+        <v>360</v>
       </c>
       <c r="C303" t="n">
-        <v>353.84</v>
+        <v>352.79</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5869,10 +5901,10 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>363.5</v>
+        <v>360.5</v>
       </c>
       <c r="C304" t="n">
-        <v>350.78</v>
+        <v>352.5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5887,10 +5919,10 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>346.74</v>
+        <v>358.78</v>
       </c>
       <c r="C305" t="n">
-        <v>349.07</v>
+        <v>352.07</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5905,10 +5937,10 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>362.94</v>
+        <v>360.48</v>
       </c>
       <c r="C306" t="n">
-        <v>355.23</v>
+        <v>353.96</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5923,10 +5955,10 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>349.75</v>
+        <v>359.29</v>
       </c>
       <c r="C307" t="n">
-        <v>337.81</v>
+        <v>352.16</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5941,10 +5973,10 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>336.01</v>
+        <v>357.22</v>
       </c>
       <c r="C308" t="n">
-        <v>346.86</v>
+        <v>351.91</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5959,10 +5991,10 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>362.73</v>
+        <v>357.78</v>
       </c>
       <c r="C309" t="n">
-        <v>350.06</v>
+        <v>351.73</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -5977,10 +6009,10 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>354.48</v>
+        <v>356.53</v>
       </c>
       <c r="C310" t="n">
-        <v>359.07</v>
+        <v>352.23</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -5995,10 +6027,10 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>353.21</v>
+        <v>355.61</v>
       </c>
       <c r="C311" t="n">
-        <v>341.81</v>
+        <v>349.86</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6013,10 +6045,10 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>344.26</v>
+        <v>354.58</v>
       </c>
       <c r="C312" t="n">
-        <v>352.96</v>
+        <v>350.14</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6031,10 +6063,10 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>349.24</v>
+        <v>353.04</v>
       </c>
       <c r="C313" t="n">
-        <v>354.72</v>
+        <v>350.2</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6049,10 +6081,10 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>336.17</v>
+        <v>350.82</v>
       </c>
       <c r="C314" t="n">
-        <v>334.39</v>
+        <v>348.43</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6067,10 +6099,10 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>345.74</v>
+        <v>349.45</v>
       </c>
       <c r="C315" t="n">
-        <v>349.41</v>
+        <v>348.23</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -9920,28 +9952,28 @@
         <v>0.0901</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2268500516344291</v>
+        <v>0.2711683386365084</v>
       </c>
       <c r="J2" t="n">
         <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02935384459615786</v>
+        <v>0.1926312168950682</v>
       </c>
       <c r="M2" t="n">
-        <v>7.709777833466501</v>
+        <v>3.119128392591099</v>
       </c>
       <c r="N2" t="n">
-        <v>87.90836691264406</v>
+        <v>15.84690401239539</v>
       </c>
       <c r="O2" t="n">
-        <v>9.375946187593232</v>
+        <v>3.980817003128302</v>
       </c>
       <c r="P2" t="n">
-        <v>351.5566040403526</v>
+        <v>350.7397497598087</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10002,28 +10034,28 @@
         <v>0.1201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2317275765941713</v>
+        <v>0.2672994673380433</v>
       </c>
       <c r="J3" t="n">
         <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04352184445992013</v>
+        <v>0.2003551762322392</v>
       </c>
       <c r="M3" t="n">
-        <v>5.823232702038234</v>
+        <v>2.825793644749384</v>
       </c>
       <c r="N3" t="n">
-        <v>60.62853902094799</v>
+        <v>14.66269940563517</v>
       </c>
       <c r="O3" t="n">
-        <v>7.786433010111112</v>
+        <v>3.829190437368605</v>
       </c>
       <c r="P3" t="n">
-        <v>346.8256528103524</v>
+        <v>346.381033605586</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10121,12 +10153,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-35.511519059903634,174.47752173747273</t>
+          <t>-35.511475506108866,174.47753138321397</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-35.51159412654667,174.47841785748187</t>
+          <t>-35.51160273086728,174.4784159519681</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -10143,12 +10175,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.51162452927285,174.47749837941595</t>
+          <t>-35.51152518049794,174.47752038196046</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.51168451626365,174.47839783974626</t>
+          <t>-35.511629963098294,174.47840992111273</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -10165,12 +10197,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.51165140666391,174.47749242693325</t>
+          <t>-35.51155675921615,174.47751338829994</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-35.51179158239097,174.47837412879298</t>
+          <t>-35.51167041227468,174.47840096322295</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -10187,12 +10219,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-35.511486860255026,174.47752886864282</t>
+          <t>-35.51154274394238,174.47751649222855</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.51164451060919,174.4784066994165</t>
+          <t>-35.511665178719014,174.4784021222486</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -10209,12 +10241,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.51154407450635,174.4775161975518</t>
+          <t>-35.51156075090801,174.47751250426944</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.51167706509968,174.478399489885</t>
+          <t>-35.51170438603414,174.47839343937488</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -10231,12 +10263,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.51151764063537,174.47752205179438</t>
+          <t>-35.511530857570904,174.47751912467353</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.51177526079443,174.4783777433911</t>
+          <t>-35.511726118595405,174.47838862646643</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -10253,12 +10285,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-35.51141731610889,174.47754427038078</t>
+          <t>-35.51149298084942,174.47752751313155</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-35.51163714814942,174.47840832990926</t>
+          <t>-35.511696491348566,174.47839518773696</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -10275,12 +10307,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-35.51152021305907,174.47752148208636</t>
+          <t>-35.5114850861697,174.47752926154462</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-35.511704208625474,174.47839347866392</t>
+          <t>-35.51170553919045,174.47839318399613</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10297,12 +10329,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-35.51145945063645,174.47753493897358</t>
+          <t>-35.51148978749583,174.47752822035486</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.51167644416935,174.47839962739656</t>
+          <t>-35.51169037074962,174.47839654320848</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10319,12 +10351,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-35.51157654026694,174.477509007437</t>
+          <t>-35.51151799545243,174.47752197321395</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.511731884376935,174.47838734957193</t>
+          <t>-35.511704208625474,174.47839347866392</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10341,12 +10373,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-35.511496085498756,174.4775268255533</t>
+          <t>-35.51151072170265,174.4775235841123</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-35.5116249069512,174.47841104084839</t>
+          <t>-35.51167777473435,174.47839933272894</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -10363,12 +10395,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.511674292362954,174.47748735847978</t>
+          <t>-35.51155161436882,174.47751452771686</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.5117749059771,174.4783778219693</t>
+          <t>-35.51170207972151,174.47839395013239</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10385,12 +10417,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.51151231837944,174.4775232305005</t>
+          <t>-35.51154371968929,174.47751627613226</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-35.5115998036242,174.4784166002357</t>
+          <t>-35.511681589020675,174.47839848801507</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -10407,12 +10439,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-35.511537244277974,174.47751771022556</t>
+          <t>-35.51154265523812,174.47751651187366</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.5116515182516,174.47840514750143</t>
+          <t>-35.51167662157803,174.47839958810755</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10429,12 +10461,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.51145572505721,174.4775357640668</t>
+          <t>-35.51153023664104,174.4775192621893</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.51162561658587,174.4784108836925</t>
+          <t>-35.51166925911835,174.47840121860148</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10451,12 +10483,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.511556049582026,174.4775135454609</t>
+          <t>-35.51154407450635,174.4775161975518</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-35.51173534384584,174.47838658343517</t>
+          <t>-35.51167768603002,174.47839935237346</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10473,12 +10505,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.5115580897801,174.47751309362312</t>
+          <t>-35.511541413378424,174.47751678690526</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.511764793683525,174.47838006144787</t>
+          <t>-35.51168238735967,174.47839831121448</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10495,12 +10527,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.51138653572719,174.4775510872136</t>
+          <t>-35.5115009642334,174.4775257450731</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-35.511679371412356,174.47839897912783</t>
+          <t>-35.51167608935203,174.4783997059746</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -10517,12 +10549,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-35.5115129393093,174.4775230929848</t>
+          <t>-35.51150114164193,174.47752570578288</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-35.51166943652703,174.47840117931247</t>
+          <t>-35.51168770961965,174.47839713254385</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -10539,12 +10571,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-35.51143319417305,174.4775407539147</t>
+          <t>-35.51148375560569,174.47752955622093</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-35.51163377738469,174.4784090763998</t>
+          <t>-35.51168469367233,174.47839780045723</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -10561,12 +10593,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-35.51137305267803,174.4775540732599</t>
+          <t>-35.5114700064443,174.47753260120913</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.51162153618645,174.47841178733873</t>
+          <t>-35.511684072742,174.47839793796882</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10583,12 +10615,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.51148677155078,174.4775288882879</t>
+          <t>-35.5114724014595,174.47753207079188</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.51166899300535,174.478401277535</t>
+          <t>-35.51168185513367,174.47839842908158</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10605,12 +10637,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.51139052741936,174.47755020318658</t>
+          <t>-35.51144871742003,174.47753731602765</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.51166783984901,174.47840153291355</t>
+          <t>-35.51167227506569,174.47840055068832</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10627,12 +10659,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-35.51142192873088,174.4775432488377</t>
+          <t>-35.511429291185216,174.47754161829755</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.51171299035435,174.47839153385632</t>
+          <t>-35.511664823901675,174.47840220082665</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -10649,12 +10681,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-35.511595522979185,174.47750480337828</t>
+          <t>-35.51145013668831,174.47753700170648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.511748915608436,174.47838357782106</t>
+          <t>-35.51167564583035,174.47839980419712</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10671,12 +10703,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-35.511356731092086,174.4775576879463</t>
+          <t>-35.51143745197794,174.47753981095153</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.5116079644231,174.47841479294405</t>
+          <t>-35.51167138802236,174.47840074713338</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -10715,12 +10747,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.511469385514424,174.47753273872468</t>
+          <t>-35.51156908910881,174.47751065762773</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.51166349333667,174.47840249549415</t>
+          <t>-35.51178688106154,174.47837516995452</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -10737,12 +10769,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35.51150779446189,174.4775242324006</t>
+          <t>-35.511548687128105,174.47751517600577</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.51168265347267,174.47839825228098</t>
+          <t>-35.51175210896433,174.47838287061762</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -10759,12 +10791,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.51168121129519,174.4774858261561</t>
+          <t>-35.51158177381846,174.47750784837427</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-35.5118548285765,174.47836012221254</t>
+          <t>-35.51177774451564,174.47837719334365</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -10781,12 +10813,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.511473998136324,174.4775317171804</t>
+          <t>-35.51156021868244,174.47751262214018</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.51171707075361,174.4783906302082</t>
+          <t>-35.51176568072682,174.47837986500238</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -10803,12 +10835,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-35.511499633669416,174.47752603974953</t>
+          <t>-35.511540703744295,174.47751694406617</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-35.511638922236095,174.47840793701945</t>
+          <t>-35.51172336876114,174.4783892354468</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -10825,12 +10857,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-35.51148597321237,174.47752906509373</t>
+          <t>-35.51152970441545,174.47751938005996</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.51167635546501,174.47839964704107</t>
+          <t>-35.51171396610199,174.47839131776655</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -10847,12 +10879,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.51159126517459,174.4775057463449</t>
+          <t>-35.511525624019264,174.47752028373492</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.511744391687586,174.47838457969254</t>
+          <t>-35.51168655646331,174.47839738792248</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -10869,12 +10901,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.51142458985896,174.47754265948586</t>
+          <t>-35.51150034330353,174.47752588258876</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.511612488344234,174.47841379107572</t>
+          <t>-35.51166801725769,174.47840149362452</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -10891,12 +10923,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-35.51143008952364,174.47754144149195</t>
+          <t>-35.51148632802944,174.47752898651336</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-35.51165497772061,174.47840438136606</t>
+          <t>-35.51166544483201,174.47840206331512</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -10913,12 +10945,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-35.51151462469034,174.47752271972786</t>
+          <t>-35.5114901423129,174.47752814177448</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.511589957442865,174.4784187807719</t>
+          <t>-35.511650453799575,174.47840538323538</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10935,12 +10967,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.51145262040783,174.47753645164443</t>
+          <t>-35.51146574863946,174.477533544173</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-35.511663315928,174.47840253478316</t>
+          <t>-35.5116360836974,174.4784085656431</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10957,12 +10989,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-35.51143079915779,174.47754128433144</t>
+          <t>-35.51145705562122,174.47753546939066</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-35.51161169000521,174.47841396787604</t>
+          <t>-35.511629963098294,174.47840992111273</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10979,12 +11011,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.511422283547965,174.47754317025746</t>
+          <t>-35.51145004798404,174.47753702135157</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.51162153618645,174.47841178733873</t>
+          <t>-35.51162827771593,174.47841029435799</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -11001,12 +11033,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-35.51138600350158,174.47755120508387</t>
+          <t>-35.511441266261485,174.4775389662136</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-35.51163803519276,174.47840813346434</t>
+          <t>-35.5116249069512,174.47841104084839</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -11023,12 +11055,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.51152225325718,174.47752103024894</t>
+          <t>-35.51145474931026,174.47753598016263</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.51159625545074,174.47841738601457</t>
+          <t>-35.511620116917086,174.47841210165043</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -11045,12 +11077,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-35.51143958088039,174.4775393394699</t>
+          <t>-35.51144224200845,174.47753875011782</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-35.511624108612175,174.47841121764873</t>
+          <t>-35.511625793994526,174.47841084440353</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -11067,12 +11099,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-35.51151772933964,174.47752203214927</t>
+          <t>-35.51145306392916,174.47753635341905</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.51164619599154,174.47840632617113</t>
+          <t>-35.5116287212376,174.47841019613554</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -11087,10 +11119,14 @@
           <t>2005-07-25 22:01:13+00:00</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>-35.51145306392916,174.47753635341905</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-35.51154046042254,174.47842974237895</t>
+          <t>-35.51161772190003,174.47841263205146</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -11107,12 +11143,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.51156917781308,174.47751063798262</t>
+          <t>-35.51146965162723,174.47753267978945</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35.51179637242472,174.47837306798675</t>
+          <t>-35.51163430961069,174.47840895853287</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -11129,12 +11165,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-35.51153759909503,174.47751763164513</t>
+          <t>-35.51151604395859,174.47752240540623</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.51169329799259,174.47839589493952</t>
+          <t>-35.51166012257198,174.47840324198515</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -11151,12 +11187,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-35.51147337720645,174.47753185469597</t>
+          <t>-35.51152447086381,174.4775205391213</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-35.51167369433503,174.47840023637625</t>
+          <t>-35.51166996875302,174.47840106144545</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -11173,12 +11209,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-35.51143097656633,174.47754124504132</t>
+          <t>-35.51150273831872,174.47752535217117</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.511596610268086,174.4784173074367</t>
+          <t>-35.51166012257198,174.47840324198515</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -11195,12 +11231,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.51158567680603,174.4775069839884</t>
+          <t>-35.511519326016426,174.4775216785374</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-35.51172212690051,174.4783895104702</t>
+          <t>-35.51169640264423,174.47839520738148</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -11217,10 +11253,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-35.5116458182955,174.47749366457847</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>-35.5115346718543,174.4775182799338</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-35.51167138802236,174.47840074713338</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>L5</t>
@@ -11235,12 +11275,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.51141829185584,174.47754405428515</t>
+          <t>-35.51151081040693,174.4775235644672</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.511579579035455,174.4784210791744</t>
+          <t>-35.511643002635495,174.47840703337283</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -11257,12 +11297,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-35.51141518720641,174.47754474186215</t>
+          <t>-35.511494843639014,174.4775271005846</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.51157008767139,174.47842318113177</t>
+          <t>-35.511628455124594,174.478410255069</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -11279,12 +11319,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-35.51139141446207,174.4775500067361</t>
+          <t>-35.511481271886225,174.47753010628338</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-35.51159882787649,174.4784168163249</t>
+          <t>-35.511613464091916,174.47841357498646</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -11301,12 +11341,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-35.51147932039235,174.4775305384753</t>
+          <t>-35.51148091706915,174.47753018486372</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-35.511778010628625,174.47837713440998</t>
+          <t>-35.511640873731466,174.47840750484065</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -11323,12 +11363,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-35.51141536461494,174.47754470257206</t>
+          <t>-35.51147869946247,174.47753067599092</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-35.511587385017094,174.47841935046148</t>
+          <t>-35.51163936575777,174.478407838797</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -11345,10 +11385,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.51151382635196,174.47752289653377</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>-35.51144995927978,174.47753704099662</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>-35.51165471160762,174.47840444029956</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>L5</t>
@@ -11363,12 +11407,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-35.51151515691594,174.47752260185723</t>
+          <t>-35.511462998807175,174.4775341531705</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-35.51164938934756,174.47840561896933</t>
+          <t>-35.511653381042606,174.478404734967</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11385,12 +11429,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-35.51140977624596,174.47754594021058</t>
+          <t>-35.511463531032774,174.47753403529998</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.51169453985325,174.4783956199163</t>
+          <t>-35.5116438009745,174.47840685657243</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11407,12 +11451,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.511481537999025,174.47753004734813</t>
+          <t>-35.51148003002649,174.4775303813146</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-35.51168043586434,174.4783987433937</t>
+          <t>-35.51167475878702,174.47840000064218</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11429,12 +11473,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-35.5114724014595,174.47753207079188</t>
+          <t>-35.51147852205395,174.47753071528106</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-35.511637769079755,174.4784081923978</t>
+          <t>-35.51166553353635,174.47840204367063</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11495,12 +11539,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.51163056116262,174.47749704354555</t>
+          <t>-35.51149848051394,174.47752629513576</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-35.5118578445236,174.47835945429654</t>
+          <t>-35.51171769168392,174.47839049269652</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11517,12 +11561,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.51151045558986,174.47752364304762</t>
+          <t>-35.51150247220592,174.47752541110646</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.51172319135248,174.47838927473586</t>
+          <t>-35.51171946577055,174.47839009980598</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11539,12 +11583,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.51175989197178,174.47746840086864</t>
+          <t>-35.51156678279796,174.477511168401</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.511923751837024,174.4783448583564</t>
+          <t>-35.511770559464956,174.47837878455226</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11561,12 +11605,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.51145625728281,174.47753564619634</t>
+          <t>-35.51154469543621,174.477516060036</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-35.511679548821014,174.47839893983877</t>
+          <t>-35.511752375077315,174.478382811684</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -11583,12 +11627,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.51148366690143,174.47752957586601</t>
+          <t>-35.51153458315003,174.47751829957892</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.51164105114014,174.47840746555164</t>
+          <t>-35.51173383587223,174.4783869173922</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11605,12 +11649,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.51149351307502,174.477527395261</t>
+          <t>-35.51155569476497,174.47751362404136</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.51163297904568,174.4784092532002</t>
+          <t>-35.51174306112262,174.4783848743606</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -11627,12 +11671,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-35.51153786520782,174.4775175727098</t>
+          <t>-35.511553211045594,174.47751417410473</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-35.51168770961965,174.47839713254385</t>
+          <t>-35.51173516643718,174.47838662272423</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -11649,12 +11693,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.511485884508105,174.47752908473882</t>
+          <t>-35.51153254295194,174.47751875141645</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.511668815596686,174.478401316824</t>
+          <t>-35.51170811161609,174.47839261430505</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -11671,12 +11715,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-35.51157520970299,174.47750930211393</t>
+          <t>-35.5115152456202,174.47752258221215</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.511728247499356,174.4783881549977</t>
+          <t>-35.511671742839695,174.47840066855537</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -11693,10 +11737,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-35.511411461627084,174.47754556695452</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>-35.51150078682486,174.47752578436328</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-35.51167946011667,174.4783989594833</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11711,12 +11759,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-35.51135016697597,174.4775591416785</t>
+          <t>-35.5114756835174,174.4775313439238</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-35.5116461072872,174.47840634581559</t>
+          <t>-35.51167280729169,174.4784004328213</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -11733,12 +11781,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-35.511510100772796,174.477523721628</t>
+          <t>-35.51147843334969,174.47753073492615</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-35.5116998621132,174.47839444124534</t>
+          <t>-35.511686112941646,174.47839748614507</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -11755,12 +11803,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-35.51139886562077,174.47754835655203</t>
+          <t>-35.51146707920348,174.47753324949682</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-35.5116269471509,174.47841058902526</t>
+          <t>-35.511676266760695,174.47839966668556</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -11777,12 +11825,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.51157192764523,174.47751002898366</t>
+          <t>-35.51146965162723,174.47753267978945</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-35.5117352551415,174.47838660307968</t>
+          <t>-35.51168726609799,174.4783972307664</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -11799,12 +11847,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.51144818519442,174.47753743389808</t>
+          <t>-35.511448451307224,174.47753737496285</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.51164841359989,174.47840583505877</t>
+          <t>-35.51167129931802,174.4784007667779</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -11821,12 +11869,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-35.51151462469034,174.47752271972786</t>
+          <t>-35.51148872304463,174.47752845609594</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.51166624317101,174.4784018865146</t>
+          <t>-35.51167537971736,174.47839986313062</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -11843,12 +11891,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.511495730681695,174.4775269041337</t>
+          <t>-35.511507617053354,174.47752427169078</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-35.51168416144633,174.4783979183243</t>
+          <t>-35.511683540515996,174.47839805583587</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -11865,12 +11913,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-35.51162311000467,174.47749869373837</t>
+          <t>-35.511520390467616,174.47752144279613</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-35.511810919934554,174.47836984627824</t>
+          <t>-35.51170243453883,174.47839387155432</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -11887,12 +11935,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-35.511400639706174,174.47754796365103</t>
+          <t>-35.511496440315824,174.47752674697293</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-35.51161523817864,174.4784131820969</t>
+          <t>-35.51168495978534,174.4783977415237</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -11909,12 +11957,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-35.51148118318196,174.47753012592847</t>
+          <t>-35.511500165895,174.47752592187896</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-35.51167076709202,174.4784008846449</t>
+          <t>-35.511695249487914,174.4783954627602</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -11931,12 +11979,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-35.51154301005518,174.47751643329318</t>
+          <t>-35.511511963562384,174.4775233090809</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-35.51166562224068,174.4784020240261</t>
+          <t>-35.51169063686261,174.47839648427492</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11953,12 +12001,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-35.511407115117876,174.4775465295622</t>
+          <t>-35.51145803136817,174.47753525329483</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-35.511606633858065,174.4784150876112</t>
+          <t>-35.511639543166446,174.478407799508</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -11975,12 +12023,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.51153759909503,174.47751763164513</t>
+          <t>-35.51149218251103,174.4775276899374</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.51168229865533,174.47839833085902</t>
+          <t>-35.51165630828564,174.47840408669862</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -11997,12 +12045,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.51143301676451,174.4775407932048</t>
+          <t>-35.51148020743502,174.47753034202444</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-35.51162056043875,174.47841200342805</t>
+          <t>-35.5116438009745,174.47840685657243</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -12019,12 +12067,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-35.51149635161156,174.477526766618</t>
+          <t>-35.51148340078862,174.4775296348013</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-35.51167910529934,174.47839903806133</t>
+          <t>-35.51165080861691,174.4784053046574</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -12041,12 +12089,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-35.511539195771796,174.47751727803308</t>
+          <t>-35.511482691154484,174.47752979196198</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.511657195328965,174.47840389025362</t>
+          <t>-35.51164912323456,174.4784056779028</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -12063,12 +12111,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-35.511393454660286,174.4775495549</t>
+          <t>-35.511467788837614,174.47753309233616</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.5115978521288,174.4784170324141</t>
+          <t>-35.51164060761847,174.47840756377414</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -12085,12 +12133,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.5113353533625,174.47756242239765</t>
+          <t>-35.511455813761465,174.47753574442174</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.511560596307284,174.4784252830887</t>
+          <t>-35.51163297904568,174.4784092532002</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -12107,12 +12155,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-35.51145217688647,174.47753654986977</t>
+          <t>-35.51144330645967,174.477538514377</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.511692499653606,174.47839607174015</t>
+          <t>-35.51163741426242,174.47840827097576</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -12129,12 +12177,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-35.511660099681414,174.47749050170705</t>
+          <t>-35.51147603833447,174.47753126534346</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-35.51177756710698,174.47837723263274</t>
+          <t>-35.51165710662464,174.47840390989813</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -12151,12 +12199,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-35.511472756276575,174.47753199221157</t>
+          <t>-35.51146273269436,174.4775342121057</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35.51163501924537,174.47840880137696</t>
+          <t>-35.51165267140794,174.478404892123</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -12173,12 +12221,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-35.51156341203592,174.47751191491577</t>
+          <t>-35.51149679513288,174.47752666839256</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-35.51180302524935,174.47837159464459</t>
+          <t>-35.511693741514264,174.47839579671694</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -12217,12 +12265,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.51147790112407,174.47753085279666</t>
+          <t>-35.51153777650355,174.4775175923549</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.51160805312744,174.4784147732996</t>
+          <t>-35.51169445114893,174.47839563956083</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -12239,12 +12287,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-35.51150247220592,174.47752541110646</t>
+          <t>-35.511490231017156,174.4775281221294</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.51165613087696,174.47840412598762</t>
+          <t>-35.511632092002316,174.47840944964508</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -12261,12 +12309,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-35.51145457190172,174.47753601945277</t>
+          <t>-35.51147834464542,174.47753075457123</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-35.51171547407563,174.47839098380965</t>
+          <t>-35.51165985645899,174.47840330091867</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -12283,12 +12331,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-35.51153413962871,174.47751839780446</t>
+          <t>-35.51149706124568,174.47752660945727</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-35.51166278370201,174.47840265265015</t>
+          <t>-35.51167812955168,174.47839925415093</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -12305,12 +12353,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-35.51154167949121,174.47751672796988</t>
+          <t>-35.51150823798322,174.4775241341751</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.51172106244852,174.47838974620453</t>
+          <t>-35.51168886277597,174.47839687716518</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -12327,12 +12375,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-35.51143975828893,174.47753930017976</t>
+          <t>-35.51149448882195,174.47752717916498</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.51166810596202,174.47840147398006</t>
+          <t>-35.51168469367233,174.47839780045723</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -12349,12 +12397,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-35.51138156828803,174.47755218733604</t>
+          <t>-35.51147036126136,174.4775325226288</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-35.51156441059379,174.4784244383771</t>
+          <t>-35.511666331875354,174.47840186687012</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -12371,12 +12419,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.511485884508105,174.47752908473882</t>
+          <t>-35.51147293368511,174.4775319529214</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-35.51158073219184,174.47842082379637</t>
+          <t>-35.511652139181926,174.47840500998996</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -12393,12 +12441,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-35.51141217126124,174.4775454097941</t>
+          <t>-35.51146583734372,174.47753352452793</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-35.51163466442804,174.47840887995494</t>
+          <t>-35.51163865612311,174.47840799595292</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12415,12 +12463,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-35.511405429736755,174.47754690281823</t>
+          <t>-35.51145723302975,174.47753543010052</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-35.51158108700919,174.47842074521853</t>
+          <t>-35.51163040661995,174.4784098228903</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -12437,12 +12485,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-35.51151489080315,174.47752266079257</t>
+          <t>-35.51146441807545,174.4775338388492</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.511668372075015,174.47840141504653</t>
+          <t>-35.51163510794971,174.47840878173247</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -12459,12 +12507,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-35.51143328287731,174.47754073426964</t>
+          <t>-35.511460958609,174.4775346050073</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-35.51165630828564,174.47840408669862</t>
+          <t>-35.51163750296674,174.47840825133127</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -12481,12 +12529,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-35.51149803699262,174.47752639336125</t>
+          <t>-35.51146468418825,174.47753377991395</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-35.51162153618645,174.47841178733873</t>
+          <t>-35.511635906288724,174.4784086049321</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12503,12 +12551,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.51133721615223,174.47756200985216</t>
+          <t>-35.51145306392916,174.47753635341905</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-35.51157762754005,174.47842151135262</t>
+          <t>-35.51163058402863,174.47840978360134</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -12525,12 +12573,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.5115902894277,174.4775059624414</t>
+          <t>-35.5114582087767,174.4775352140047</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.51169817673089,174.47839481449114</t>
+          <t>-35.511633866089035,174.4784090567553</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12547,12 +12595,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-35.51164200401229,174.47749450932037</t>
+          <t>-35.51146734531628,174.47753319056156</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.51181650830722,174.47836860867042</t>
+          <t>-35.51164247040949,174.4784071512398</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -12569,12 +12617,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-35.51146033767913,174.4775347425228</t>
+          <t>-35.511477102785676,174.47753102960243</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.511663670745335,174.47840245620515</t>
+          <t>-35.5116575501463,174.47840381167563</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -12591,12 +12639,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-35.51144135496576,174.4775389465685</t>
+          <t>-35.511489698791564,174.47752823999997</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-35.51166056609366,174.47840314376265</t>
+          <t>-35.51167032357035,174.47840098286744</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -12613,12 +12661,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.51157609674562,174.47750910566262</t>
+          <t>-35.51149732735849,174.477526550522</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-35.51170172490417,174.47839402871045</t>
+          <t>-35.511674492674025,174.4784000595757</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -12635,12 +12683,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-35.51139265632185,174.47754973170544</t>
+          <t>-35.51151710840978,174.477522169665</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.511583836843634,174.47842013624012</t>
+          <t>-35.511687443506645,174.4783971914774</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -12657,12 +12705,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.51159277314705,174.47750541237755</t>
+          <t>-35.51152793033015,174.4775197729621</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-35.51175193155567,174.4783829099067</t>
+          <t>-35.51169666875724,174.47839514844793</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -12679,12 +12727,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-35.51151391505622,174.47752287688868</t>
+          <t>-35.511517019705515,174.4775221893101</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-35.51165888071131,174.47840351700816</t>
+          <t>-35.51169099167995,174.47839640569688</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -12701,12 +12749,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-35.51163730268647,174.47749555051374</t>
+          <t>-35.511532099430624,174.477518849642</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.51168389533333,174.47839797725783</t>
+          <t>-35.51169010463663,174.478396602142</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -12723,12 +12771,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.511490497129955,174.47752806319411</t>
+          <t>-35.51151311671783,174.4775230536946</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-35.51168487108099,174.47839776116822</t>
+          <t>-35.51167369433503,174.47840023637625</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -12745,12 +12793,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.511440379218804,174.47753916266427</t>
+          <t>-35.51150504462963,174.47752484139863</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.51165737273763,174.47840385096464</t>
+          <t>-35.51167183154402,174.47840064891085</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12767,12 +12815,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-35.51156199276772,174.47751222923773</t>
+          <t>-35.51151072170265,174.4775235841123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-35.511739424245064,174.47838567978658</t>
+          <t>-35.51167866177769,174.47839913628385</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -12789,12 +12837,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.511493690483555,174.4775273559708</t>
+          <t>-35.511509213730136,174.47752391807902</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-35.511591376712246,174.47841846646043</t>
+          <t>-35.51167067838769,174.47840090428943</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -12811,12 +12859,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-35.511332869642864,174.47756297245823</t>
+          <t>-35.51149759347128,174.4775264915867</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-35.51157532122728,174.47842202210862</t>
+          <t>-35.51166269499767,174.47840267229466</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -12833,12 +12881,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-35.511412348669786,174.47754537050398</t>
+          <t>-35.511490497129955,174.47752806319411</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.51166996875302,174.47840106144545</t>
+          <t>-35.51166322722367,174.47840255442765</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -12855,12 +12903,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.511472046642446,174.47753214937222</t>
+          <t>-35.511493069553694,174.47752749348646</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.511652139181926,174.47840500998996</t>
+          <t>-35.51166260629333,174.47840269193915</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12877,12 +12925,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.511492537328095,174.477527611357</t>
+          <t>-35.511486061916635,174.47752904544865</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-35.51176115680601,174.47838086687423</t>
+          <t>-35.51166748503168,174.47840161149156</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -12899,12 +12947,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-35.51138662443146,174.47755106756856</t>
+          <t>-35.51147843334969,174.47753073492615</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-35.51163652721907,174.47840846742065</t>
+          <t>-35.51166509001468,174.47840214189313</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12921,12 +12969,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-35.51150504462963,174.47752484139863</t>
+          <t>-35.51147825594115,174.47753077421635</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.51166695280569,174.47840172935855</t>
+          <t>-35.511664823901675,174.47840220082665</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12943,12 +12991,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-35.51156793595338,174.47751091301436</t>
+          <t>-35.51148517487397,174.4775292418995</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.51174847208678,174.47838367604376</t>
+          <t>-35.51167129931802,174.4784007667779</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12965,12 +13013,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.51145137854808,174.47753672667545</t>
+          <t>-35.511465127709585,174.47753368168856</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-35.51167653287368,174.47839960775207</t>
+          <t>-35.51167050097902,174.47840094357844</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -12987,12 +13035,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-35.51156092831654,174.4775124649792</t>
+          <t>-35.51146752272481,174.47753315127142</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-35.51169702357456,174.47839506986986</t>
+          <t>-35.51166757373601,174.47840159184705</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -13009,12 +13057,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-35.51146086990473,174.47753462465235</t>
+          <t>-35.51146690179494,174.47753328878696</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.51164282522682,174.47840707266184</t>
+          <t>-35.51166526742335,174.47840210260412</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -13031,12 +13079,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-35.511484908761155,174.4775293008348</t>
+          <t>-35.5114888117489,174.47752843645085</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.511657638850636,174.47840379203114</t>
+          <t>-35.51168593553299,174.47839752543408</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -13053,12 +13101,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.511497149949946,174.4775265898122</t>
+          <t>-35.511504068882715,174.47752505749472</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.5116515182516,174.47840514750143</t>
+          <t>-35.51167724250835,174.478399450596</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -13075,12 +13123,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-35.51153050275384,174.477519203254</t>
+          <t>-35.51150735094056,174.47752433062607</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.511707490685765,174.47839275181667</t>
+          <t>-35.51168105679468,174.47839860588215</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -13097,12 +13145,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.511530946275165,174.47751910502842</t>
+          <t>-35.51150238350165,174.47752543075154</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.511664114267006,174.47840235798262</t>
+          <t>-35.511671033205026,174.47840082571142</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -13119,12 +13167,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-35.51141172773989,174.47754550801938</t>
+          <t>-35.51149102935556,174.47752794532357</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.511559886672586,174.47842544024434</t>
+          <t>-35.51165710662464,174.47840390989813</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -13141,10 +13189,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-35.5113987769165,174.4775483761971</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>-35.51148446523984,174.47752939906024</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>-35.51165435679029,174.47840451887757</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13159,12 +13211,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-35.51159153128738,174.4775056874095</t>
+          <t>-35.51149218251103,174.4775276899374</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.511758761789096,174.47838139727696</t>
+          <t>-35.51166659798835,174.4784018079366</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -13181,12 +13233,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-35.51150460110831,174.47752493962415</t>
+          <t>-35.511493779187816,174.47752733632572</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.511627035855234,174.47841056938077</t>
+          <t>-35.511660920910984,174.47840306518466</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -13203,12 +13255,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.51145758784682,174.4775353515202</t>
+          <t>-35.51148978749583,174.47752822035486</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.51158428036531,174.47842003801782</t>
+          <t>-35.511651340842924,174.47840518679044</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -13225,12 +13277,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.51143718586513,174.47753986988673</t>
+          <t>-35.51148446523984,174.47752939906024</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.511618076717376,174.47841255347353</t>
+          <t>-35.51164761526089,174.47840601185922</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -13247,12 +13299,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.51143922606332,174.47753941805018</t>
+          <t>-35.51147994132222,174.4775304009597</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.51171112756338,174.47839194639127</t>
+          <t>-35.51165355845128,174.47840469567802</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -13269,12 +13321,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-35.5114181144473,174.47754409357523</t>
+          <t>-35.51147426424913,174.47753165824514</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.51163439831503,174.4784089388884</t>
+          <t>-35.51165169566026,174.47840510821246</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13291,12 +13343,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-35.511354424781004,174.4775581987171</t>
+          <t>-35.51146432937118,174.47753385849427</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.51162118136911,174.47841186591666</t>
+          <t>-35.51164885712157,174.4784057368363</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13313,12 +13365,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-35.51138937426386,174.47755045857215</t>
+          <t>-35.51144854001149,174.4775373553178</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-35.511567870062954,174.47842367224325</t>
+          <t>-35.51163466442804,174.47840887995494</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13335,12 +13387,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-35.51141660647473,174.47754442754126</t>
+          <t>-35.511445878883436,174.47753794466996</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-35.51163998668812,174.47840770128556</t>
+          <t>-35.51163519665405,174.478408762088</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -13357,12 +13409,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-35.51155959775259,174.47751275965604</t>
+          <t>-35.51145457190172,174.47753601945277</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.51176275348393,174.47838051327244</t>
+          <t>-35.51164575246986,174.4784064243936</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13379,12 +13431,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-35.511590555540494,174.47750590350597</t>
+          <t>-35.51146432937118,174.47753385849427</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-35.511784308636,174.47837573964665</t>
+          <t>-35.511656485694296,174.4784040474096</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13401,12 +13453,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-35.51147444165766,174.47753161895497</t>
+          <t>-35.51146495030105,174.47753372097873</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-35.51163794648843,174.47840815310883</t>
+          <t>-35.51165515512929,174.47840434207708</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -13423,12 +13475,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-35.511394341702996,174.47754935844955</t>
+          <t>-35.51145421708465,174.47753609803308</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-35.51161745578702,174.4784126909849</t>
+          <t>-35.51166163054566,174.47840290802867</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -13445,12 +13497,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.511539461884595,174.47751721909773</t>
+          <t>-35.51146690179494,174.47753328878696</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.51163519665405,174.478408762088</t>
+          <t>-35.51162632622055,174.47841072653662</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13467,12 +13519,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-35.511425920422994,174.47754236480995</t>
+          <t>-35.5114532413377,174.47753631412888</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.51160086807622,174.47841636450204</t>
+          <t>-35.51161781060436,174.47841261240697</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -13489,12 +13541,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-35.51161166715492,174.47750122796248</t>
+          <t>-35.51149289214516,174.47752753277666</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-35.511697910617876,174.47839487342472</t>
+          <t>-35.51163785778409,174.47840817275332</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13511,12 +13563,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-35.511616102368,174.47750024570513</t>
+          <t>-35.51151746322683,174.47752209108458</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.511342561034965,174.4784735690387</t>
+          <t>-35.511578780696425,174.47842125597458</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13533,12 +13585,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.51142467856322,174.4775426398408</t>
+          <t>-35.51150202868459,174.47752550933194</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.51156121723764,174.4784251455775</t>
+          <t>-35.51157585345331,174.47842190424186</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13555,12 +13607,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.51131770121219,174.47756633175612</t>
+          <t>-35.5114756835174,174.4775313439238</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.51158153053087,174.47842064699623</t>
+          <t>-35.51157665179233,174.47842172744168</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -13577,12 +13629,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.511475860925934,174.47753130463363</t>
+          <t>-35.5114756835174,174.4775313439238</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-35.51167706509968,174.478399489885</t>
+          <t>-35.51158924780816,174.47841893792764</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -13599,12 +13651,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-35.511598450219864,174.4775041550887</t>
+          <t>-35.5114893439745,174.4775283185803</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.51170820032043,174.4783925946605</t>
+          <t>-35.511602464754276,174.47841601090153</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13621,12 +13673,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-35.51146654697787,174.4775333673673</t>
+          <t>-35.51148703766358,174.47752882935265</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.511597231198444,174.4784171699254</t>
+          <t>-35.51160193252826,174.47841612876834</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13643,12 +13695,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-35.51148384430996,174.47752953657584</t>
+          <t>-35.511495996794494,174.4775268451984</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-35.511690015932295,174.47839662178654</t>
+          <t>-35.51160920628381,174.4784145179214</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -13663,10 +13715,14 @@
           <t>2016-08-16 22:11:53+00:00</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>-35.511495996794494,174.4775268451984</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-35.511653469746946,174.47840471532254</t>
+          <t>-35.51161319797892,174.4784136339199</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13683,12 +13739,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.51139726894391,174.47754871016295</t>
+          <t>-35.5114880134105,174.47752861325668</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-35.511644776722186,174.478406640483</t>
+          <t>-35.5116154155873,174.4784131428079</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13705,12 +13761,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-35.511561371837864,174.4775123667536</t>
+          <t>-35.511482425041685,174.47752985089727</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-35.5116998621132,174.47839444124534</t>
+          <t>-35.51161559299598,174.47841310351896</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -13727,12 +13783,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.51136382743381,174.4775561163437</t>
+          <t>-35.51147852205395,174.47753071528106</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.51157079730609,174.4784230239761</t>
+          <t>-35.5116520504776,174.47840502963447</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13749,12 +13805,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-35.51145945063645,174.47753493897358</t>
+          <t>-35.511445435362106,174.4775380428953</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-35.511625173064196,174.47841098191492</t>
+          <t>-35.51163883353177,174.47840795666392</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13771,12 +13827,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-35.51142458985896,174.47754265948586</t>
+          <t>-35.511441266261485,174.4775389662136</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-35.51158862687781,174.47841907543892</t>
+          <t>-35.511625882698866,174.47841082475907</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13793,12 +13849,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-35.51155276752427,174.47751427233032</t>
+          <t>-35.51145013668831,174.47753700170648</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-35.5117028780605,174.4783937733317</t>
+          <t>-35.511621891003784,174.4784117087608</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13815,12 +13871,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-35.51138218921793,174.47755204982073</t>
+          <t>-35.51143656493525,174.4775400074022</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.51161993950842,174.4784121409394</t>
+          <t>-35.511621447482106,174.47841180698322</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -13837,12 +13893,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.5113560214579,174.47755784510656</t>
+          <t>-35.51143496825842,174.47754036101338</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.51160290827595,174.47841591267914</t>
+          <t>-35.51162792289859,174.4784103729359</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13859,12 +13915,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.51146752272481,174.47753315127142</t>
+          <t>-35.511440379218804,174.47753916266427</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-35.511632003298,174.47840946928955</t>
+          <t>-35.51162863253326,174.47841021578003</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -13881,12 +13937,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.511559154231264,174.47751285788164</t>
+          <t>-35.51145705562122,174.47753546939066</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.51167475878702,174.47840000064218</t>
+          <t>-35.511636882036406,174.47840838884272</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13903,12 +13959,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.51141917889853,174.47754385783455</t>
+          <t>-35.51145164466088,174.47753666774025</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.511741819262,174.4783851493841</t>
+          <t>-35.51165187306893,174.47840506892345</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13925,12 +13981,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-35.51157175023671,174.47751006827392</t>
+          <t>-35.51147266757231,174.47753201185665</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-35.51170820032043,174.4783925946605</t>
+          <t>-35.51166890430101,174.47840129717952</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -13947,12 +14003,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-35.51163987511003,174.47749498080415</t>
+          <t>-35.51149360177929,174.4775273756159</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.51169285447093,174.47839599316208</t>
+          <t>-35.51167192024836,174.47840062926636</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -13969,12 +14025,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-35.5114901423129,174.47752814177448</t>
+          <t>-35.51149315825795,174.47752747384138</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-35.51166278370201,174.47840265265015</t>
+          <t>-35.51167094450068,174.4784008453559</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13991,12 +14047,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.51152642235765,174.47752010692895</t>
+          <t>-35.51152482568087,174.47752046054086</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.511626060107545,174.4784107854701</t>
+          <t>-35.51167688769101,174.47839952917403</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -14013,12 +14069,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-35.511533696107385,174.47751849603</t>
+          <t>-35.51153431703723,174.47751835851423</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-35.51163404349769,174.47840901746633</t>
+          <t>-35.51167724250835,174.478399450596</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -14035,12 +14091,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-35.5115790239863,174.47750845737335</t>
+          <t>-35.51153715557371,174.47751772987067</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.511709442181065,174.4783923196372</t>
+          <t>-35.511682209951005,174.47839835050354</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14055,10 +14111,14 @@
           <t>2018-03-31 22:11:15+00:00</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>-35.51154638081723,174.47751568677882</t>
+        </is>
+      </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-35.51157328102753,174.47842247393123</t>
+          <t>-35.511635728880066,174.47840864422105</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -14075,12 +14135,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-35.51141749351742,174.47754423109066</t>
+          <t>-35.51151418116903,174.47752281795337</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.5116101820315,174.47841430183215</t>
+          <t>-35.51163058402863,174.47840978360134</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -14097,12 +14157,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-35.51135557793655,174.4775579433317</t>
+          <t>-35.511482425041685,174.47752985089727</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-35.511533009258095,174.47843139251228</t>
+          <t>-35.51161435113527,174.4784133785417</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -14119,12 +14179,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-35.51139584967559,174.47754902448372</t>
+          <t>-35.511468054950406,174.4775330334009</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.511628011602916,174.47841035329142</t>
+          <t>-35.51161630263065,174.47841294636314</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -14141,12 +14201,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.51133819189922,174.47756179375693</t>
+          <t>-35.511449427054174,174.47753715886708</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-35.51159909398951,174.4784167573915</t>
+          <t>-35.511614173726606,174.47841341783064</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -14163,12 +14223,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.511343070634204,174.4775607132806</t>
+          <t>-35.51143612141391,174.47754010562753</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.511577538835716,174.47842153099705</t>
+          <t>-35.511610093327164,174.47841432147663</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -14185,12 +14245,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-35.511385648684495,174.47755128366404</t>
+          <t>-35.51140214767876,174.47754762968515</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-35.511569466741015,174.478423318643</t>
+          <t>-35.51159998103287,174.47841656094675</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -14207,12 +14267,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.511481626703294,174.47753002770307</t>
+          <t>-35.511388221108334,174.47755071395775</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.511675024900015,174.47839994170866</t>
+          <t>-35.51159572322474,174.4784175038814</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -14229,12 +14289,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.511440911444424,174.47753904479387</t>
+          <t>-35.51139478522434,174.4775492602243</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.51166996875302,174.47840106144545</t>
+          <t>-35.51160397272799,174.47841567694545</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -14251,12 +14311,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-35.511573790434774,174.47750961643598</t>
+          <t>-35.51141465498079,174.4775448597325</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-35.511737561454126,174.4783860923218</t>
+          <t>-35.51161727837835,174.47841273027385</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -14273,12 +14333,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.511493956596354,174.47752729703555</t>
+          <t>-35.51142263836505,174.4775430916772</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.511693475401266,174.4783958556505</t>
+          <t>-35.51162419731651,174.47841119800424</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -14295,12 +14355,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.51149564197742,174.47752692377878</t>
+          <t>-35.511429291185216,174.47754161829755</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.51167662157803,174.47839958810755</t>
+          <t>-35.51162863253326,174.47841021578003</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -14317,12 +14377,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-35.511457321734035,174.47753541045543</t>
+          <t>-35.511475594813135,174.47753136356886</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.51160219864126,174.47841606983494</t>
+          <t>-35.51166065479799,174.4784031241182</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -14339,12 +14399,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.51144410479807,174.47753833757136</t>
+          <t>-35.51149298084942,174.47752751313155</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.511632801637006,174.47840929248915</t>
+          <t>-35.51166854948368,174.47840137575753</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -14361,12 +14421,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-35.51155134825603,174.47751458665223</t>
+          <t>-35.511488456931836,174.47752851503122</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-35.51168593553299,174.47839752543408</t>
+          <t>-35.51165817107664,174.47840367416416</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -14383,12 +14443,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.51130785503784,174.47756851235238</t>
+          <t>-35.51144020181027,174.47753920195441</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.511568668402,174.47842349544314</t>
+          <t>-35.5116224232298,174.47841159089393</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14405,12 +14465,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-35.51141634036191,174.47754448647643</t>
+          <t>-35.51143541177975,174.47754026278804</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-35.51162987439394,174.47840994075722</t>
+          <t>-35.51162393120349,174.47841125693768</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -14427,12 +14487,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-35.51127964707865,174.4775747594633</t>
+          <t>-35.51140942142889,174.4775460187908</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-35.511516155433675,174.47843512495564</t>
+          <t>-35.511605924223396,174.478415244767</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -14449,12 +14509,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.51150681871495,174.47752444849667</t>
+          <t>-35.51142334799919,174.47754293451672</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.511672718587356,174.47840045246582</t>
+          <t>-35.51161550429163,174.47841312316345</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -14471,12 +14531,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-35.51138493905032,174.47755144082439</t>
+          <t>-35.511418557968646,174.47754399534995</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.51159572322474,174.4784175038814</t>
+          <t>-35.51161302057024,174.47841367320885</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -14493,12 +14553,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-35.511558001075834,174.47751311326823</t>
+          <t>-35.51143408121573,174.47754055746404</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.511575409931616,174.47842200246416</t>
+          <t>-35.511608851466455,174.47841459649928</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14515,12 +14575,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.51141563072775,174.4775446436369</t>
+          <t>-35.511429379889485,174.4775415986525</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.511577893653055,174.4784214524192</t>
+          <t>-35.51160610163204,174.47841520547806</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -14537,12 +14597,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-35.51157192764523,174.47751002898366</t>
+          <t>-35.511443661276736,174.4775384357967</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.51167724250835,174.478399450596</t>
+          <t>-35.51161328668324,174.47841361427544</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -14559,12 +14619,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-35.51149227121529,174.4775276702923</t>
+          <t>-35.51144809649015,174.47753745354314</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-35.51169179001894,174.47839622889626</t>
+          <t>-35.51162038303009,174.478412042717</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -14581,12 +14641,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-35.51149085194704,174.47752798461374</t>
+          <t>-35.51144241941699,174.47753871082767</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-35.51164708303488,174.47840612972618</t>
+          <t>-35.51161523817864,174.4784131820969</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -14603,12 +14663,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-35.511364537067976,174.47755595918343</t>
+          <t>-35.51143532307549,174.47754028243313</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.511579490331115,174.47842109881887</t>
+          <t>-35.51161204482254,174.4784138892981</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -14623,10 +14683,14 @@
           <t>2019-11-21 21:54:43+00:00</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>-35.51147311109366,174.47753191363122</t>
+        </is>
+      </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.51164388967883,174.47840683692792</t>
+          <t>-35.511628987350605,174.4784101372021</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -14643,12 +14707,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-35.51141403405091,174.4775449972479</t>
+          <t>-35.511461490834606,174.4775344871368</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-35.51163652721907,174.47840846742065</t>
+          <t>-35.511624995655524,174.4784110212039</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -14665,12 +14729,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-35.511413767938095,174.47754505618306</t>
+          <t>-35.511465127709585,174.47753368168856</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-35.51166242888467,174.47840273122816</t>
+          <t>-35.511632446819654,174.4784093710671</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -14687,12 +14751,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.51141048588012,174.47754578305015</t>
+          <t>-35.51144667722186,174.47753776786428</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-35.511661275728315,174.47840298660665</t>
+          <t>-35.51164193818348,174.47840726910675</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -14709,12 +14773,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.511495730681695,174.4775269041337</t>
+          <t>-35.51145217688647,174.47753654986977</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.511577538835716,174.47842153099705</t>
+          <t>-35.511635551471386,174.47840868351003</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -14731,12 +14795,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.51141917889853,174.47754385783455</t>
+          <t>-35.511452531703554,174.47753647128948</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.511565386341495,174.47842422228806</t>
+          <t>-35.51163422090637,174.47840897817736</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -14753,12 +14817,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-35.511404542694045,174.47754709926875</t>
+          <t>-35.511433903807195,174.47754059675418</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.51157780494872,174.47842147206367</t>
+          <t>-35.51162428602084,174.47841117835978</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -14775,12 +14839,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-35.511272728145215,174.47757629177292</t>
+          <t>-35.511409510133156,174.47754599914575</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.51159847305914,174.47841689490278</t>
+          <t>-35.51161497206562,174.47841324103032</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -14797,12 +14861,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-35.511493424370755,174.47752741490612</t>
+          <t>-35.51141793703877,174.47754413286538</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-35.51165187306893,174.47840506892345</t>
+          <t>-35.511618342830374,174.47841249454007</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -14819,12 +14883,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.51132204772157,174.47756536915043</t>
+          <t>-35.51140924402034,174.47754605808092</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-35.511597231198444,174.4784171699254</t>
+          <t>-35.51161656874366,174.47841288742967</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14841,12 +14905,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-35.5113239105113,174.47756495660508</t>
+          <t>-35.5113970028311,174.4775487690981</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-35.51159847305914,174.47841689490278</t>
+          <t>-35.51161550429163,174.47841312316345</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -14863,12 +14927,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.51131956400193,174.47756591921083</t>
+          <t>-35.51138990648948,174.47755034070187</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.51157780494872,174.47842147206367</t>
+          <t>-35.51161239963989,174.4784138107202</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -14885,12 +14949,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.511399220437845,174.47754827797183</t>
+          <t>-35.51138609220584,174.47755118543884</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.511542500622326,174.47842929055668</t>
+          <t>-35.51159483618137,174.4784177003261</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14907,12 +14971,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.51144268552979,174.47753865189247</t>
+          <t>-35.51139123705352,174.47755004602618</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-35.5116486797129,174.47840577612527</t>
+          <t>-35.51159971491985,174.4784166198802</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -14929,12 +14993,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.511573790434774,174.47750961643598</t>
+          <t>-35.51140605066665,174.47754676530286</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.51174811726946,174.47838375462194</t>
+          <t>-35.51160760960576,174.47841487152198</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14949,10 +15013,14 @@
           <t>2020-07-02 21:42:25+00:00</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>-35.511397091535365,174.47754874945304</t>
+        </is>
+      </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.511614173726606,174.47841341783064</t>
+          <t>-35.51161098037053,174.47841412503186</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14969,12 +15037,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.51138218921793,174.47755204982073</t>
+          <t>-35.51139576097131,174.47754904412875</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.511548621221664,174.47842793508974</t>
+          <t>-35.51160574681471,174.47841528405596</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14991,12 +15059,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-35.511348747707615,174.47755945599894</t>
+          <t>-35.51138937426386,174.47755045857215</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.511592618572955,174.47841819143787</t>
+          <t>-35.51160805312744,174.4784147732996</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -15013,12 +15081,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-35.51141465498079,174.4775448597325</t>
+          <t>-35.511400639706174,174.47754796365103</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.51161914116939,174.47841231773975</t>
+          <t>-35.511610004622824,174.4784143411211</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -15035,12 +15103,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.51157343561771,174.4775096950165</t>
+          <t>-35.51141979982842,174.47754372031912</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.51167724250835,174.478399450596</t>
+          <t>-35.511616746152335,174.47841284814072</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -15057,12 +15125,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.51155844459715,174.47751301504263</t>
+          <t>-35.51146166824314,174.47753444784666</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.51170820032043,174.4783925946605</t>
+          <t>-35.51163324515868,174.47840919426673</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -15079,12 +15147,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.5114904084257,174.4775280828392</t>
+          <t>-35.511477368898476,174.4775309706672</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-35.511653381042606,174.478404734967</t>
+          <t>-35.51164522024386,174.47840654226056</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -15101,12 +15169,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.511516221367124,174.47752236611603</t>
+          <t>-35.51151063299839,174.47752360375742</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-35.51157336973187,174.47842245428677</t>
+          <t>-35.51164628469587,174.4784063065266</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -15123,12 +15191,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-35.51140977624596,174.47754594021058</t>
+          <t>-35.51149386789209,174.47752731668064</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.51158472388699,174.47841993979546</t>
+          <t>-35.511635994993064,174.47840858528758</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -15145,12 +15213,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.511639963814275,174.47749496115898</t>
+          <t>-35.511531389796495,174.47751900680288</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-35.511858376749565,174.47835933642904</t>
+          <t>-35.51167591194336,174.4783997452636</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -15167,12 +15235,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-35.511409598837425,174.4775459795007</t>
+          <t>-35.511504068882715,174.47752505749472</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.5115637009591,174.47842459553274</t>
+          <t>-35.51165692921597,174.4784039491871</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -15189,12 +15257,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-35.51140418787697,174.47754717784898</t>
+          <t>-35.51148978749583,174.47752822035486</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-35.51163005180262,174.47840990146827</t>
+          <t>-35.5116531149296,174.4784047939005</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -15209,10 +15277,14 @@
           <t>2021-05-02 21:20:50+00:00</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>-35.51148978749583,174.47752822035486</t>
+        </is>
+      </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-35.51150843815615,174.47843683402132</t>
+          <t>-35.51163501924537,174.47840880137696</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -15229,12 +15301,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.51131903177629,174.47756603708092</t>
+          <t>-35.51145563635294,174.47753578371186</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.511621624890786,174.47841176769427</t>
+          <t>-35.51162419731651,174.47841119800424</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -15251,12 +15323,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.51161965053848,174.4774994598992</t>
+          <t>-35.51147612703875,174.47753124569837</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.51188569768186,174.47835328589383</t>
+          <t>-35.511653292338266,174.47840475461152</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -15273,12 +15345,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-35.51138059254106,174.4775524034315</t>
+          <t>-35.511465482526646,174.47753360310827</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-35.51166544483201,174.47840206331512</t>
+          <t>-35.51165444549462,174.47840449923305</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -15295,12 +15367,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.51155400938396,174.47751399729864</t>
+          <t>-35.51147435295339,174.47753163860006</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-35.51168451626365,174.47839783974626</t>
+          <t>-35.511657195328965,174.47840389025362</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -15317,12 +15389,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-35.51145412838039,174.47753611767814</t>
+          <t>-35.51147071607843,174.47753244404845</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-35.51164681692188,174.47840618865965</t>
+          <t>-35.51165657439864,174.47840402776512</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -15339,12 +15411,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-35.51147852205395,174.47753071528106</t>
+          <t>-35.51147142571257,174.47753228688782</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-35.511641139844464,174.47840744590718</t>
+          <t>-35.51165533253795,174.47840430278808</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -15361,12 +15433,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-35.5114912067641,174.4775279060334</t>
+          <t>-35.51147311109366,174.47753191363122</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.511709442181065,174.4783923196372</t>
+          <t>-35.511659501641645,174.47840337949665</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -15383,12 +15455,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-35.51150087552912,174.4775257647182</t>
+          <t>-35.51147178052963,174.47753220830748</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-35.511692588357946,174.47839605209563</t>
+          <t>-35.51166863818803,174.478401356113</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -15405,12 +15477,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-35.51156208147197,174.4775122095926</t>
+          <t>-35.51148446523984,174.47752939906024</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-35.51173765015845,174.47838607267727</t>
+          <t>-35.51168043586434,174.4783987433937</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -15427,12 +15499,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-35.511530946275165,174.47751910502842</t>
+          <t>-35.511488102114775,174.4775285936116</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-35.51169853154822,174.4783947359131</t>
+          <t>-35.51168167772501,174.47839846837059</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -15449,12 +15521,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-35.51140303472145,174.47754743323466</t>
+          <t>-35.511469829035754,174.47753264049928</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-35.511596521563746,174.47841732708116</t>
+          <t>-35.511663049815,174.47840259371665</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -15471,12 +15543,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-35.51150779446189,174.4775242324006</t>
+          <t>-35.511483489492896,174.47752961515621</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-35.51162322156883,174.47841141409359</t>
+          <t>-35.511683629220336,174.47839803619138</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -15493,12 +15565,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-35.511447209447475,174.47753764999388</t>
+          <t>-35.51148073966061,174.4775302241539</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-35.511620116917086,174.47841210165043</t>
+          <t>-35.51167875048201,174.47839911663937</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -15515,12 +15587,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-35.51140871179473,174.47754617595123</t>
+          <t>-35.51148756988917,174.47752871148214</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.51160867405779,174.47841463578825</t>
+          <t>-35.51167768603002,174.47839935237346</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -15537,12 +15609,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-35.51137340749511,174.47755399467977</t>
+          <t>-35.51146867588028,174.47753289588536</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-35.51160423884099,174.47841561801204</t>
+          <t>-35.511656042172625,174.4784041456321</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -15559,12 +15631,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-35.51158470105914,174.47750720008486</t>
+          <t>-35.51148100577342,174.47753016521867</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-35.511640518914135,174.4784075834186</t>
+          <t>-35.5116531149296,174.4784047939005</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -15581,12 +15653,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-35.51156527482547,174.47751150236815</t>
+          <t>-35.511488634340374,174.47752847574105</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-35.51169303187961,174.47839595387305</t>
+          <t>-35.5116567518073,174.47840398847612</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -15603,12 +15675,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-35.51148925527023,174.4775283382254</t>
+          <t>-35.511488456931836,174.47752851503122</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-35.51165409067729,174.47840457781106</t>
+          <t>-35.511651784364595,174.47840508856797</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -15625,12 +15697,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-35.511416517770456,174.4775444471863</t>
+          <t>-35.511480828364896,174.4775302045088</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-35.511619495986736,174.47841223916183</t>
+          <t>-35.51164513153952,174.47840656190502</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -15647,12 +15719,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-35.51150504462963,174.47752484139863</t>
+          <t>-35.511475594813135,174.47753136356886</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-35.51156192687235,174.47842498842186</t>
+          <t>-35.51162916475928,174.4784100979131</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -15669,12 +15741,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-35.51163570600976,174.47749590412656</t>
+          <t>-35.511488989157435,174.47752839716068</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-35.51184152292752,174.47836306890017</t>
+          <t>-35.51164681692188,174.47840618865965</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -15691,12 +15763,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-35.5113954948585,174.4775491030639</t>
+          <t>-35.511477635011275,174.47753091173192</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-35.5116345757237,174.4784088995994</t>
+          <t>-35.5116414946618,174.4784073673292</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -15713,12 +15785,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-35.51130918560194,174.47756821767726</t>
+          <t>-35.51147497388326,174.47753150108448</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-35.51156724913259,174.47842380975445</t>
+          <t>-35.51164628469587,174.4784063065266</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -15735,12 +15807,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-35.51155596087777,174.47751356510602</t>
+          <t>-35.51149519845609,174.47752702200424</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-35.511695870418244,174.47839532524858</t>
+          <t>-35.511656485694296,174.4784040474096</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15757,12 +15829,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-35.51134227229575,174.47756089008584</t>
+          <t>-35.51147994132222,174.4775304009597</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-35.51159306209463,174.4784180932155</t>
+          <t>-35.511650098982244,174.47840546181337</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -15779,10 +15851,14 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-35.51132302346857,174.47756515305525</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr"/>
+          <t>-35.51146565993519,174.47753356381807</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>-35.511650098982244,174.47840546181337</t>
+        </is>
+      </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>L7</t>
@@ -15797,12 +15873,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-35.511515600437264,174.47752250363175</t>
+          <t>-35.511469829035754,174.47753264049928</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.51169072556695,174.4783964646304</t>
+          <t>-35.51165382456428,174.47840463674453</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -15819,12 +15895,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-35.51138591479731,174.4775512247289</t>
+          <t>-35.51144312905113,174.4775385536671</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-35.51153664613599,174.4784305870901</t>
+          <t>-35.511639543166446,174.478407799508</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -15841,12 +15917,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-35.511512584492245,174.4775231715652</t>
+          <t>-35.5114451692493,174.47753810183053</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-35.511667396327354,174.47840163113605</t>
+          <t>-35.511640873731466,174.47840750484065</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -15863,12 +15939,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-35.51149803699262,174.47752639336125</t>
+          <t>-35.51143035563644,174.47754138255678</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.51166943652703,174.47840117931247</t>
+          <t>-35.511631471071986,174.47840958715648</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -15883,10 +15959,14 @@
           <t>2022-12-30 20:20:35+00:00</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>-35.51147807853261,174.4775308135065</t>
+        </is>
+      </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.511726650821394,174.47838850859924</t>
+          <t>-35.51165817107664,174.47840367416416</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15903,12 +15983,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-35.51148659414223,174.4775289275781</t>
+          <t>-35.51149235991956,174.4775276506472</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-35.51157824847041,174.47842137384134</t>
+          <t>-35.51165808237231,174.47840369380864</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -15925,10 +16005,14 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-35.51152979311972,174.47751936041482</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr"/>
+          <t>-35.51150477851684,174.47752490033392</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>-35.51165808237231,174.47840369380864</t>
+        </is>
+      </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>L7</t>
@@ -15943,12 +16027,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-35.51131823343783,174.47756621388604</t>
+          <t>-35.51145812007243,174.47753523364975</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-35.5115717730538,174.47842280788706</t>
+          <t>-35.51163652721907,174.47840846742065</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -15963,10 +16047,14 @@
           <t>2023-03-18 20:14:51+00:00</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>-35.51145812007243,174.47753523364975</t>
+        </is>
+      </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-35.5116032630933,174.47841583410127</t>
+          <t>-35.51162987439394,174.47840994075722</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -15983,12 +16071,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-35.51138085865386,174.47755234449636</t>
+          <t>-35.51144268552979,174.47753865189247</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-35.51157372454921,174.47842237570893</t>
+          <t>-35.51162056043875,174.47841200342805</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -16005,12 +16093,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-35.511426630057144,174.47754220764944</t>
+          <t>-35.51144002440173,174.47753924124453</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-35.51147943183688,174.4784432577483</t>
+          <t>-35.511600335850204,174.47841648236889</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -16027,12 +16115,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-35.51142831543826,174.47754183439324</t>
+          <t>-35.51142840414253,174.47754181474818</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.511640430209795,174.47840760306312</t>
+          <t>-35.51159625545074,174.47841738601457</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -16049,12 +16137,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-35.51147293368511,174.4775319529214</t>
+          <t>-35.51143479084988,174.47754040030352</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-35.51157576474896,174.47842192388632</t>
+          <t>-35.511593683025,174.47841795570423</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -16071,12 +16159,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-35.51150593167229,174.47752464494766</t>
+          <t>-35.511443661276736,174.4775384357967</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-35.51163972057511,174.47840776021903</t>
+          <t>-35.511598739172165,174.47841683596937</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -16093,12 +16181,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-35.51138706795282,174.47755096934335</t>
+          <t>-35.51143736327367,174.47753983059658</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-35.511614528543944,174.4784133392527</t>
+          <t>-35.511600335850204,174.47841648236889</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -16115,12 +16203,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-35.51139026130656,174.4775502621217</t>
+          <t>-35.511432661947424,174.4775408717851</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-35.511607787014434,174.47841483223303</t>
+          <t>-35.51158844946914,174.47841911472787</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -16137,12 +16225,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-35.51143931476758,174.47753939840507</t>
+          <t>-35.51143328287731,174.47754073426964</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-35.511649744164906,174.47840554039135</t>
+          <t>-35.511594037842336,174.47841787712633</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -16159,12 +16247,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-35.51149981107794,174.47752600045933</t>
+          <t>-35.51143443603281,174.47754047888378</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-35.511668372075015,174.47840141504653</t>
+          <t>-35.51160219864126,174.47841606983494</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -16181,12 +16269,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-35.5115823947483,174.47750771085833</t>
+          <t>-35.51143922606332,174.47753941805018</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-35.511692499653606,174.47839607174015</t>
+          <t>-35.51160973850982,174.47841440005453</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -16203,12 +16291,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-35.51158079807156,174.47750806447073</t>
+          <t>-35.511451023731006,174.47753680525574</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-35.5117190222489,174.47839019802862</t>
+          <t>-35.5116181654217,174.47841253382904</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -16223,10 +16311,14 @@
           <t>2023-09-15 19:51:48+00:00</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>-35.51146308751144,174.47753413352538</t>
+        </is>
+      </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-35.511694717261925,174.47839558062728</t>
+          <t>-35.51162960828095,174.47840999969068</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -16243,12 +16335,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-35.51157219375803,174.4775099700483</t>
+          <t>-35.51148047354782,174.47753028308918</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.51174323853128,174.47838483507152</t>
+          <t>-35.5116438009745,174.47840685657243</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -16265,12 +16357,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-35.511521898440115,174.47752110882936</t>
+          <t>-35.511489166565966,174.4775283578705</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-35.51164734914788,174.47840607079272</t>
+          <t>-35.51165772755497,174.47840377238666</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -16287,10 +16379,14 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-35.51136347261672,174.47755619492384</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr"/>
+          <t>-35.51147869946247,174.47753067599092</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>-35.51165772755497,174.47840377238666</t>
+        </is>
+      </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>L7</t>
@@ -16305,12 +16401,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-35.5114869489593,174.47752884899774</t>
+          <t>-35.51150584296803,174.47752466459278</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-35.511664823901675,174.47840220082665</t>
+          <t>-35.51168495978534,174.4783977415237</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -16327,12 +16423,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-35.51152225325718,174.47752103024894</t>
+          <t>-35.511507705757616,174.4775242520457</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-35.51159678767676,174.47841726814775</t>
+          <t>-35.51167520230868,174.47839990241965</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -16349,12 +16445,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-35.51136063408004,174.4775568235649</t>
+          <t>-35.51149892403528,174.47752619691028</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-35.51160760960576,174.47841487152198</t>
+          <t>-35.51167050097902,174.47840094357844</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -16371,12 +16467,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-35.51148118318196,174.47753012592847</t>
+          <t>-35.511497149949946,174.4775265898122</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-35.51165098602558,174.47840526536842</t>
+          <t>-35.51166854948368,174.47840137575753</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -16393,12 +16489,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-35.511391591870606,174.477549967446</t>
+          <t>-35.5114756835174,174.4775313439238</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-35.51156920062802,174.47842337757638</t>
+          <t>-35.511654889016285,174.47840440101058</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -16415,12 +16511,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-35.51141625165765,174.4775445061215</t>
+          <t>-35.51144312905113,174.4775385536671</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-35.51163040661995,174.4784098228903</t>
+          <t>-35.51161993950842,174.4784121409394</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -16437,12 +16533,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-35.511395938379856,174.4775490048387</t>
+          <t>-35.51143638752671,174.47754004669233</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-35.51166198536299,174.47840282945066</t>
+          <t>-35.51162597140321,174.47841080511458</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -16459,12 +16555,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-35.51147506258753,174.4775314814394</t>
+          <t>-35.511441266261485,174.4775389662136</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.51165409067729,174.47840457781106</t>
+          <t>-35.51162951957661,174.47841001933517</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -16481,12 +16577,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-35.51132745868223,174.4775641708044</t>
+          <t>-35.511428581551066,174.47754177545804</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-35.511557757768465,174.47842591171124</t>
+          <t>-35.51162153618645,174.47841178733873</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -16503,12 +16599,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-35.51149564197742,174.47752692377878</t>
+          <t>-35.51143532307549,174.47754028243313</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-35.511632446819654,174.4784093710671</t>
+          <t>-35.511622600638475,174.47841155160492</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -16525,12 +16621,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-35.51146752272481,174.47753315127142</t>
+          <t>-35.5114313313834,174.47754116646107</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-35.511582240165566,174.4784204898405</t>
+          <t>-35.511617367082685,174.47841271062936</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -16547,12 +16643,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-35.51152589013205,174.4775202247996</t>
+          <t>-35.51145412838039,174.47753611767814</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-35.5117447465049,174.4783845011144</t>
+          <t>-35.51162925346361,174.47841007826864</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -16569,12 +16665,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-35.51147967520942,174.47753045989495</t>
+          <t>-35.51149218251103,174.4775276899374</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-35.51166526742335,174.47840210260412</t>
+          <t>-35.511656219581305,174.4784041063431</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -16591,12 +16687,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-35.51137021414134,174.4775547019011</t>
+          <t>-35.51146086990473,174.47753462465235</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-35.51162153618645,174.47841178733873</t>
+          <t>-35.511653469746946,174.47840471532254</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -16613,12 +16709,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-35.51140995365451,174.4775459009205</t>
+          <t>-35.51145066891394,174.47753688383602</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-35.511519703607256,174.4784343391782</t>
+          <t>-35.511626681037896,174.4784106479587</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -16635,12 +16731,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-35.511376866961676,174.47755322852322</t>
+          <t>-35.511432484538894,174.47754091107524</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-35.5116209152561,174.47841192485012</t>
+          <t>-35.51163439831503,174.4784089388884</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -16657,12 +16753,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-35.51142636394433,174.4775422665846</t>
+          <t>-35.51143150879194,174.47754112717095</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-35.51162322156883,174.47841141409359</t>
+          <t>-35.51163253552401,174.4784093514226</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -16679,12 +16775,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-35.51140046229763,174.47754800294112</t>
+          <t>-35.511427073578496,174.47754210942412</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-35.51165036509525,174.47840540287987</t>
+          <t>-35.51163510794971,174.47840878173247</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -16701,12 +16797,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-35.51154913064942,174.47751507778017</t>
+          <t>-35.51144233071271,174.47753873047276</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-35.51166553353635,174.47840204367063</t>
+          <t>-35.511638922236095,174.47840793701945</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -16723,12 +16819,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-35.511405429736755,174.47754690281823</t>
+          <t>-35.511427250987026,174.47754207013398</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-35.51161089166618,174.47841414467632</t>
+          <t>-35.51162215711679,174.47841164982736</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -16745,12 +16841,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-35.51152243066571,174.47752099095874</t>
+          <t>-35.51143780679502,174.47753973237124</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-35.51176541461385,174.47837992393605</t>
+          <t>-35.51163812389709,174.47840811381985</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -16767,12 +16863,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-35.511644310323064,174.4774939985462</t>
+          <t>-35.51145616857854,174.47753566584143</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-35.51168513719399,174.47839770223467</t>
+          <t>-35.51164034150546,174.4784076227076</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -16789,12 +16885,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-35.511407292526414,174.4775464902721</t>
+          <t>-35.51145120113954,174.4775367659656</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-35.5116567518073,174.47840398847612</t>
+          <t>-35.51164193818348,174.47840726910675</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -16811,12 +16907,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-35.51148047354782,174.47753028308918</t>
+          <t>-35.511462289173025,174.4775343103311</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-35.51157682920101,174.47842168815276</t>
+          <t>-35.51163750296674,174.47840825133127</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -16833,12 +16929,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-35.5114917389897,174.47752778816286</t>
+          <t>-35.51147044996562,174.4775325029837</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-35.51172993288165,174.47838778175162</t>
+          <t>-35.51165852589398,174.47840359558614</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -16855,12 +16951,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>-35.511571129306866,174.47751020578983</t>
+          <t>-35.51147958650515,174.47753047954004</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>-35.511631027550315,174.4784096853789</t>
+          <t>-35.511656042172625,174.4784041456321</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -16877,12 +16973,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-35.51152695458323,174.47751998905832</t>
+          <t>-35.511493246962225,174.4775274541963</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-35.5116154155873,174.4784131428079</t>
+          <t>-35.51165550994662,174.4784042634991</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -16899,12 +16995,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-35.51164289105489,174.47749431286874</t>
+          <t>-35.5115129393093,174.4775230929848</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-35.51179575149442,174.47837320549868</t>
+          <t>-35.5116712106137,174.47840078642238</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -16921,12 +17017,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>-35.511558001075834,174.47751311326823</t>
+          <t>-35.51152509179367,174.47752040160555</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-35.511662517588995,174.47840271158367</t>
+          <t>-35.51167298470035,174.4784003935323</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">

--- a/data/nzd0085/nzd0085.xlsx
+++ b/data/nzd0085/nzd0085.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6107,6 +6107,24 @@
       <c r="D315" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>349.88</v>
+      </c>
+      <c r="C316" t="n">
+        <v>348.46</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9779,6 +9797,16 @@
       </c>
       <c r="B365" t="n">
         <v>0.14</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -9946,34 +9974,34 @@
         <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0688</v>
+        <v>0.0689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0901</v>
+        <v>0.0902</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2711683386365084</v>
+        <v>0.2659950372297006</v>
       </c>
       <c r="J2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1926312168950682</v>
+        <v>0.185867020155787</v>
       </c>
       <c r="M2" t="n">
-        <v>3.119128392591099</v>
+        <v>3.132591965212598</v>
       </c>
       <c r="N2" t="n">
-        <v>15.84690401239539</v>
+        <v>15.99521780867353</v>
       </c>
       <c r="O2" t="n">
-        <v>3.980817003128302</v>
+        <v>3.999402181410808</v>
       </c>
       <c r="P2" t="n">
-        <v>350.7397497598087</v>
+        <v>350.7949595879193</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10031,31 +10059,31 @@
         <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1201</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2672994673380433</v>
+        <v>0.2641048679362729</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K3" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2003551762322392</v>
+        <v>0.1968086643014328</v>
       </c>
       <c r="M3" t="n">
-        <v>2.825793644749384</v>
+        <v>2.83074339071884</v>
       </c>
       <c r="N3" t="n">
-        <v>14.66269940563517</v>
+        <v>14.69189081300622</v>
       </c>
       <c r="O3" t="n">
-        <v>3.829190437368605</v>
+        <v>3.83300023649963</v>
       </c>
       <c r="P3" t="n">
-        <v>346.381033605586</v>
+        <v>346.4151265899271</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -10093,7 +10121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17031,6 +17059,28 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:12:04+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-35.511521277510255,174.4775212463451</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-35.51167094450068,174.4784008453559</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
